--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/npsound_orphans_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/npsound_orphans_station_configuration_extended.xlsx
@@ -834,7 +834,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>np_21sound.dat_converted.csv</t>
+          <t>np_14sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-20999-0-np21sound</t>
+          <t>0-20999-0-np14sound</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>np21sound</t>
+          <t>np14sound</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>163.92,163.61,163.35,163.12,162.62,161.94,161.91,161.72,161.56,161.16,160.71,160.59,160.65,160.76,160.61,160.58,160.63,160.6,160.94,161.28,161.69,162.08,162.36,162.46,162.59,162.61,162.54,162.43,162.36,162.25,162.13,161.86,161.85,161.9,161.87,161.85,161.88,161.97,162.04,162.12,162.26,162.43,162.47,162.41,162.35,162.11,161.93,161.88,161.85,161.8,161.59,161.28,161.21,161.16,160.91,160.99,160.76,160.66,160.65,160.65,160.63,160.57,160.52,160.33,160.27,160.31,160.62,160.74,161.07,161.62,161.4,160.9,161.41,161.54,161.58,161.74,162.11,162.3,162.3,162.11,161.58,161.38,161.38,161.16,160.91,160.8,160.76,160.74,160.75,160.79,161.05,161.18,161.03,161.01,161.24,161.15,161.24,161.5,161.63,161.81,161.99,161.97,161.91,161.82,161.93,162.04,162.1,161.97,161.77,161.62,161.56,161.63,161.86,162.02,162.22,162.25,162.18,162.15,162.05,161.91,161.62,161.47,161.38,161.32,161.01,160.65,160.36,160.13,159.97,159.71,159.69,159.66,159.63,159.52,159.37,159.11,159.0,158.72,158.36,157.87,157.4,157.19,157.1,157.03,156.84,156.6,156.32,156.13,156.12,156.16,156.27,156.33,156.31,156.28,156.25,156.21,156.09,155.52,155.13,154.94,154.93,154.87,154.88,155.22,155.74,155.88,156.0,156.03,156.34,156.8,157.01,157.07,157.13,157.19,157.27,157.32,157.3,157.3,157.41,157.57,157.78,158.29,158.72,159.16,159.61,159.66,159.35,159.25,159.15,159.16,159.49,159.44,159.07,159.03,159.02,158.72,158.57,158.24,157.9,157.59,157.29,157.02,157.07,157.22,157.5,157.84,158.22,158.3,158.16,158.0,157.72,157.63,157.76,158.16,158.32,158.31,158.3,158.31,158.58,159.05,159.28,159.3,159.29,159.35,159.62,159.77,159.81,159.66,159.33,158.9,158.5,158.11,157.85,157.27,156.76,155.88,155.49,155.47,155.19,154.96,154.82,154.6,154.46,154.47,154.41,154.37,154.07,153.57,153.15,152.97,153.01,153.15,153.33,153.55,153.93,154.6,155.29,156.04,156.3,156.69,156.97,157.24,157.41,157.35,157.13,156.85,156.5,156.16,155.34,154.36,153.38,152.55,152.08,151.63,150.99,149.97,149.43,149.15,148.96,148.88,148.62,148.15,147.77,147.47,147.25,147.03,146.5,145.85,145.55,145.15,144.63,143.93,143.19,142.84,142.4,142.04,141.24,140.76,140.37,140.27,140.4,140.85,141.33,141.96,141.86,141.66,141.65,141.28,140.8,140.52,140.47,140.63,140.85,140.94,140.88,140.01,139.47,139.62,139.87,140.03,140.04,139.76,139.37,138.79,138.25,137.81,137.47,137.19,136.97,136.88,136.91,136.91,136.75,136.38,136.19,136.13,136.13,136.35,136.18,135.85,135.76,135.5,134.91,134.79,135.31,135.8,135.87,135.75,135.63,135.71,135.9,136.13,136.19,135.94,135.58,135.13,134.57,134.06,133.68,133.12,132.38,131.57,130.71,130.3,130.26,130.02,129.72,129.63,129.72,129.43,129.16,129.07,129.06,129.25,129.43,129.44,129.47,129.3,129.09,129.22,129.49,129.68,129.56,129.33,129.16,129.13,129.3,129.3,129.09,128.63,127.77,127.16,125.15,124.25,124.05,124.04,124.01,123.92,123.96,124.87,125.78,128.28,129.38,130.03,130.44,130.87,131.33,131.82,132.37,132.93,133.25,133.52,133.88,134.77,135.88,136.9,137.38,137.38,137.85,138.77,139.85,140.51,140.84,141.24,141.61,141.91,142.22,142.37,142.59,142.72,142.91,143.12,143.19,143.11,142.93,142.79,142.82,142.93,143.1,143.4,143.88,144.76,145.8,145.9,145.81,145.32,144.71,143.94,143.52,143.65,143.63</t>
+          <t>182.95,182.77,182.46,182.15,182.08,182.0,181.84,181.69,181.33,180.98,180.57,180.16,179.78,179.4,179.0,178.59,178.33,178.06,177.68,177.31,177.03,176.75,176.6,176.46,176.31,176.17,175.95,175.74,175.57,175.4,175.1,174.79,174.65,174.51,174.45,174.4,174.34,174.29,174.08,173.88,173.55,173.39,173.23,173.15,173.07,172.99,172.91,172.87,172.84,172.8,172.77,172.74,172.71,172.68,172.65,172.63,172.62,172.6,172.59,172.6,172.62,172.64,172.66,172.66,172.67,172.67,172.67,172.64,172.62,172.56,172.79,173.01,173.14,173.27,173.23,173.18,173.18,173.19,173.19,173.19,173.14,173.09,173.03,172.98,172.82,172.66,172.5,172.34,172.23,172.12,172.01,171.9,171.72,171.54,171.37,171.19,171.15,171.1,171.06,171.02,170.96,170.89,170.83,170.77,170.7,170.63,170.56,170.5,170.46,170.43,170.38,170.36,170.35,170.33,170.32,170.3,170.29,170.27,170.26,170.25,170.24,170.23,170.45,170.56,170.67,170.8,170.92,171.05,171.18,171.22,171.23,171.25,170.48,170.08,169.69,169.56,169.43,169.3,169.17,169.21,169.24,169.28,169.32,169.15,169.07,168.99,168.85,168.71,168.57,168.43,168.15,167.88,167.71,167.63,167.55,167.49,167.43,167.3,167.29,167.29,167.27,167.25,167.31,167.37,167.4,167.43,167.34,167.26,167.12,166.98,166.7,166.56,166.42,166.53,166.64,166.84,167.05,167.08,167.11,166.99,166.86,166.59,166.31,166.28,166.26,166.2,166.09,165.97,165.93,165.89,165.96,166.03,166.0,165.96,165.94,165.92,165.89,165.88,165.87,165.39,164.92,164.76,164.59,164.61,164.62,164.61,164.59,164.6,164.62,164.3,163.98,163.27,162.57,162.59,162.61,162.56,162.51,162.31,162.12,161.9,161.68,161.09,160.5,160.22,159.94,159.74,159.53,159.22,158.91,158.55,158.19,158.09,157.99,158.03,158.05</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>77.65,77.67,77.68,77.65,77.64,77.69,77.79,77.84,77.84,77.79,77.69,77.59,77.61,77.66,77.73,77.78,77.77,77.77,77.78,77.8,77.84,77.93,77.98,78.05,78.09,78.13,78.15,78.16,78.17,78.2,78.23,78.31,78.34,78.38,78.37,78.33,78.34,78.37,78.37,78.37,78.38,78.38,78.39,78.39,78.41,78.45,78.48,78.5,78.48,78.48,78.45,78.39,78.34,78.31,78.31,78.34,78.44,78.43,78.43,78.44,78.45,78.45,78.48,78.53,78.56,78.63,78.65,78.65,78.65,78.67,78.78,78.88,78.94,78.93,78.93,78.92,78.95,79.0,79.05,79.06,79.04,79.05,79.09,79.13,79.17,79.18,79.18,79.18,79.18,79.17,79.17,79.16,79.11,79.08,79.03,78.98,78.98,78.95,78.97,78.98,79.05,79.09,79.14,79.2,79.28,79.36,79.43,79.48,79.51,79.54,79.54,79.54,79.56,79.56,79.58,79.58,79.58,79.59,79.62,79.64,79.66,79.67,79.68,79.69,79.7,79.75,79.77,79.77,79.77,79.76,79.76,79.77,79.77,79.78,79.8,79.81,79.84,79.87,79.9,79.93,79.95,79.94,79.93,79.97,80.01,80.04,80.06,80.09,80.12,80.14,80.17,80.19,80.2,80.23,80.26,80.3,80.36,80.43,80.45,80.47,80.48,80.52,80.56,80.59,80.56,80.53,80.45,80.36,80.31,80.31,80.34,80.4,80.44,80.48,80.53,80.56,80.63,80.65,80.62,80.59,80.64,80.75,80.81,80.89,80.95,80.94,80.9,80.89,80.87,80.84,80.84,80.87,80.95,81.06,81.19,81.31,81.38,81.5,81.61,81.7,81.78,81.79,81.77,81.73,81.72,81.73,81.77,81.8,81.81,81.81,81.79,81.77,81.77,81.88,81.94,81.96,81.99,81.98,81.89,81.77,81.7,81.7,81.69,81.58,81.56,81.58,81.59,81.59,81.56,81.52,81.47,81.41,81.38,81.33,81.31,81.33,81.34,81.4,81.47,81.54,81.59,81.55,81.52,81.48,81.48,81.51,81.58,81.61,81.63,81.61,81.58,81.58,81.58,81.59,81.62,81.69,81.75,81.81,81.84,81.87,81.89,81.92,81.95,81.99,82.04,82.06,82.07,82.07,82.07,82.04,82.0,81.96,81.98,82.04,82.12,82.2,82.22,82.22,82.21,82.19,82.17,82.16,82.15,82.15,82.16,82.19,82.2,82.18,82.16,82.16,82.18,82.21,82.24,82.26,82.29,82.33,82.39,82.4,82.41,82.42,82.45,82.47,82.49,82.55,82.64,82.74,82.83,82.86,82.95,82.98,82.98,82.96,82.92,82.93,82.97,82.99,82.99,82.98,82.94,82.97,83.07,83.22,83.33,83.38,83.42,83.43,83.42,83.42,83.4,83.38,83.38,83.43,83.5,83.55,83.62,83.63,83.57,83.53,83.53,83.54,83.55,83.52,83.46,83.43,83.45,83.46,83.47,83.5,83.55,83.62,83.71,83.78,83.82,83.84,83.86,83.86,83.87,83.89,83.9,83.92,83.92,83.93,83.96,83.96,83.95,83.94,83.95,84.01,84.07,84.08,84.14,84.2,84.22,84.25,84.3,84.41,84.5,84.56,84.56,84.53,84.53,84.56,84.61,84.68,84.72,84.75,84.79,84.84,84.89,84.94,84.97,84.97,84.98,84.97,84.96,84.96,84.97,84.95,84.89,84.84,84.84,84.92,85.01,85.09,85.14,85.16,85.17,85.13,85.08,85.05,85.08,85.13,85.14,85.16,85.17,85.17,85.12,85.06,85.02,84.99,84.97,84.92,84.84,84.76,84.73,84.71,84.7,84.71,84.71,84.7,84.69,84.69,84.69,84.71,84.7,84.7,84.69,84.67,84.64,84.63,84.63,84.62,84.6,84.57,84.61,84.66,84.69,84.68,84.69,84.73,84.78</t>
+          <t>74.72,74.78,74.81,74.87,74.86,74.86,74.88,74.91,74.98,75.06,75.12,75.18,75.28,75.38,75.48,75.59,75.64,75.68,75.72,75.75,75.76,75.77,75.77,75.77,75.81,75.87,75.92,75.98,75.97,75.97,75.97,75.97,75.94,75.9,75.84,75.77,75.77,75.77,75.77,75.77,75.81,75.84,75.86,75.88,75.91,75.93,75.95,75.95,75.95,75.95,75.95,75.95,75.93,75.91,75.9,75.89,75.88,75.88,75.87,75.84,75.83,75.81,75.79,75.73,75.69,75.64,75.58,75.58,75.58,75.56,75.56,75.56,75.56,75.58,75.59,75.61,75.59,75.59,75.58,75.56,75.58,75.59,75.59,75.61,75.63,75.64,75.66,75.67,75.66,75.66,75.65,75.64,75.62,75.59,75.56,75.55,75.52,75.48,75.45,75.42,75.42,75.42,75.42,75.42,75.45,75.48,75.51,75.54,75.54,75.53,75.51,75.48,75.45,75.42,75.39,75.38,75.38,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.42,75.44,75.47,75.63,75.7,75.8,75.84,75.88,75.92,75.95,75.95,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.98,76.0,76.01,76.02,76.04,76.06,76.06,76.08,76.09,76.11,76.09,76.06,76.06,76.06,76.06,76.06,76.06,76.06,76.06,76.03,76.0,75.98,75.97,75.97,75.97,75.97,75.97,76.01,76.06,76.16,76.26,76.25,76.23,76.2,76.22,76.23,76.26,76.28,76.31,76.34,76.39,76.44,76.45,76.45,76.47,76.47,76.47,76.48,76.5,76.5,76.51,76.48,76.48,76.47,76.47,76.47,76.47,76.45,76.45,76.38,76.31,76.25,76.18,76.2,76.23,76.29,76.34,76.37,76.4,76.44,76.47,76.47,76.47,76.47,76.48,76.54,76.61,76.64,76.68,76.67,76.67,76.67,76.67</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1972-12-02</t>
+          <t>1965-06-01</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1974-02-28</t>
+          <t>1965-12-01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>np_14sound.dat_converted.csv</t>
+          <t>np_21sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-20999-0-np14sound</t>
+          <t>0-20999-0-np21sound</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>np14sound</t>
+          <t>np21sound</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>182.95,182.77,182.46,182.15,182.08,182.0,181.84,181.69,181.33,180.98,180.57,180.16,179.78,179.4,179.0,178.59,178.33,178.06,177.68,177.31,177.03,176.75,176.6,176.46,176.31,176.17,175.95,175.74,175.57,175.4,175.1,174.79,174.65,174.51,174.45,174.4,174.34,174.29,174.08,173.88,173.55,173.39,173.23,173.15,173.07,172.99,172.91,172.87,172.84,172.8,172.77,172.74,172.71,172.68,172.65,172.63,172.62,172.6,172.59,172.6,172.62,172.64,172.66,172.66,172.67,172.67,172.67,172.64,172.62,172.56,172.79,173.01,173.14,173.27,173.23,173.18,173.18,173.19,173.19,173.19,173.14,173.09,173.03,172.98,172.82,172.66,172.5,172.34,172.23,172.12,172.01,171.9,171.72,171.54,171.37,171.19,171.15,171.1,171.06,171.02,170.96,170.89,170.83,170.77,170.7,170.63,170.56,170.5,170.46,170.43,170.38,170.36,170.35,170.33,170.32,170.3,170.29,170.27,170.26,170.25,170.24,170.23,170.45,170.56,170.67,170.8,170.92,171.05,171.18,171.22,171.23,171.25,170.48,170.08,169.69,169.56,169.43,169.3,169.17,169.21,169.24,169.28,169.32,169.15,169.07,168.99,168.85,168.71,168.57,168.43,168.15,167.88,167.71,167.63,167.55,167.49,167.43,167.3,167.29,167.29,167.27,167.25,167.31,167.37,167.4,167.43,167.34,167.26,167.12,166.98,166.7,166.56,166.42,166.53,166.64,166.84,167.05,167.08,167.11,166.99,166.86,166.59,166.31,166.28,166.26,166.2,166.09,165.97,165.93,165.89,165.96,166.03,166.0,165.96,165.94,165.92,165.89,165.88,165.87,165.39,164.92,164.76,164.59,164.61,164.62,164.61,164.59,164.6,164.62,164.3,163.98,163.27,162.57,162.59,162.61,162.56,162.51,162.31,162.12,161.9,161.68,161.09,160.5,160.22,159.94,159.74,159.53,159.22,158.91,158.55,158.19,158.09,157.99,158.03,158.05</t>
+          <t>163.92,163.61,163.35,163.12,162.62,161.94,161.91,161.72,161.56,161.16,160.71,160.59,160.65,160.76,160.61,160.58,160.63,160.6,160.94,161.28,161.69,162.08,162.36,162.46,162.59,162.61,162.54,162.43,162.36,162.25,162.13,161.86,161.85,161.9,161.87,161.85,161.88,161.97,162.04,162.12,162.26,162.43,162.47,162.41,162.35,162.11,161.93,161.88,161.85,161.8,161.59,161.28,161.21,161.16,160.91,160.99,160.76,160.66,160.65,160.65,160.63,160.57,160.52,160.33,160.27,160.31,160.62,160.74,161.07,161.62,161.4,160.9,161.41,161.54,161.58,161.74,162.11,162.3,162.3,162.11,161.58,161.38,161.38,161.16,160.91,160.8,160.76,160.74,160.75,160.79,161.05,161.18,161.03,161.01,161.24,161.15,161.24,161.5,161.63,161.81,161.99,161.97,161.91,161.82,161.93,162.04,162.1,161.97,161.77,161.62,161.56,161.63,161.86,162.02,162.22,162.25,162.18,162.15,162.05,161.91,161.62,161.47,161.38,161.32,161.01,160.65,160.36,160.13,159.97,159.71,159.69,159.66,159.63,159.52,159.37,159.11,159.0,158.72,158.36,157.87,157.4,157.19,157.1,157.03,156.84,156.6,156.32,156.13,156.12,156.16,156.27,156.33,156.31,156.28,156.25,156.21,156.09,155.52,155.13,154.94,154.93,154.87,154.88,155.22,155.74,155.88,156.0,156.03,156.34,156.8,157.01,157.07,157.13,157.19,157.27,157.32,157.3,157.3,157.41,157.57,157.78,158.29,158.72,159.16,159.61,159.66,159.35,159.25,159.15,159.16,159.49,159.44,159.07,159.03,159.02,158.72,158.57,158.24,157.9,157.59,157.29,157.02,157.07,157.22,157.5,157.84,158.22,158.3,158.16,158.0,157.72,157.63,157.76,158.16,158.32,158.31,158.3,158.31,158.58,159.05,159.28,159.3,159.29,159.35,159.62,159.77,159.81,159.66,159.33,158.9,158.5,158.11,157.85,157.27,156.76,155.88,155.49,155.47,155.19,154.96,154.82,154.6,154.46,154.47,154.41,154.37,154.07,153.57,153.15,152.97,153.01,153.15,153.33,153.55,153.93,154.6,155.29,156.04,156.3,156.69,156.97,157.24,157.41,157.35,157.13,156.85,156.5,156.16,155.34,154.36,153.38,152.55,152.08,151.63,150.99,149.97,149.43,149.15,148.96,148.88,148.62,148.15,147.77,147.47,147.25,147.03,146.5,145.85,145.55,145.15,144.63,143.93,143.19,142.84,142.4,142.04,141.24,140.76,140.37,140.27,140.4,140.85,141.33,141.96,141.86,141.66,141.65,141.28,140.8,140.52,140.47,140.63,140.85,140.94,140.88,140.01,139.47,139.62,139.87,140.03,140.04,139.76,139.37,138.79,138.25,137.81,137.47,137.19,136.97,136.88,136.91,136.91,136.75,136.38,136.19,136.13,136.13,136.35,136.18,135.85,135.76,135.5,134.91,134.79,135.31,135.8,135.87,135.75,135.63,135.71,135.9,136.13,136.19,135.94,135.58,135.13,134.57,134.06,133.68,133.12,132.38,131.57,130.71,130.3,130.26,130.02,129.72,129.63,129.72,129.43,129.16,129.07,129.06,129.25,129.43,129.44,129.47,129.3,129.09,129.22,129.49,129.68,129.56,129.33,129.16,129.13,129.3,129.3,129.09,128.63,127.77,127.16,125.15,124.25,124.05,124.04,124.01,123.92,123.96,124.87,125.78,128.28,129.38,130.03,130.44,130.87,131.33,131.82,132.37,132.93,133.25,133.52,133.88,134.77,135.88,136.9,137.38,137.38,137.85,138.77,139.85,140.51,140.84,141.24,141.61,141.91,142.22,142.37,142.59,142.72,142.91,143.12,143.19,143.11,142.93,142.79,142.82,142.93,143.1,143.4,143.88,144.76,145.8,145.9,145.81,145.32,144.71,143.94,143.52,143.65,143.63</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>74.72,74.78,74.81,74.87,74.86,74.86,74.88,74.91,74.98,75.06,75.12,75.18,75.28,75.38,75.48,75.59,75.64,75.68,75.72,75.75,75.76,75.77,75.77,75.77,75.81,75.87,75.92,75.98,75.97,75.97,75.97,75.97,75.94,75.9,75.84,75.77,75.77,75.77,75.77,75.77,75.81,75.84,75.86,75.88,75.91,75.93,75.95,75.95,75.95,75.95,75.95,75.95,75.93,75.91,75.9,75.89,75.88,75.88,75.87,75.84,75.83,75.81,75.79,75.73,75.69,75.64,75.58,75.58,75.58,75.56,75.56,75.56,75.56,75.58,75.59,75.61,75.59,75.59,75.58,75.56,75.58,75.59,75.59,75.61,75.63,75.64,75.66,75.67,75.66,75.66,75.65,75.64,75.62,75.59,75.56,75.55,75.52,75.48,75.45,75.42,75.42,75.42,75.42,75.42,75.45,75.48,75.51,75.54,75.54,75.53,75.51,75.48,75.45,75.42,75.39,75.38,75.38,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.37,75.42,75.44,75.47,75.63,75.7,75.8,75.84,75.88,75.92,75.95,75.95,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.97,75.98,76.0,76.01,76.02,76.04,76.06,76.06,76.08,76.09,76.11,76.09,76.06,76.06,76.06,76.06,76.06,76.06,76.06,76.06,76.03,76.0,75.98,75.97,75.97,75.97,75.97,75.97,76.01,76.06,76.16,76.26,76.25,76.23,76.2,76.22,76.23,76.26,76.28,76.31,76.34,76.39,76.44,76.45,76.45,76.47,76.47,76.47,76.48,76.5,76.5,76.51,76.48,76.48,76.47,76.47,76.47,76.47,76.45,76.45,76.38,76.31,76.25,76.18,76.2,76.23,76.29,76.34,76.37,76.4,76.44,76.47,76.47,76.47,76.47,76.48,76.54,76.61,76.64,76.68,76.67,76.67,76.67,76.67</t>
+          <t>77.65,77.67,77.68,77.65,77.64,77.69,77.79,77.84,77.84,77.79,77.69,77.59,77.61,77.66,77.73,77.78,77.77,77.77,77.78,77.8,77.84,77.93,77.98,78.05,78.09,78.13,78.15,78.16,78.17,78.2,78.23,78.31,78.34,78.38,78.37,78.33,78.34,78.37,78.37,78.37,78.38,78.38,78.39,78.39,78.41,78.45,78.48,78.5,78.48,78.48,78.45,78.39,78.34,78.31,78.31,78.34,78.44,78.43,78.43,78.44,78.45,78.45,78.48,78.53,78.56,78.63,78.65,78.65,78.65,78.67,78.78,78.88,78.94,78.93,78.93,78.92,78.95,79.0,79.05,79.06,79.04,79.05,79.09,79.13,79.17,79.18,79.18,79.18,79.18,79.17,79.17,79.16,79.11,79.08,79.03,78.98,78.98,78.95,78.97,78.98,79.05,79.09,79.14,79.2,79.28,79.36,79.43,79.48,79.51,79.54,79.54,79.54,79.56,79.56,79.58,79.58,79.58,79.59,79.62,79.64,79.66,79.67,79.68,79.69,79.7,79.75,79.77,79.77,79.77,79.76,79.76,79.77,79.77,79.78,79.8,79.81,79.84,79.87,79.9,79.93,79.95,79.94,79.93,79.97,80.01,80.04,80.06,80.09,80.12,80.14,80.17,80.19,80.2,80.23,80.26,80.3,80.36,80.43,80.45,80.47,80.48,80.52,80.56,80.59,80.56,80.53,80.45,80.36,80.31,80.31,80.34,80.4,80.44,80.48,80.53,80.56,80.63,80.65,80.62,80.59,80.64,80.75,80.81,80.89,80.95,80.94,80.9,80.89,80.87,80.84,80.84,80.87,80.95,81.06,81.19,81.31,81.38,81.5,81.61,81.7,81.78,81.79,81.77,81.73,81.72,81.73,81.77,81.8,81.81,81.81,81.79,81.77,81.77,81.88,81.94,81.96,81.99,81.98,81.89,81.77,81.7,81.7,81.69,81.58,81.56,81.58,81.59,81.59,81.56,81.52,81.47,81.41,81.38,81.33,81.31,81.33,81.34,81.4,81.47,81.54,81.59,81.55,81.52,81.48,81.48,81.51,81.58,81.61,81.63,81.61,81.58,81.58,81.58,81.59,81.62,81.69,81.75,81.81,81.84,81.87,81.89,81.92,81.95,81.99,82.04,82.06,82.07,82.07,82.07,82.04,82.0,81.96,81.98,82.04,82.12,82.2,82.22,82.22,82.21,82.19,82.17,82.16,82.15,82.15,82.16,82.19,82.2,82.18,82.16,82.16,82.18,82.21,82.24,82.26,82.29,82.33,82.39,82.4,82.41,82.42,82.45,82.47,82.49,82.55,82.64,82.74,82.83,82.86,82.95,82.98,82.98,82.96,82.92,82.93,82.97,82.99,82.99,82.98,82.94,82.97,83.07,83.22,83.33,83.38,83.42,83.43,83.42,83.42,83.4,83.38,83.38,83.43,83.5,83.55,83.62,83.63,83.57,83.53,83.53,83.54,83.55,83.52,83.46,83.43,83.45,83.46,83.47,83.5,83.55,83.62,83.71,83.78,83.82,83.84,83.86,83.86,83.87,83.89,83.9,83.92,83.92,83.93,83.96,83.96,83.95,83.94,83.95,84.01,84.07,84.08,84.14,84.2,84.22,84.25,84.3,84.41,84.5,84.56,84.56,84.53,84.53,84.56,84.61,84.68,84.72,84.75,84.79,84.84,84.89,84.94,84.97,84.97,84.98,84.97,84.96,84.96,84.97,84.95,84.89,84.84,84.84,84.92,85.01,85.09,85.14,85.16,85.17,85.13,85.08,85.05,85.08,85.13,85.14,85.16,85.17,85.17,85.12,85.06,85.02,84.99,84.97,84.92,84.84,84.76,84.73,84.71,84.7,84.71,84.71,84.7,84.69,84.69,84.69,84.71,84.7,84.7,84.69,84.67,84.64,84.63,84.63,84.62,84.6,84.57,84.61,84.66,84.69,84.68,84.69,84.73,84.78</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1965-06-01</t>
+          <t>1972-12-02</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1965-12-01</t>
+          <t>1974-02-28</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>np_10sound.dat_converted.csv</t>
+          <t>np_12sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-20999-0-np10sound</t>
+          <t>0-20999-0-np12sound</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>np10sound</t>
+          <t>np12sound</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>174.93,174.36,173.21,171.55,171.0,170.57,170.8,170.99,171.22,171.31,171.35,171.4,171.42,171.44,171.51,171.58,171.62,171.68,171.7,171.67,171.65,171.59,171.47,171.39,171.23,171.02,170.64,170.56,170.32,170.4,170.43,170.51,170.53,170.52,170.46,170.37,170.24,170.07,169.84,169.65,169.58,169.51,169.65,169.87,169.95,170.04,170.2,170.23,170.26,170.29,170.35,170.44,170.62,170.68,170.79,170.94,171.11,171.28,171.32,171.35,171.33,171.32,171.22,171.12,171.05,170.99,170.93,170.86,170.8,170.73,170.65,170.56,170.56,170.55,170.54,170.54,170.53,170.52,170.47,170.42,170.4,170.39,170.37,170.36,170.34,170.33,170.27,170.21,170.15,170.08,169.59,169.09,169.18,169.22,169.27,169.31,169.36,169.5,169.65,169.68,169.72,169.76,169.79,169.83,169.87,170.13,170.39,170.38,170.37,170.35,170.34,170.33,170.32,170.31,170.3,170.28,170.27,170.18,170.09,170.09,170.09,170.08,170.08,170.08,170.08,169.98,169.88,169.86,169.85,169.83,169.81,169.8,169.78,169.75,169.72,169.63,169.54,169.45,169.37,169.31,169.26,169.21,169.16,169.1,169.05,168.78,168.51,168.45,168.39,168.34,168.28,168.23,168.17,168.13,168.09,168.02,167.96,167.9,167.84,167.78,167.72,167.55,167.39,167.22,167.05,167.34,167.62,167.66,167.69,167.72,167.76,167.79,167.82,167.72,167.61,167.55,167.49,167.42,167.36,167.29,167.23,167.14,167.04,166.99,166.93,166.87,166.81,166.75,166.7,166.57,166.45,166.32,166.2,166.0,165.81,165.78,165.75,165.71,165.68,165.65,165.62,165.31,165.0,164.79,164.58,164.37,164.16,163.95,163.72,163.59,163.46,163.32,163.18,163.04,162.9,162.85,162.79,162.72,162.66,162.61,162.56,162.51,162.46,162.44,162.41,162.38,162.37,162.35,162.33,162.24,162.15,162.08,162.01,161.94,161.87,161.8,161.72,161.65,161.58,161.59,161.6,161.61,161.63,161.65,161.68,161.69,161.72,161.76,161.78,161.53,161.27,161.21,161.16,161.1,161.04,160.97,160.91,160.9,160.88,160.91,160.96,161.0,161.04,161.07,161.11,161.22,161.33,161.44,161.55,161.91,162.27,162.38,162.52,162.63,162.77,162.88,163.02,163.03,163.04,162.97,162.91,162.87,162.81,162.75,162.69,162.69,162.69,162.66,162.65,162.62,162.59,162.54,162.5,162.44,162.4,162.36,162.31,162.19,162.09,162.26,162.43,162.6,162.77,162.94,163.11,163.37,163.63,163.69,163.77,163.84,163.91,163.98,164.05,164.11,164.18,164.14,164.11,164.07,164.04,163.98,163.93,163.88,163.83,163.77,163.72,163.51,163.3,163.1,163.01,162.91,162.81,162.71,162.51,162.32,162.16,162.0,161.85,161.69,161.53,161.37,160.99,160.62,160.24,159.86,159.71,159.55,159.46,159.37,159.28,159.18,159.09,159.0,159.1,159.19,159.24,159.29,159.33,159.38,159.43,159.47,159.27,159.29,159.32,159.34,159.37,159.38,159.41,159.5,159.59,159.68,159.77,159.76,159.76,159.69,159.61,159.54,159.47,159.4,159.33,159.08,158.83,158.77,158.71,158.65,158.59,158.53,158.47,158.22,157.97,157.88,157.8,157.72,157.63,157.69,157.74,157.8,157.85,157.91,157.96,158.0,158.04,157.99,157.94,157.9,157.85,157.8,157.75,158.16,158.19,158.21,158.22,158.25,158.27,158.3,158.11,157.93,157.85,157.76,157.68,157.59,157.56,157.53,157.49,157.46,157.43,157.4,157.41,157.44,157.46,157.47,157.49,157.5,157.51,157.37,157.22,157.1,156.97,156.86,156.74,156.62,156.51,156.56,156.62,156.68,156.74,156.84,156.88,156.85,156.8,156.76,156.71,156.66,156.6,156.54,156.56,156.59,156.61,156.63,156.66,156.88,157.07,157.25,157.43,157.62,157.8,158.04,158.27,158.51,158.75,158.97,159.22,159.86,160.49,160.59,160.69,160.79,160.9,161.0,161.1,161.18,161.27,161.26,161.25,161.25,161.24,161.22,161.22,161.21,161.19,161.05,160.88,160.72,160.57,160.38,160.18,159.97,159.78,159.58,159.38,159.1,158.81,158.91,159.01,159.12,159.22,159.33,159.43,159.61,159.78,159.84,159.91,159.97,160.03,160.1,160.16,160.22,160.28,160.41,160.53,160.65,160.68,160.71,160.74,160.77,160.8,160.83,160.85,160.88,160.91,160.94,160.97,161.0,161.03,161.02,161.01,161.02,161.04,161.06,161.08,161.09,161.11,161.13,161.15,161.16,161.19,161.21,161.22,161.25,161.26,161.24,161.19,161.16,161.13,161.12,161.02,160.91,160.85,160.77,160.69,160.63,160.5,160.37,160.25,160.12,160.0,159.88,159.71,159.55,159.6,159.66,159.72,159.78,159.83,159.88,160.16,160.44,160.57,160.69,160.81,160.93,161.05,161.16,161.31,161.47,161.44,161.43,161.41,161.4,161.44,161.5,161.54,161.59,161.63,161.69,161.66,161.65,161.58,161.51,161.43,161.36,161.29,161.21,160.91,160.6,160.56,160.51,160.46,160.41,160.36,160.32,160.29,160.27,160.25,160.22,160.16,160.09,160.11,160.12,160.13,160.16,160.16,160.19,160.47,160.77,160.91,161.06,161.21,161.36,161.51,161.66,161.68,161.69,161.69,161.68,161.66,161.61,161.55,161.49,161.44,161.13,160.82,160.8,160.78,160.76,160.72,160.71,160.69,160.86,161.03,161.04,161.04,161.05,161.05,161.06,160.88,160.82,160.75,160.68,160.62,160.57,160.52,160.47,160.41,160.37,160.32,160.29,160.26,160.27,160.28,160.29,160.3,160.31,160.32,160.3,160.29,160.24,160.19,160.13,160.09,160.04,159.99,160.12,160.19,160.26,160.46,160.65,160.63,160.62,160.6,160.58,160.55,160.71,160.88,160.97,161.06,161.15,161.24,161.34,161.43,161.34,161.26,161.32,161.37,161.41,161.47,161.53,161.58,161.77,161.94,162.13,162.32,162.41,162.52,162.55,162.56,162.57,162.59,162.6,162.6,162.55,162.5,162.46,162.41,162.36,162.32,162.06,161.79,161.65,161.51,161.37,161.22,161.1,160.97,160.85,160.72,160.59,160.47,160.35,160.24,160.27,160.3,160.33,160.36,160.4,160.43,160.53,160.63,160.65,160.65,160.66,160.68,160.66,160.66,160.66,160.66,160.66,160.66,160.72,160.76,160.81,160.86,160.9,160.94,160.84,160.69,160.53,160.66,160.8,160.94,161.07,160.97,160.9,160.83,160.77,160.63,160.52,160.34,160.15,160.06,159.97,159.8,159.63,159.35,159.07,158.86,158.66,158.69,158.74,158.94,159.15,159.35,159.55,159.58,159.61,159.66,159.72,159.81,159.88,159.97,160.07,160.08,160.09,160.03,159.97,159.94,159.91,159.88,159.88,159.85,159.82,159.75,159.68,159.59,159.51,159.47,159.43,159.41,159.43,159.44,159.3,159.16,158.88,158.62,158.65,158.66,158.76,158.84,158.82,158.8,158.82,158.83,158.88,158.91,158.94,158.96,158.88,158.81,158.77,158.72,158.68,158.63,158.44,158.27,158.13,157.88,157.66,157.46,157.35,157.31,157.28,157.24,157.24,157.26,157.15,156.91,156.71,156.55,156.44,156.41,156.29,156.0,156.01,156.03,156.02,155.97,155.77,155.41,155.05,154.63,154.63,155.03,155.24,155.28,155.43,155.68,155.81,155.82,155.77,155.68,155.58,155.49,155.34,155.15,154.94,154.75,154.63,154.6,154.57,154.52,154.43,154.29,154.1,153.85,153.61,153.38,153.16,152.99,152.85,152.72,152.63,152.59,152.47,152.33,152.05,151.63,151.36,151.21,151.15,151.19,151.25,151.32,151.35,151.35,151.3,151.19,151.02,150.79,150.46,150.02,149.69,149.44,149.3,149.24,149.11,148.91,148.8,148.72,148.78,148.84,148.97,149.12,149.38,149.65,149.66,149.71,149.63,149.46,149.24,148.84,148.55,148.25,147.86,147.44,146.87,146.28,145.58,144.87,144.55,144.22,144.09,143.96,143.79,143.6,143.63,143.65,143.66,143.69,143.57,143.44,143.36,143.29,143.33,143.38,143.49,143.6,143.88,144.15,144.33,144.51,144.57,144.63,144.54,144.44,144.22,143.55,143.4,142.94,143.01,143.07,143.09,143.1,143.07,143.0,142.8,142.47,142.15,141.83,141.51,141.18,140.99,140.94,141.03,141.25,141.53,141.87,142.27,142.94,143.18,143.43,143.76,144.09,144.34,144.6,144.57,144.53,144.55,144.57,144.49,144.34,143.91,143.19,142.59,142.09,141.74,141.56,141.37,141.16,140.99,140.87,140.8,140.79,140.88,140.99,141.22,141.47,141.78,141.94,142.16,142.29,142.22,141.97,141.68,141.36,141.26,141.38,141.66,142.1,142.31,142.3,142.32,142.34,142.3,142.19,141.93,141.51,141.22,141.07,141.04,141.12,141.25,141.41,142.18,142.59,142.94,143.22,143.47,143.55,143.62,143.72,143.84,143.74,143.63,143.37,143.1,143.03,142.88,142.68,142.43,142.28,142.24,142.41,142.62,143.01,143.15,143.29,143.26,143.16,143.1,143.04,143.06,143.46,144.75,145.66,146.99,147.66,148.78,149.65,149.94,149.62,149.19,148.63,148.01,146.91,146.07,145.22,144.77,143.86,142.94,142.02,141.41,141.12,141.21,141.72,141.58,140.77,140.02,139.35,138.79,138.35,137.8,137.63,137.6,137.74,137.72,137.71,137.53,137.44,137.36,137.31,137.13,136.76,136.35,135.65,135.53,135.41,135.66,135.8,136.02,136.07,136.02,135.72,135.88,135.97,136.31,136.43,136.72,136.88,136.93,137.07,136.29,135.5,134.97,134.44,133.74,132.99,132.36,131.72,131.51,131.28,130.38,129.94,128.97,127.92,127.28,127.07,128.37,129.87,128.87,128.36,127.83,127.79,128.54,129.35,128.79,128.51,127.41,125.76,123.27,121.51,119.25,116.96,116.28,115.61,115.7,115.8,115.24,114.95,113.84,112.97,114.01,115.05,116.49,117.94,117.82,117.7,117.28,116.85,116.45,116.05,116.57,116.83,115.76,113.21,108.22,104.66,102.56,101.43,98.63,95.21,90.49,87.61,86.99,86.35,86.03,85.7,85.93,86.18,86.16,86.15,85.99,85.83,84.25,83.46,82.21,81.3,80.9,81.09,81.02,80.79,81.41,82.03,84.74,87.45,89.29,91.19,91.92,93.44,94.78,98.2,96.8</t>
+          <t>193.58,192.78,192.65,192.54,192.44,192.39,192.35,192.29,192.24,192.25,192.26,192.37,192.48,192.37,192.27,192.05,191.83,191.53,191.24,191.01,190.8,190.68,190.57,190.45,190.34,190.27,190.2,190.15,190.11,190.06,190.01,190.02,190.03,190.04,190.06,190.04,190.01,190.01,190.0,189.88,189.77,189.49,189.21,189.05,188.89,188.83,188.77,188.64,188.54,188.44,188.34,188.24,188.19,188.14,188.11,188.09,188.02,187.99,187.95,187.9,187.85,187.8,187.75,187.66,187.57,187.48,187.39,187.3,187.22,187.13,187.04,187.02,187.01,186.99,186.97,187.0,187.03,187.06,187.08,187.14,187.2,187.25,187.31,187.3,187.29,187.27,187.26,187.15,187.04,186.93,186.82,186.72,186.63,186.54,186.45,186.49,186.52,186.56,186.6,186.6,186.61,186.61,186.62,186.58,186.55,186.52,186.49,186.45,186.41,186.37,186.33,186.31,186.3,186.28,186.26,186.06,185.85,185.44,185.28,185.11,184.79,184.81,184.83,184.85,184.87,185.08,185.28,185.48,185.69,185.81,185.94,186.06,186.18,186.19,186.2,186.21,186.21,186.22,186.22,186.22,186.23,186.16,186.09,186.01,185.94,185.75,185.55,185.36,185.17,184.64,184.11,183.74,183.55,183.36,183.02,182.68,182.51,182.34,181.99,181.57,181.14,180.68,180.21,180.17,180.13,180.28,180.44,180.76,181.08,181.27,181.37,181.46,181.58,181.69,181.76,181.83,182.04,182.24,182.45,182.65,182.9,183.15,183.64,183.83,184.02,184.21,184.4,184.55,184.7,185.0,185.09,185.18,185.36,185.44,185.52,185.6,185.68,185.74,185.79,185.85,185.9,185.93,185.96,185.99,186.01,186.1,186.19,186.28,186.36,186.53,186.7,186.86,187.03,187.12,187.21,187.29,187.38,187.09,186.95,186.8,186.62,186.43,186.25,186.06,185.94,185.82,185.57,185.53,185.5,185.47,185.44,185.56,185.62,185.68,186.12,186.27,186.21,186.14,186.08,186.01,185.9,185.8,185.69,185.59,185.54,185.52,185.49,185.41,185.33,185.24,185.12,185.08,185.04,185.02,185.07,185.09,185.06,185.01,184.98,184.89,184.8,184.71,184.32,184.14,184.07,183.99,183.92,183.89,183.86,183.83,183.8,183.82,183.85,183.87,183.89,183.93,183.96,184.0,184.03,184.03,184.02,184.01,183.92,183.82,183.73,183.64,183.63,183.63,183.62,183.62,183.73,183.84,183.95,184.25,184.61,184.96,185.31,185.66,186.01,186.23,186.32,186.18,185.82,185.55,185.37,185.28,185.29,185.32,185.46,185.94,186.12,186.26,186.35,186.69,187.27,187.59,187.65,187.65,187.59,187.35,186.95,186.62,186.37,186.22,186.16,186.23,186.42,186.7,187.07,187.69,188.13,188.37,188.62,188.5,188.38,188.32,188.25,188.24,188.26,188.28,188.32,188.44,188.47,188.5,188.57,188.63,188.62,188.61,188.46,188.31,188.18,188.04,188.03,188.0,188.06,188.12,188.36,188.59,188.7,188.81,188.82,188.83,188.86,188.89,188.9,188.91,189.07,189.23,189.4,189.58,189.74,189.9,189.98,190.06,190.12,190.18,190.26,190.34,190.38,190.42,190.58,190.75,190.72,190.69,190.64,190.59,190.56,190.52,190.45,190.39,190.25,190.12,190.04,189.96,190.1,190.24,190.38,190.53,190.74,190.94,191.34,191.74,191.87,191.99,192.14,192.28,192.57,192.86,193.09,193.32,193.51,193.7,193.81,193.92,193.9,193.89,193.78,193.67,193.49,193.3,193.29,193.31,193.32,193.47,193.62,193.71,193.6,193.5,193.34,193.18,193.19,195.07,195.02,194.97,194.77,194.67,194.47,194.36,194.31,194.25,194.22,194.21,194.2,194.29,194.38,194.56,194.75,194.83,194.92,194.96,195.0,195.35,195.71,195.96,196.21,196.15,196.08,196.43,196.78,197.07,197.97,198.12,198.28,198.38,198.48,198.14,197.81,197.42,197.03,196.76,196.49,196.51,196.52,197.0,197.48,198.0,198.51,198.36,198.21,197.83,197.46,197.38,197.31,197.57,197.84,198.07,198.29,198.46,198.64,198.64,198.64,198.57,198.51,198.71,198.9,198.93,198.96,198.55,198.14,197.92,197.7,197.71,197.72,198.27,198.81,199.4,199.98,200.15,200.32,200.53,200.75,200.98,201.21,201.29,201.55,201.65,201.97,202.28,202.43,202.62,202.69,202.71,202.7,202.76,202.91,203.32,203.66,203.93,204.2,204.4,204.59,204.79,205.0,205.06,205.12,205.14,205.15,205.14,205.12,204.97,204.82,204.59,204.36,204.26,204.17,204.08,203.99,203.87,203.75,203.78,203.81,203.83,203.86,203.67,203.48,203.15,202.82,202.51,202.2,202.15,202.1,202.33,202.44,202.64,202.81,202.85,202.78,202.73,202.69,202.67,202.65,202.16,201.66,201.39,201.12,200.93,200.73,200.71,200.69,200.91,201.35,202.15,202.75,202.9,203.05,203.04,203.03,202.89,202.83,202.65,202.41,201.86,201.43,200.4,199.35,198.86,198.36,198.8,199.24,199.51,199.77,200.01,200.24,200.84,201.15,201.76,202.71,203.39,204.08,205.02,205.95,206.98,208.0,208.87,209.74,210.22,210.7,210.64,210.58,210.36,210.13,209.46,208.79,208.21,207.63,207.54,207.45,207.68,207.92,207.95,207.98,207.65,207.32,206.74,206.16,205.93,205.71,205.88,206.06,206.33,206.59,207.0,207.4,207.69,207.97,208.02,208.06,208.22,208.39,208.34,208.3,208.29,208.28,208.46,208.64,208.75,208.86,208.95,209.03,209.1,209.17,209.24,209.31,209.42,209.53,209.65,209.77,209.75,209.72,209.71,209.69,209.68,209.67,209.64,209.61,209.58,209.52,209.46,209.53,209.6,209.69,209.77,209.8,209.89,209.9,209.9,209.88,209.86,209.79,209.71,209.87,210.04,210.61,211.19,211.32,211.45,211.53,211.6,211.62,211.64,211.64,211.64,211.88,212.12,212.25,212.37,212.61,212.84,213.11,213.38,213.53,213.69,213.59,213.49,213.45,213.42,213.41,213.4,213.36,213.32,213.24,213.17,213.2,213.23,213.33,213.42,213.57,213.72,213.86,213.99,214.03,214.04,214.0,213.94,213.86,213.77,213.67,213.58,213.66,213.74,213.93,214.13,214.21,214.3,214.34,214.38,214.19,214.0,213.87,213.75,213.81,213.88,213.9,213.9,213.9,213.93,213.93,213.93,213.93,213.9,213.86,213.9,213.94,214.02,214.1,214.11,214.11,214.13,214.15,214.13,214.1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>75.08,75.22,75.48,75.68,75.7,75.73,75.69,75.68,75.67,75.64,75.62,75.58,75.51,75.48,75.45,75.44,75.43,75.43,75.43,75.44,75.45,75.47,75.5,75.48,75.47,75.44,75.39,75.36,75.27,75.22,75.19,75.17,75.17,75.19,75.22,75.23,75.26,75.27,75.26,75.18,75.11,75.04,75.09,75.22,75.23,75.23,75.27,75.29,75.31,75.33,75.34,75.37,75.37,75.36,75.33,75.29,75.23,75.19,75.19,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.25,75.29,75.31,75.34,75.37,75.39,75.42,75.44,75.48,75.53,75.53,75.52,75.51,75.51,75.5,75.5,75.48,75.48,75.48,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.48,75.48,75.48,75.5,75.5,75.51,75.54,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.61,75.64,75.66,75.69,75.7,75.73,75.75,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.78,75.78,75.79,75.79,75.8,75.84,75.88,75.89,75.91,75.92,75.93,75.95,75.95,75.97,75.97,75.98,75.98,75.98,75.98,76.0,76.01,76.02,76.04,76.05,76.06,76.05,76.03,76.03,76.02,76.02,76.01,76.01,76.0,76.04,76.06,76.08,76.09,76.11,76.12,76.13,76.14,76.16,76.17,76.17,76.16,76.15,76.15,76.14,76.13,76.13,76.14,76.14,76.15,76.19,76.23,76.23,76.23,76.22,76.2,76.2,76.2,76.29,76.38,76.45,76.51,76.58,76.65,76.72,76.79,76.78,76.76,76.78,76.8,76.81,76.84,76.84,76.84,76.86,76.86,76.87,76.87,76.88,76.88,76.89,76.9,76.92,76.93,76.94,76.95,76.97,76.98,76.98,77.0,77.01,77.02,77.03,77.04,77.0,76.95,76.95,76.93,76.91,76.9,76.91,76.92,76.94,76.95,76.97,76.98,77.02,77.06,77.09,77.12,77.15,77.17,77.2,77.23,77.25,77.27,77.25,77.23,77.22,77.2,77.18,77.16,77.14,77.12,77.09,77.08,77.13,77.19,77.22,77.23,77.26,77.29,77.31,77.34,77.42,77.48,77.52,77.55,77.58,77.61,77.64,77.67,77.69,77.7,77.73,77.77,77.8,77.83,77.83,77.84,77.84,77.84,77.84,77.86,77.81,77.78,77.78,77.78,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.76,77.73,77.73,77.72,77.7,77.7,77.7,77.72,77.73,77.73,77.75,77.76,77.81,77.86,77.89,77.91,77.92,77.94,77.95,77.97,77.98,77.98,77.98,78.0,78.0,78.01,78.02,78.02,78.03,78.03,78.04,78.01,77.98,77.98,77.98,78.0,78.0,78.01,78.01,77.98,77.97,77.97,77.97,77.97,77.97,77.97,77.97,78.0,78.04,78.08,78.12,78.17,78.2,78.25,78.26,78.28,78.29,78.3,78.25,78.19,78.19,78.2,78.2,78.2,78.2,78.2,78.2,78.22,78.2,78.2,78.2,78.2,78.2,78.2,78.27,78.34,78.36,78.39,78.42,78.44,78.44,78.43,78.42,78.41,78.41,78.4,78.37,78.33,78.34,78.34,78.34,78.36,78.37,78.37,78.42,78.43,78.44,78.44,78.45,78.45,78.47,78.45,78.44,78.43,78.42,78.42,78.41,78.39,78.37,78.34,78.31,78.3,78.28,78.28,78.27,78.28,78.28,78.28,78.28,78.28,78.23,78.19,78.13,78.06,78.0,77.93,77.86,77.8,77.77,77.75,77.72,77.7,77.75,77.8,77.81,77.83,77.84,77.86,77.87,77.86,77.86,77.83,77.81,77.79,77.77,77.73,77.69,77.67,77.65,77.64,77.62,77.59,77.58,77.55,77.53,77.5,77.48,77.45,77.36,77.28,77.26,77.25,77.23,77.22,77.2,77.2,77.28,77.37,77.29,77.22,77.15,77.06,77.0,76.93,76.9,76.87,76.91,76.95,77.0,77.04,77.09,77.17,77.23,77.29,77.36,77.42,77.56,77.7,77.75,77.78,77.81,77.86,77.89,77.93,77.95,77.98,77.98,77.98,77.98,77.98,78.0,78.0,78.01,78.03,78.06,78.06,78.09,78.09,78.09,78.11,78.11,78.12,78.12,78.16,78.19,78.19,78.19,78.19,78.19,78.18,78.18,78.18,78.16,78.15,78.13,78.12,78.08,78.05,78.03,78.01,77.98,77.97,77.95,77.94,77.94,77.94,77.94,77.95,77.95,77.95,77.97,77.97,77.98,77.97,77.95,77.94,77.93,77.9,77.87,77.84,77.81,77.78,77.75,77.7,77.68,77.68,77.68,77.67,77.67,77.67,77.67,77.67,77.68,77.68,77.68,77.68,77.69,77.69,77.69,77.72,77.73,77.75,77.76,77.77,77.77,77.78,77.79,77.81,77.81,77.83,77.84,77.92,78.0,78.01,78.03,78.05,78.06,78.08,78.09,78.12,78.14,78.15,78.15,78.15,78.16,78.16,78.17,78.17,78.18,78.19,78.19,78.28,78.37,78.39,78.42,78.45,78.48,78.51,78.53,78.61,78.69,78.72,78.75,78.78,78.81,78.84,78.87,78.87,78.87,78.88,78.89,78.9,78.94,78.98,79.02,79.06,79.16,79.25,79.25,79.26,79.26,79.27,79.27,79.28,79.26,79.23,79.25,79.26,79.27,79.28,79.29,79.38,79.4,79.42,79.43,79.45,79.45,79.45,79.47,79.47,79.48,79.48,79.48,79.48,79.5,79.51,79.52,79.53,79.55,79.56,79.56,79.58,79.58,79.59,79.59,79.59,79.59,79.61,79.63,79.64,79.65,79.62,79.59,79.56,79.53,79.5,79.48,79.42,79.31,79.2,79.18,79.16,79.13,79.09,79.08,79.05,79.01,78.98,78.98,78.98,78.98,78.98,78.97,78.97,78.97,78.97,78.98,78.98,78.95,78.94,78.92,78.91,78.9,78.88,78.87,78.88,78.89,78.9,78.91,78.92,78.93,78.94,78.98,79.03,79.06,79.09,79.12,79.15,79.16,79.16,79.17,79.17,79.17,79.18,79.16,79.14,79.13,79.13,79.12,79.11,79.11,79.09,79.09,79.09,79.09,79.11,79.11,79.13,79.18,79.22,79.26,79.29,79.31,79.34,79.36,79.36,79.37,79.37,79.37,79.38,79.38,79.4,79.43,79.45,79.48,79.48,79.48,79.48,79.51,79.54,79.58,79.58,79.58,79.58,79.58,79.58,79.58,79.59,79.59,79.64,79.69,79.72,79.76,79.76,79.76,79.81,79.86,79.92,79.98,79.98,80.0,80.01,80.02,80.04,80.06,80.08,80.09,80.15,80.2,80.26,80.31,80.34,80.4,80.42,80.45,80.47,80.48,80.52,80.56,80.56,80.56,80.56,80.56,80.59,80.63,80.67,80.73,80.8,80.83,80.84,80.81,80.78,80.78,80.78,80.79,80.8,80.83,80.86,80.91,80.95,81.0,81.03,81.05,81.04,81.01,80.98,80.98,80.98,80.98,81.0,81.01,81.04,81.06,81.11,81.13,81.13,81.12,81.09,81.06,81.05,81.03,81.0,80.97,80.94,80.9,80.86,80.81,80.78,80.78,80.78,80.78,80.78,80.77,80.75,80.72,80.69,80.7,80.75,80.83,80.95,81.05,81.13,81.23,81.34,81.42,81.47,81.51,81.56,81.59,81.63,81.65,81.66,81.65,81.63,81.61,81.59,81.61,81.64,81.67,81.68,81.68,81.68,81.68,81.68,81.68,81.69,81.7,81.73,81.77,81.8,81.84,81.87,81.87,81.84,81.83,81.8,81.8,81.84,81.86,81.88,81.88,81.88,81.88,81.87,81.84,81.81,81.8,81.78,81.78,81.78,81.78,81.78,81.78,81.76,81.75,81.73,81.73,81.73,81.78,81.81,81.84,81.92,81.97,82.02,82.06,82.11,82.18,82.25,82.35,82.44,82.48,82.51,82.52,82.52,82.55,82.57,82.63,82.69,82.78,82.88,82.99,83.11,83.14,83.18,83.16,83.15,83.13,83.11,83.14,83.18,83.16,83.15,83.08,83.01,82.99,82.98,82.98,82.98,83.02,83.05,83.08,83.16,83.16,83.15,83.15,83.16,83.09,83.02,82.98,82.9,82.84,82.82,82.8,82.79,82.78,82.78,82.78,82.78,82.78,82.78,82.78,82.78,82.77,82.74,82.73,82.72,82.79,82.85,82.93,83.02,83.05,83.09,83.08,83.07,83.08,83.11,83.17,83.27,83.36,83.44,83.51,83.56,83.62,83.7,83.72,83.7,83.67,83.62,83.58,83.56,83.58,83.59,83.65,83.68,83.75,83.83,83.89,83.94,83.96,83.96,83.93,83.87,83.83,83.8,83.79,83.8,83.86,83.89,83.96,84.05,84.13,84.18,84.2,84.19,84.2,84.21,84.23,84.26,84.29,84.29,84.29,84.29,84.29,84.29,84.29,84.29,84.29,84.27,84.25,84.29,84.32,84.39,84.52,84.6,84.65,84.68,84.69,84.64,84.57,84.43,84.41,84.38,84.38,84.37,84.39,84.41,84.49,84.63,84.76,84.81,84.87,84.9,84.96,85.02,85.08,85.14,85.2,85.26,85.29,85.29,85.31,85.33,85.33,85.35,85.37,85.4,85.44,85.5,85.56,85.63,85.7,85.78,85.85,85.93,85.98,86.02,86.07,86.08,86.16,86.21,86.25,86.32,86.38,86.38,86.39,86.4,86.42,86.45,86.5,86.57,86.58,86.59,86.59,86.59,86.6,86.61,86.63,86.67,86.71,86.73,86.82,86.86,86.94,86.98,86.99,87.04,87.06,87.09,87.13,87.17,87.24,87.32,87.32,87.33,87.35,87.36,87.38,87.39,87.42,87.45,87.48,87.5,87.6,87.69,87.71,87.72,87.74,87.74,87.81,87.87,87.92,87.95,88.0,88.03,88.11,88.17,88.18,88.2,88.19,88.19,88.19,88.19,88.21,88.22,88.28,88.32,88.32,88.32,88.32,88.32,88.36,88.39,88.39,88.39,88.39,88.39,88.39,88.39,88.37,88.33,88.26,88.2,88.3,88.34,88.42,88.48,88.51,88.5,88.52,88.54,88.56,88.58,88.61,88.64,88.66,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.71,88.73,88.75,88.78,88.79,88.7,88.7</t>
+          <t>77.03,77.0,77.0,77.02,77.03,77.05,77.08,77.06,77.06,77.03,77.01,77.08,77.15,77.18,77.2,77.23,77.26,77.2,77.13,77.09,77.06,77.02,76.98,76.97,76.95,76.97,76.97,76.97,76.97,76.98,77.01,77.04,77.06,77.11,77.15,77.2,77.28,77.3,77.33,77.34,77.34,77.29,77.23,77.23,77.22,77.23,77.25,77.28,77.33,77.37,77.44,77.5,77.56,77.62,77.69,77.76,77.84,77.9,77.94,77.97,78.0,78.03,78.06,78.06,78.06,78.06,78.08,78.08,78.08,78.06,78.06,78.08,78.09,78.11,78.12,78.14,78.16,78.18,78.2,78.22,78.23,78.26,78.28,78.29,78.31,78.33,78.34,78.34,78.36,78.37,78.38,78.37,78.37,78.37,78.37,78.34,78.34,78.31,78.31,78.29,78.27,78.26,78.23,78.22,78.2,78.19,78.17,78.15,78.13,78.11,78.09,78.09,78.09,78.09,78.09,78.12,78.15,78.22,78.22,78.22,78.2,78.18,78.16,78.13,78.09,78.06,78.03,77.98,77.95,77.92,77.89,77.86,77.83,77.81,77.8,77.79,77.78,77.78,77.77,77.76,77.75,77.73,77.73,77.72,77.7,77.69,77.67,77.65,77.63,77.59,77.56,77.56,77.56,77.55,77.52,77.5,77.48,77.48,77.48,77.53,77.56,77.68,77.79,77.91,78.04,78.08,78.13,78.23,78.33,78.4,78.43,78.47,78.54,78.62,78.64,78.67,78.65,78.64,78.62,78.59,78.58,78.56,78.54,78.53,78.53,78.53,78.53,78.53,78.54,78.55,78.56,78.58,78.62,78.64,78.66,78.68,78.7,78.73,78.75,78.78,78.81,78.81,78.81,78.83,78.84,78.81,78.79,78.76,78.73,78.72,78.69,78.67,78.65,78.62,78.59,78.56,78.53,78.45,78.42,78.38,78.39,78.4,78.41,78.41,78.47,78.52,78.62,78.68,78.73,78.78,78.83,78.81,78.81,78.81,78.83,78.84,78.81,78.79,78.77,78.75,78.73,78.7,78.7,78.68,78.66,78.65,78.65,78.63,78.62,78.61,78.58,78.55,78.53,78.52,78.54,78.55,78.56,78.62,78.64,78.65,78.67,78.68,78.7,78.7,78.69,78.69,78.68,78.68,78.69,78.69,78.69,78.7,78.7,78.72,78.73,78.7,78.69,78.67,78.65,78.64,78.64,78.63,78.64,78.65,78.66,78.67,78.68,78.69,78.69,78.7,78.72,78.73,78.75,78.79,78.83,78.84,78.84,78.84,78.81,78.84,78.9,78.95,79.02,79.08,79.15,79.19,79.22,79.29,79.34,79.4,79.45,79.54,79.64,79.69,79.7,79.76,79.86,79.95,80.05,80.12,80.15,80.18,80.2,80.23,80.27,80.29,80.31,80.31,80.34,80.36,80.38,80.41,80.44,80.5,80.56,80.56,80.58,80.56,80.54,80.5,80.5,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.52,80.55,80.56,80.58,80.58,80.58,80.59,80.62,80.64,80.67,80.67,80.68,80.69,80.69,80.72,80.76,80.81,80.86,80.91,80.97,80.97,80.98,80.98,80.97,80.94,80.9,80.89,80.87,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.94,80.98,81.04,81.09,81.12,81.15,81.18,81.2,81.23,81.25,81.26,81.27,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.23,81.2,81.14,81.06,81.08,81.33,81.36,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.4,81.42,81.53,81.64,81.75,81.86,81.91,81.96,82.03,82.1,82.14,82.28,82.29,82.31,82.32,82.32,82.37,82.43,82.48,82.53,82.55,82.58,82.59,82.59,82.63,82.66,82.67,82.69,82.68,82.67,82.63,82.6,82.57,82.54,82.51,82.49,82.47,82.45,82.43,82.4,82.39,82.38,82.38,82.38,82.32,82.27,82.22,82.18,82.18,82.18,82.18,82.18,82.18,82.18,82.11,82.04,81.98,81.92,81.98,82.04,82.1,82.16,82.19,82.23,82.26,82.36,82.39,82.49,82.53,82.55,82.57,82.57,82.56,82.54,82.5,82.47,82.41,82.38,82.4,82.42,82.46,82.49,82.55,82.61,82.67,82.72,82.76,82.8,82.83,82.86,82.89,82.91,82.97,83.03,83.06,83.09,83.09,83.08,83.08,83.08,83.08,83.08,83.09,83.09,83.12,83.16,83.18,83.21,83.21,83.21,83.19,83.17,83.14,83.13,83.09,83.05,83.0,82.94,82.9,82.88,82.88,82.89,82.92,82.95,82.97,82.99,83.02,83.06,83.07,83.09,83.1,83.11,83.14,83.17,83.23,83.28,83.28,83.28,83.32,83.34,83.39,83.46,83.49,83.49,83.52,83.54,83.51,83.49,83.41,83.34,83.3,83.27,83.28,83.28,83.28,83.28,83.29,83.29,83.29,83.29,83.27,83.26,83.25,83.24,83.27,83.3,83.34,83.39,83.39,83.39,83.38,83.38,83.34,83.3,83.24,83.17,83.12,83.07,83.03,82.99,82.96,82.93,82.92,82.92,82.95,82.99,82.97,82.96,82.85,82.74,82.64,82.54,82.51,82.48,82.48,82.48,82.48,82.48,82.5,82.52,82.53,82.55,82.51,82.48,82.48,82.49,82.48,82.48,82.45,82.43,82.39,82.35,82.31,82.27,82.21,82.14,82.07,82.0,82.03,82.06,82.07,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.1,82.11,82.11,82.11,82.11,82.12,82.15,82.18,82.17,82.15,82.12,82.08,82.08,82.08,82.05,82.01,82.0,81.98,81.96,81.95,81.87,81.8,81.75,81.7,81.69,81.68,81.68,81.68,81.64,81.59,81.51,81.41,81.39,81.38,81.37,81.37,81.33,81.29,81.23,81.18,81.14,81.09,81.06,81.04,80.97,80.9,80.84,80.78,80.78,80.78,80.77,80.77,80.73,80.7,80.67,80.64,80.61,80.58,80.62,80.65,80.69,80.72,80.75,80.78,80.79,80.81,80.81,80.81,80.79,80.78,80.78,80.81,80.86,80.87,80.88,81.02,81.09,81.14,81.19,81.17,81.16,81.13,81.09,81.09,81.08,81.12,81.16,81.17,81.18,81.18,81.18</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1961-11-04</t>
+          <t>1963-05-13</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1964-04-22</t>
+          <t>1965-04-09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>np_12sound.dat_converted.csv</t>
+          <t>np_10sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-20999-0-np12sound</t>
+          <t>0-20999-0-np10sound</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>np12sound</t>
+          <t>np10sound</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>193.58,192.78,192.65,192.54,192.44,192.39,192.35,192.29,192.24,192.25,192.26,192.37,192.48,192.37,192.27,192.05,191.83,191.53,191.24,191.01,190.8,190.68,190.57,190.45,190.34,190.27,190.2,190.15,190.11,190.06,190.01,190.02,190.03,190.04,190.06,190.04,190.01,190.01,190.0,189.88,189.77,189.49,189.21,189.05,188.89,188.83,188.77,188.64,188.54,188.44,188.34,188.24,188.19,188.14,188.11,188.09,188.02,187.99,187.95,187.9,187.85,187.8,187.75,187.66,187.57,187.48,187.39,187.3,187.22,187.13,187.04,187.02,187.01,186.99,186.97,187.0,187.03,187.06,187.08,187.14,187.2,187.25,187.31,187.3,187.29,187.27,187.26,187.15,187.04,186.93,186.82,186.72,186.63,186.54,186.45,186.49,186.52,186.56,186.6,186.6,186.61,186.61,186.62,186.58,186.55,186.52,186.49,186.45,186.41,186.37,186.33,186.31,186.3,186.28,186.26,186.06,185.85,185.44,185.28,185.11,184.79,184.81,184.83,184.85,184.87,185.08,185.28,185.48,185.69,185.81,185.94,186.06,186.18,186.19,186.2,186.21,186.21,186.22,186.22,186.22,186.23,186.16,186.09,186.01,185.94,185.75,185.55,185.36,185.17,184.64,184.11,183.74,183.55,183.36,183.02,182.68,182.51,182.34,181.99,181.57,181.14,180.68,180.21,180.17,180.13,180.28,180.44,180.76,181.08,181.27,181.37,181.46,181.58,181.69,181.76,181.83,182.04,182.24,182.45,182.65,182.9,183.15,183.64,183.83,184.02,184.21,184.4,184.55,184.7,185.0,185.09,185.18,185.36,185.44,185.52,185.6,185.68,185.74,185.79,185.85,185.9,185.93,185.96,185.99,186.01,186.1,186.19,186.28,186.36,186.53,186.7,186.86,187.03,187.12,187.21,187.29,187.38,187.09,186.95,186.8,186.62,186.43,186.25,186.06,185.94,185.82,185.57,185.53,185.5,185.47,185.44,185.56,185.62,185.68,186.12,186.27,186.21,186.14,186.08,186.01,185.9,185.8,185.69,185.59,185.54,185.52,185.49,185.41,185.33,185.24,185.12,185.08,185.04,185.02,185.07,185.09,185.06,185.01,184.98,184.89,184.8,184.71,184.32,184.14,184.07,183.99,183.92,183.89,183.86,183.83,183.8,183.82,183.85,183.87,183.89,183.93,183.96,184.0,184.03,184.03,184.02,184.01,183.92,183.82,183.73,183.64,183.63,183.63,183.62,183.62,183.73,183.84,183.95,184.25,184.61,184.96,185.31,185.66,186.01,186.23,186.32,186.18,185.82,185.55,185.37,185.28,185.29,185.32,185.46,185.94,186.12,186.26,186.35,186.69,187.27,187.59,187.65,187.65,187.59,187.35,186.95,186.62,186.37,186.22,186.16,186.23,186.42,186.7,187.07,187.69,188.13,188.37,188.62,188.5,188.38,188.32,188.25,188.24,188.26,188.28,188.32,188.44,188.47,188.5,188.57,188.63,188.62,188.61,188.46,188.31,188.18,188.04,188.03,188.0,188.06,188.12,188.36,188.59,188.7,188.81,188.82,188.83,188.86,188.89,188.9,188.91,189.07,189.23,189.4,189.58,189.74,189.9,189.98,190.06,190.12,190.18,190.26,190.34,190.38,190.42,190.58,190.75,190.72,190.69,190.64,190.59,190.56,190.52,190.45,190.39,190.25,190.12,190.04,189.96,190.1,190.24,190.38,190.53,190.74,190.94,191.34,191.74,191.87,191.99,192.14,192.28,192.57,192.86,193.09,193.32,193.51,193.7,193.81,193.92,193.9,193.89,193.78,193.67,193.49,193.3,193.29,193.31,193.32,193.47,193.62,193.71,193.6,193.5,193.34,193.18,193.19,195.07,195.02,194.97,194.77,194.67,194.47,194.36,194.31,194.25,194.22,194.21,194.2,194.29,194.38,194.56,194.75,194.83,194.92,194.96,195.0,195.35,195.71,195.96,196.21,196.15,196.08,196.43,196.78,197.07,197.97,198.12,198.28,198.38,198.48,198.14,197.81,197.42,197.03,196.76,196.49,196.51,196.52,197.0,197.48,198.0,198.51,198.36,198.21,197.83,197.46,197.38,197.31,197.57,197.84,198.07,198.29,198.46,198.64,198.64,198.64,198.57,198.51,198.71,198.9,198.93,198.96,198.55,198.14,197.92,197.7,197.71,197.72,198.27,198.81,199.4,199.98,200.15,200.32,200.53,200.75,200.98,201.21,201.29,201.55,201.65,201.97,202.28,202.43,202.62,202.69,202.71,202.7,202.76,202.91,203.32,203.66,203.93,204.2,204.4,204.59,204.79,205.0,205.06,205.12,205.14,205.15,205.14,205.12,204.97,204.82,204.59,204.36,204.26,204.17,204.08,203.99,203.87,203.75,203.78,203.81,203.83,203.86,203.67,203.48,203.15,202.82,202.51,202.2,202.15,202.1,202.33,202.44,202.64,202.81,202.85,202.78,202.73,202.69,202.67,202.65,202.16,201.66,201.39,201.12,200.93,200.73,200.71,200.69,200.91,201.35,202.15,202.75,202.9,203.05,203.04,203.03,202.89,202.83,202.65,202.41,201.86,201.43,200.4,199.35,198.86,198.36,198.8,199.24,199.51,199.77,200.01,200.24,200.84,201.15,201.76,202.71,203.39,204.08,205.02,205.95,206.98,208.0,208.87,209.74,210.22,210.7,210.64,210.58,210.36,210.13,209.46,208.79,208.21,207.63,207.54,207.45,207.68,207.92,207.95,207.98,207.65,207.32,206.74,206.16,205.93,205.71,205.88,206.06,206.33,206.59,207.0,207.4,207.69,207.97,208.02,208.06,208.22,208.39,208.34,208.3,208.29,208.28,208.46,208.64,208.75,208.86,208.95,209.03,209.1,209.17,209.24,209.31,209.42,209.53,209.65,209.77,209.75,209.72,209.71,209.69,209.68,209.67,209.64,209.61,209.58,209.52,209.46,209.53,209.6,209.69,209.77,209.8,209.89,209.9,209.9,209.88,209.86,209.79,209.71,209.87,210.04,210.61,211.19,211.32,211.45,211.53,211.6,211.62,211.64,211.64,211.64,211.88,212.12,212.25,212.37,212.61,212.84,213.11,213.38,213.53,213.69,213.59,213.49,213.45,213.42,213.41,213.4,213.36,213.32,213.24,213.17,213.2,213.23,213.33,213.42,213.57,213.72,213.86,213.99,214.03,214.04,214.0,213.94,213.86,213.77,213.67,213.58,213.66,213.74,213.93,214.13,214.21,214.3,214.34,214.38,214.19,214.0,213.87,213.75,213.81,213.88,213.9,213.9,213.9,213.93,213.93,213.93,213.93,213.9,213.86,213.9,213.94,214.02,214.1,214.11,214.11,214.13,214.15,214.13,214.1</t>
+          <t>174.93,174.36,173.21,171.55,171.0,170.57,170.8,170.99,171.22,171.31,171.35,171.4,171.42,171.44,171.51,171.58,171.62,171.68,171.7,171.67,171.65,171.59,171.47,171.39,171.23,171.02,170.64,170.56,170.32,170.4,170.43,170.51,170.53,170.52,170.46,170.37,170.24,170.07,169.84,169.65,169.58,169.51,169.65,169.87,169.95,170.04,170.2,170.23,170.26,170.29,170.35,170.44,170.62,170.68,170.79,170.94,171.11,171.28,171.32,171.35,171.33,171.32,171.22,171.12,171.05,170.99,170.93,170.86,170.8,170.73,170.65,170.56,170.56,170.55,170.54,170.54,170.53,170.52,170.47,170.42,170.4,170.39,170.37,170.36,170.34,170.33,170.27,170.21,170.15,170.08,169.59,169.09,169.18,169.22,169.27,169.31,169.36,169.5,169.65,169.68,169.72,169.76,169.79,169.83,169.87,170.13,170.39,170.38,170.37,170.35,170.34,170.33,170.32,170.31,170.3,170.28,170.27,170.18,170.09,170.09,170.09,170.08,170.08,170.08,170.08,169.98,169.88,169.86,169.85,169.83,169.81,169.8,169.78,169.75,169.72,169.63,169.54,169.45,169.37,169.31,169.26,169.21,169.16,169.1,169.05,168.78,168.51,168.45,168.39,168.34,168.28,168.23,168.17,168.13,168.09,168.02,167.96,167.9,167.84,167.78,167.72,167.55,167.39,167.22,167.05,167.34,167.62,167.66,167.69,167.72,167.76,167.79,167.82,167.72,167.61,167.55,167.49,167.42,167.36,167.29,167.23,167.14,167.04,166.99,166.93,166.87,166.81,166.75,166.7,166.57,166.45,166.32,166.2,166.0,165.81,165.78,165.75,165.71,165.68,165.65,165.62,165.31,165.0,164.79,164.58,164.37,164.16,163.95,163.72,163.59,163.46,163.32,163.18,163.04,162.9,162.85,162.79,162.72,162.66,162.61,162.56,162.51,162.46,162.44,162.41,162.38,162.37,162.35,162.33,162.24,162.15,162.08,162.01,161.94,161.87,161.8,161.72,161.65,161.58,161.59,161.6,161.61,161.63,161.65,161.68,161.69,161.72,161.76,161.78,161.53,161.27,161.21,161.16,161.1,161.04,160.97,160.91,160.9,160.88,160.91,160.96,161.0,161.04,161.07,161.11,161.22,161.33,161.44,161.55,161.91,162.27,162.38,162.52,162.63,162.77,162.88,163.02,163.03,163.04,162.97,162.91,162.87,162.81,162.75,162.69,162.69,162.69,162.66,162.65,162.62,162.59,162.54,162.5,162.44,162.4,162.36,162.31,162.19,162.09,162.26,162.43,162.6,162.77,162.94,163.11,163.37,163.63,163.69,163.77,163.84,163.91,163.98,164.05,164.11,164.18,164.14,164.11,164.07,164.04,163.98,163.93,163.88,163.83,163.77,163.72,163.51,163.3,163.1,163.01,162.91,162.81,162.71,162.51,162.32,162.16,162.0,161.85,161.69,161.53,161.37,160.99,160.62,160.24,159.86,159.71,159.55,159.46,159.37,159.28,159.18,159.09,159.0,159.1,159.19,159.24,159.29,159.33,159.38,159.43,159.47,159.27,159.29,159.32,159.34,159.37,159.38,159.41,159.5,159.59,159.68,159.77,159.76,159.76,159.69,159.61,159.54,159.47,159.4,159.33,159.08,158.83,158.77,158.71,158.65,158.59,158.53,158.47,158.22,157.97,157.88,157.8,157.72,157.63,157.69,157.74,157.8,157.85,157.91,157.96,158.0,158.04,157.99,157.94,157.9,157.85,157.8,157.75,158.16,158.19,158.21,158.22,158.25,158.27,158.3,158.11,157.93,157.85,157.76,157.68,157.59,157.56,157.53,157.49,157.46,157.43,157.4,157.41,157.44,157.46,157.47,157.49,157.5,157.51,157.37,157.22,157.1,156.97,156.86,156.74,156.62,156.51,156.56,156.62,156.68,156.74,156.84,156.88,156.85,156.8,156.76,156.71,156.66,156.6,156.54,156.56,156.59,156.61,156.63,156.66,156.88,157.07,157.25,157.43,157.62,157.8,158.04,158.27,158.51,158.75,158.97,159.22,159.86,160.49,160.59,160.69,160.79,160.9,161.0,161.1,161.18,161.27,161.26,161.25,161.25,161.24,161.22,161.22,161.21,161.19,161.05,160.88,160.72,160.57,160.38,160.18,159.97,159.78,159.58,159.38,159.1,158.81,158.91,159.01,159.12,159.22,159.33,159.43,159.61,159.78,159.84,159.91,159.97,160.03,160.1,160.16,160.22,160.28,160.41,160.53,160.65,160.68,160.71,160.74,160.77,160.8,160.83,160.85,160.88,160.91,160.94,160.97,161.0,161.03,161.02,161.01,161.02,161.04,161.06,161.08,161.09,161.11,161.13,161.15,161.16,161.19,161.21,161.22,161.25,161.26,161.24,161.19,161.16,161.13,161.12,161.02,160.91,160.85,160.77,160.69,160.63,160.5,160.37,160.25,160.12,160.0,159.88,159.71,159.55,159.6,159.66,159.72,159.78,159.83,159.88,160.16,160.44,160.57,160.69,160.81,160.93,161.05,161.16,161.31,161.47,161.44,161.43,161.41,161.4,161.44,161.5,161.54,161.59,161.63,161.69,161.66,161.65,161.58,161.51,161.43,161.36,161.29,161.21,160.91,160.6,160.56,160.51,160.46,160.41,160.36,160.32,160.29,160.27,160.25,160.22,160.16,160.09,160.11,160.12,160.13,160.16,160.16,160.19,160.47,160.77,160.91,161.06,161.21,161.36,161.51,161.66,161.68,161.69,161.69,161.68,161.66,161.61,161.55,161.49,161.44,161.13,160.82,160.8,160.78,160.76,160.72,160.71,160.69,160.86,161.03,161.04,161.04,161.05,161.05,161.06,160.88,160.82,160.75,160.68,160.62,160.57,160.52,160.47,160.41,160.37,160.32,160.29,160.26,160.27,160.28,160.29,160.3,160.31,160.32,160.3,160.29,160.24,160.19,160.13,160.09,160.04,159.99,160.12,160.19,160.26,160.46,160.65,160.63,160.62,160.6,160.58,160.55,160.71,160.88,160.97,161.06,161.15,161.24,161.34,161.43,161.34,161.26,161.32,161.37,161.41,161.47,161.53,161.58,161.77,161.94,162.13,162.32,162.41,162.52,162.55,162.56,162.57,162.59,162.6,162.6,162.55,162.5,162.46,162.41,162.36,162.32,162.06,161.79,161.65,161.51,161.37,161.22,161.1,160.97,160.85,160.72,160.59,160.47,160.35,160.24,160.27,160.3,160.33,160.36,160.4,160.43,160.53,160.63,160.65,160.65,160.66,160.68,160.66,160.66,160.66,160.66,160.66,160.66,160.72,160.76,160.81,160.86,160.9,160.94,160.84,160.69,160.53,160.66,160.8,160.94,161.07,160.97,160.9,160.83,160.77,160.63,160.52,160.34,160.15,160.06,159.97,159.8,159.63,159.35,159.07,158.86,158.66,158.69,158.74,158.94,159.15,159.35,159.55,159.58,159.61,159.66,159.72,159.81,159.88,159.97,160.07,160.08,160.09,160.03,159.97,159.94,159.91,159.88,159.88,159.85,159.82,159.75,159.68,159.59,159.51,159.47,159.43,159.41,159.43,159.44,159.3,159.16,158.88,158.62,158.65,158.66,158.76,158.84,158.82,158.8,158.82,158.83,158.88,158.91,158.94,158.96,158.88,158.81,158.77,158.72,158.68,158.63,158.44,158.27,158.13,157.88,157.66,157.46,157.35,157.31,157.28,157.24,157.24,157.26,157.15,156.91,156.71,156.55,156.44,156.41,156.29,156.0,156.01,156.03,156.02,155.97,155.77,155.41,155.05,154.63,154.63,155.03,155.24,155.28,155.43,155.68,155.81,155.82,155.77,155.68,155.58,155.49,155.34,155.15,154.94,154.75,154.63,154.6,154.57,154.52,154.43,154.29,154.1,153.85,153.61,153.38,153.16,152.99,152.85,152.72,152.63,152.59,152.47,152.33,152.05,151.63,151.36,151.21,151.15,151.19,151.25,151.32,151.35,151.35,151.3,151.19,151.02,150.79,150.46,150.02,149.69,149.44,149.3,149.24,149.11,148.91,148.8,148.72,148.78,148.84,148.97,149.12,149.38,149.65,149.66,149.71,149.63,149.46,149.24,148.84,148.55,148.25,147.86,147.44,146.87,146.28,145.58,144.87,144.55,144.22,144.09,143.96,143.79,143.6,143.63,143.65,143.66,143.69,143.57,143.44,143.36,143.29,143.33,143.38,143.49,143.6,143.88,144.15,144.33,144.51,144.57,144.63,144.54,144.44,144.22,143.55,143.4,142.94,143.01,143.07,143.09,143.1,143.07,143.0,142.8,142.47,142.15,141.83,141.51,141.18,140.99,140.94,141.03,141.25,141.53,141.87,142.27,142.94,143.18,143.43,143.76,144.09,144.34,144.6,144.57,144.53,144.55,144.57,144.49,144.34,143.91,143.19,142.59,142.09,141.74,141.56,141.37,141.16,140.99,140.87,140.8,140.79,140.88,140.99,141.22,141.47,141.78,141.94,142.16,142.29,142.22,141.97,141.68,141.36,141.26,141.38,141.66,142.1,142.31,142.3,142.32,142.34,142.3,142.19,141.93,141.51,141.22,141.07,141.04,141.12,141.25,141.41,142.18,142.59,142.94,143.22,143.47,143.55,143.62,143.72,143.84,143.74,143.63,143.37,143.1,143.03,142.88,142.68,142.43,142.28,142.24,142.41,142.62,143.01,143.15,143.29,143.26,143.16,143.1,143.04,143.06,143.46,144.75,145.66,146.99,147.66,148.78,149.65,149.94,149.62,149.19,148.63,148.01,146.91,146.07,145.22,144.77,143.86,142.94,142.02,141.41,141.12,141.21,141.72,141.58,140.77,140.02,139.35,138.79,138.35,137.8,137.63,137.6,137.74,137.72,137.71,137.53,137.44,137.36,137.31,137.13,136.76,136.35,135.65,135.53,135.41,135.66,135.8,136.02,136.07,136.02,135.72,135.88,135.97,136.31,136.43,136.72,136.88,136.93,137.07,136.29,135.5,134.97,134.44,133.74,132.99,132.36,131.72,131.51,131.28,130.38,129.94,128.97,127.92,127.28,127.07,128.37,129.87,128.87,128.36,127.83,127.79,128.54,129.35,128.79,128.51,127.41,125.76,123.27,121.51,119.25,116.96,116.28,115.61,115.7,115.8,115.24,114.95,113.84,112.97,114.01,115.05,116.49,117.94,117.82,117.7,117.28,116.85,116.45,116.05,116.57,116.83,115.76,113.21,108.22,104.66,102.56,101.43,98.63,95.21,90.49,87.61,86.99,86.35,86.03,85.7,85.93,86.18,86.16,86.15,85.99,85.83,84.25,83.46,82.21,81.3,80.9,81.09,81.02,80.79,81.41,82.03,84.74,87.45,89.29,91.19,91.92,93.44,94.78,98.2,96.8</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>77.03,77.0,77.0,77.02,77.03,77.05,77.08,77.06,77.06,77.03,77.01,77.08,77.15,77.18,77.2,77.23,77.26,77.2,77.13,77.09,77.06,77.02,76.98,76.97,76.95,76.97,76.97,76.97,76.97,76.98,77.01,77.04,77.06,77.11,77.15,77.2,77.28,77.3,77.33,77.34,77.34,77.29,77.23,77.23,77.22,77.23,77.25,77.28,77.33,77.37,77.44,77.5,77.56,77.62,77.69,77.76,77.84,77.9,77.94,77.97,78.0,78.03,78.06,78.06,78.06,78.06,78.08,78.08,78.08,78.06,78.06,78.08,78.09,78.11,78.12,78.14,78.16,78.18,78.2,78.22,78.23,78.26,78.28,78.29,78.31,78.33,78.34,78.34,78.36,78.37,78.38,78.37,78.37,78.37,78.37,78.34,78.34,78.31,78.31,78.29,78.27,78.26,78.23,78.22,78.2,78.19,78.17,78.15,78.13,78.11,78.09,78.09,78.09,78.09,78.09,78.12,78.15,78.22,78.22,78.22,78.2,78.18,78.16,78.13,78.09,78.06,78.03,77.98,77.95,77.92,77.89,77.86,77.83,77.81,77.8,77.79,77.78,77.78,77.77,77.76,77.75,77.73,77.73,77.72,77.7,77.69,77.67,77.65,77.63,77.59,77.56,77.56,77.56,77.55,77.52,77.5,77.48,77.48,77.48,77.53,77.56,77.68,77.79,77.91,78.04,78.08,78.13,78.23,78.33,78.4,78.43,78.47,78.54,78.62,78.64,78.67,78.65,78.64,78.62,78.59,78.58,78.56,78.54,78.53,78.53,78.53,78.53,78.53,78.54,78.55,78.56,78.58,78.62,78.64,78.66,78.68,78.7,78.73,78.75,78.78,78.81,78.81,78.81,78.83,78.84,78.81,78.79,78.76,78.73,78.72,78.69,78.67,78.65,78.62,78.59,78.56,78.53,78.45,78.42,78.38,78.39,78.4,78.41,78.41,78.47,78.52,78.62,78.68,78.73,78.78,78.83,78.81,78.81,78.81,78.83,78.84,78.81,78.79,78.77,78.75,78.73,78.7,78.7,78.68,78.66,78.65,78.65,78.63,78.62,78.61,78.58,78.55,78.53,78.52,78.54,78.55,78.56,78.62,78.64,78.65,78.67,78.68,78.7,78.7,78.69,78.69,78.68,78.68,78.69,78.69,78.69,78.7,78.7,78.72,78.73,78.7,78.69,78.67,78.65,78.64,78.64,78.63,78.64,78.65,78.66,78.67,78.68,78.69,78.69,78.7,78.72,78.73,78.75,78.79,78.83,78.84,78.84,78.84,78.81,78.84,78.9,78.95,79.02,79.08,79.15,79.19,79.22,79.29,79.34,79.4,79.45,79.54,79.64,79.69,79.7,79.76,79.86,79.95,80.05,80.12,80.15,80.18,80.2,80.23,80.27,80.29,80.31,80.31,80.34,80.36,80.38,80.41,80.44,80.5,80.56,80.56,80.58,80.56,80.54,80.5,80.5,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.48,80.52,80.55,80.56,80.58,80.58,80.58,80.59,80.62,80.64,80.67,80.67,80.68,80.69,80.69,80.72,80.76,80.81,80.86,80.91,80.97,80.97,80.98,80.98,80.97,80.94,80.9,80.89,80.87,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.88,80.94,80.98,81.04,81.09,81.12,81.15,81.18,81.2,81.23,81.25,81.26,81.27,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.28,81.23,81.2,81.14,81.06,81.08,81.33,81.36,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.38,81.4,81.42,81.53,81.64,81.75,81.86,81.91,81.96,82.03,82.1,82.14,82.28,82.29,82.31,82.32,82.32,82.37,82.43,82.48,82.53,82.55,82.58,82.59,82.59,82.63,82.66,82.67,82.69,82.68,82.67,82.63,82.6,82.57,82.54,82.51,82.49,82.47,82.45,82.43,82.4,82.39,82.38,82.38,82.38,82.32,82.27,82.22,82.18,82.18,82.18,82.18,82.18,82.18,82.18,82.11,82.04,81.98,81.92,81.98,82.04,82.1,82.16,82.19,82.23,82.26,82.36,82.39,82.49,82.53,82.55,82.57,82.57,82.56,82.54,82.5,82.47,82.41,82.38,82.4,82.42,82.46,82.49,82.55,82.61,82.67,82.72,82.76,82.8,82.83,82.86,82.89,82.91,82.97,83.03,83.06,83.09,83.09,83.08,83.08,83.08,83.08,83.08,83.09,83.09,83.12,83.16,83.18,83.21,83.21,83.21,83.19,83.17,83.14,83.13,83.09,83.05,83.0,82.94,82.9,82.88,82.88,82.89,82.92,82.95,82.97,82.99,83.02,83.06,83.07,83.09,83.1,83.11,83.14,83.17,83.23,83.28,83.28,83.28,83.32,83.34,83.39,83.46,83.49,83.49,83.52,83.54,83.51,83.49,83.41,83.34,83.3,83.27,83.28,83.28,83.28,83.28,83.29,83.29,83.29,83.29,83.27,83.26,83.25,83.24,83.27,83.3,83.34,83.39,83.39,83.39,83.38,83.38,83.34,83.3,83.24,83.17,83.12,83.07,83.03,82.99,82.96,82.93,82.92,82.92,82.95,82.99,82.97,82.96,82.85,82.74,82.64,82.54,82.51,82.48,82.48,82.48,82.48,82.48,82.5,82.52,82.53,82.55,82.51,82.48,82.48,82.49,82.48,82.48,82.45,82.43,82.39,82.35,82.31,82.27,82.21,82.14,82.07,82.0,82.03,82.06,82.07,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.08,82.1,82.11,82.11,82.11,82.11,82.12,82.15,82.18,82.17,82.15,82.12,82.08,82.08,82.08,82.05,82.01,82.0,81.98,81.96,81.95,81.87,81.8,81.75,81.7,81.69,81.68,81.68,81.68,81.64,81.59,81.51,81.41,81.39,81.38,81.37,81.37,81.33,81.29,81.23,81.18,81.14,81.09,81.06,81.04,80.97,80.9,80.84,80.78,80.78,80.78,80.77,80.77,80.73,80.7,80.67,80.64,80.61,80.58,80.62,80.65,80.69,80.72,80.75,80.78,80.79,80.81,80.81,80.81,80.79,80.78,80.78,80.81,80.86,80.87,80.88,81.02,81.09,81.14,81.19,81.17,81.16,81.13,81.09,81.09,81.08,81.12,81.16,81.17,81.18,81.18,81.18</t>
+          <t>75.08,75.22,75.48,75.68,75.7,75.73,75.69,75.68,75.67,75.64,75.62,75.58,75.51,75.48,75.45,75.44,75.43,75.43,75.43,75.44,75.45,75.47,75.5,75.48,75.47,75.44,75.39,75.36,75.27,75.22,75.19,75.17,75.17,75.19,75.22,75.23,75.26,75.27,75.26,75.18,75.11,75.04,75.09,75.22,75.23,75.23,75.27,75.29,75.31,75.33,75.34,75.37,75.37,75.36,75.33,75.29,75.23,75.19,75.19,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.2,75.25,75.29,75.31,75.34,75.37,75.39,75.42,75.44,75.48,75.53,75.53,75.52,75.51,75.51,75.5,75.5,75.48,75.48,75.48,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.47,75.48,75.48,75.48,75.5,75.5,75.51,75.54,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.56,75.61,75.64,75.66,75.69,75.7,75.73,75.75,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.77,75.78,75.78,75.79,75.79,75.8,75.84,75.88,75.89,75.91,75.92,75.93,75.95,75.95,75.97,75.97,75.98,75.98,75.98,75.98,76.0,76.01,76.02,76.04,76.05,76.06,76.05,76.03,76.03,76.02,76.02,76.01,76.01,76.0,76.04,76.06,76.08,76.09,76.11,76.12,76.13,76.14,76.16,76.17,76.17,76.16,76.15,76.15,76.14,76.13,76.13,76.14,76.14,76.15,76.19,76.23,76.23,76.23,76.22,76.2,76.2,76.2,76.29,76.38,76.45,76.51,76.58,76.65,76.72,76.79,76.78,76.76,76.78,76.8,76.81,76.84,76.84,76.84,76.86,76.86,76.87,76.87,76.88,76.88,76.89,76.9,76.92,76.93,76.94,76.95,76.97,76.98,76.98,77.0,77.01,77.02,77.03,77.04,77.0,76.95,76.95,76.93,76.91,76.9,76.91,76.92,76.94,76.95,76.97,76.98,77.02,77.06,77.09,77.12,77.15,77.17,77.2,77.23,77.25,77.27,77.25,77.23,77.22,77.2,77.18,77.16,77.14,77.12,77.09,77.08,77.13,77.19,77.22,77.23,77.26,77.29,77.31,77.34,77.42,77.48,77.52,77.55,77.58,77.61,77.64,77.67,77.69,77.7,77.73,77.77,77.8,77.83,77.83,77.84,77.84,77.84,77.84,77.86,77.81,77.78,77.78,77.78,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.77,77.76,77.73,77.73,77.72,77.7,77.7,77.7,77.72,77.73,77.73,77.75,77.76,77.81,77.86,77.89,77.91,77.92,77.94,77.95,77.97,77.98,77.98,77.98,78.0,78.0,78.01,78.02,78.02,78.03,78.03,78.04,78.01,77.98,77.98,77.98,78.0,78.0,78.01,78.01,77.98,77.97,77.97,77.97,77.97,77.97,77.97,77.97,78.0,78.04,78.08,78.12,78.17,78.2,78.25,78.26,78.28,78.29,78.3,78.25,78.19,78.19,78.2,78.2,78.2,78.2,78.2,78.2,78.22,78.2,78.2,78.2,78.2,78.2,78.2,78.27,78.34,78.36,78.39,78.42,78.44,78.44,78.43,78.42,78.41,78.41,78.4,78.37,78.33,78.34,78.34,78.34,78.36,78.37,78.37,78.42,78.43,78.44,78.44,78.45,78.45,78.47,78.45,78.44,78.43,78.42,78.42,78.41,78.39,78.37,78.34,78.31,78.3,78.28,78.28,78.27,78.28,78.28,78.28,78.28,78.28,78.23,78.19,78.13,78.06,78.0,77.93,77.86,77.8,77.77,77.75,77.72,77.7,77.75,77.8,77.81,77.83,77.84,77.86,77.87,77.86,77.86,77.83,77.81,77.79,77.77,77.73,77.69,77.67,77.65,77.64,77.62,77.59,77.58,77.55,77.53,77.5,77.48,77.45,77.36,77.28,77.26,77.25,77.23,77.22,77.2,77.2,77.28,77.37,77.29,77.22,77.15,77.06,77.0,76.93,76.9,76.87,76.91,76.95,77.0,77.04,77.09,77.17,77.23,77.29,77.36,77.42,77.56,77.7,77.75,77.78,77.81,77.86,77.89,77.93,77.95,77.98,77.98,77.98,77.98,77.98,78.0,78.0,78.01,78.03,78.06,78.06,78.09,78.09,78.09,78.11,78.11,78.12,78.12,78.16,78.19,78.19,78.19,78.19,78.19,78.18,78.18,78.18,78.16,78.15,78.13,78.12,78.08,78.05,78.03,78.01,77.98,77.97,77.95,77.94,77.94,77.94,77.94,77.95,77.95,77.95,77.97,77.97,77.98,77.97,77.95,77.94,77.93,77.9,77.87,77.84,77.81,77.78,77.75,77.7,77.68,77.68,77.68,77.67,77.67,77.67,77.67,77.67,77.68,77.68,77.68,77.68,77.69,77.69,77.69,77.72,77.73,77.75,77.76,77.77,77.77,77.78,77.79,77.81,77.81,77.83,77.84,77.92,78.0,78.01,78.03,78.05,78.06,78.08,78.09,78.12,78.14,78.15,78.15,78.15,78.16,78.16,78.17,78.17,78.18,78.19,78.19,78.28,78.37,78.39,78.42,78.45,78.48,78.51,78.53,78.61,78.69,78.72,78.75,78.78,78.81,78.84,78.87,78.87,78.87,78.88,78.89,78.9,78.94,78.98,79.02,79.06,79.16,79.25,79.25,79.26,79.26,79.27,79.27,79.28,79.26,79.23,79.25,79.26,79.27,79.28,79.29,79.38,79.4,79.42,79.43,79.45,79.45,79.45,79.47,79.47,79.48,79.48,79.48,79.48,79.5,79.51,79.52,79.53,79.55,79.56,79.56,79.58,79.58,79.59,79.59,79.59,79.59,79.61,79.63,79.64,79.65,79.62,79.59,79.56,79.53,79.5,79.48,79.42,79.31,79.2,79.18,79.16,79.13,79.09,79.08,79.05,79.01,78.98,78.98,78.98,78.98,78.98,78.97,78.97,78.97,78.97,78.98,78.98,78.95,78.94,78.92,78.91,78.9,78.88,78.87,78.88,78.89,78.9,78.91,78.92,78.93,78.94,78.98,79.03,79.06,79.09,79.12,79.15,79.16,79.16,79.17,79.17,79.17,79.18,79.16,79.14,79.13,79.13,79.12,79.11,79.11,79.09,79.09,79.09,79.09,79.11,79.11,79.13,79.18,79.22,79.26,79.29,79.31,79.34,79.36,79.36,79.37,79.37,79.37,79.38,79.38,79.4,79.43,79.45,79.48,79.48,79.48,79.48,79.51,79.54,79.58,79.58,79.58,79.58,79.58,79.58,79.58,79.59,79.59,79.64,79.69,79.72,79.76,79.76,79.76,79.81,79.86,79.92,79.98,79.98,80.0,80.01,80.02,80.04,80.06,80.08,80.09,80.15,80.2,80.26,80.31,80.34,80.4,80.42,80.45,80.47,80.48,80.52,80.56,80.56,80.56,80.56,80.56,80.59,80.63,80.67,80.73,80.8,80.83,80.84,80.81,80.78,80.78,80.78,80.79,80.8,80.83,80.86,80.91,80.95,81.0,81.03,81.05,81.04,81.01,80.98,80.98,80.98,80.98,81.0,81.01,81.04,81.06,81.11,81.13,81.13,81.12,81.09,81.06,81.05,81.03,81.0,80.97,80.94,80.9,80.86,80.81,80.78,80.78,80.78,80.78,80.78,80.77,80.75,80.72,80.69,80.7,80.75,80.83,80.95,81.05,81.13,81.23,81.34,81.42,81.47,81.51,81.56,81.59,81.63,81.65,81.66,81.65,81.63,81.61,81.59,81.61,81.64,81.67,81.68,81.68,81.68,81.68,81.68,81.68,81.69,81.7,81.73,81.77,81.8,81.84,81.87,81.87,81.84,81.83,81.8,81.8,81.84,81.86,81.88,81.88,81.88,81.88,81.87,81.84,81.81,81.8,81.78,81.78,81.78,81.78,81.78,81.78,81.76,81.75,81.73,81.73,81.73,81.78,81.81,81.84,81.92,81.97,82.02,82.06,82.11,82.18,82.25,82.35,82.44,82.48,82.51,82.52,82.52,82.55,82.57,82.63,82.69,82.78,82.88,82.99,83.11,83.14,83.18,83.16,83.15,83.13,83.11,83.14,83.18,83.16,83.15,83.08,83.01,82.99,82.98,82.98,82.98,83.02,83.05,83.08,83.16,83.16,83.15,83.15,83.16,83.09,83.02,82.98,82.9,82.84,82.82,82.8,82.79,82.78,82.78,82.78,82.78,82.78,82.78,82.78,82.78,82.77,82.74,82.73,82.72,82.79,82.85,82.93,83.02,83.05,83.09,83.08,83.07,83.08,83.11,83.17,83.27,83.36,83.44,83.51,83.56,83.62,83.7,83.72,83.7,83.67,83.62,83.58,83.56,83.58,83.59,83.65,83.68,83.75,83.83,83.89,83.94,83.96,83.96,83.93,83.87,83.83,83.8,83.79,83.8,83.86,83.89,83.96,84.05,84.13,84.18,84.2,84.19,84.2,84.21,84.23,84.26,84.29,84.29,84.29,84.29,84.29,84.29,84.29,84.29,84.29,84.27,84.25,84.29,84.32,84.39,84.52,84.6,84.65,84.68,84.69,84.64,84.57,84.43,84.41,84.38,84.38,84.37,84.39,84.41,84.49,84.63,84.76,84.81,84.87,84.9,84.96,85.02,85.08,85.14,85.2,85.26,85.29,85.29,85.31,85.33,85.33,85.35,85.37,85.4,85.44,85.5,85.56,85.63,85.7,85.78,85.85,85.93,85.98,86.02,86.07,86.08,86.16,86.21,86.25,86.32,86.38,86.38,86.39,86.4,86.42,86.45,86.5,86.57,86.58,86.59,86.59,86.59,86.6,86.61,86.63,86.67,86.71,86.73,86.82,86.86,86.94,86.98,86.99,87.04,87.06,87.09,87.13,87.17,87.24,87.32,87.32,87.33,87.35,87.36,87.38,87.39,87.42,87.45,87.48,87.5,87.6,87.69,87.71,87.72,87.74,87.74,87.81,87.87,87.92,87.95,88.0,88.03,88.11,88.17,88.18,88.2,88.19,88.19,88.19,88.19,88.21,88.22,88.28,88.32,88.32,88.32,88.32,88.32,88.36,88.39,88.39,88.39,88.39,88.39,88.39,88.39,88.37,88.33,88.26,88.2,88.3,88.34,88.42,88.48,88.51,88.5,88.52,88.54,88.56,88.58,88.61,88.64,88.66,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.69,88.71,88.73,88.75,88.78,88.79,88.7,88.7</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1963-05-13</t>
+          <t>1961-11-04</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1965-04-09</t>
+          <t>1964-04-22</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>np_19sound.dat_converted.csv</t>
+          <t>np_03sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-20999-0-np19sound</t>
+          <t>0-20999-0-np03sound</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>np19sound</t>
+          <t>np03sound</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>158.69,158.8,158.9,158.94,158.86,158.79,155.91,155.69,155.44,155.21,155.28,155.34,155.55,155.57,155.6,155.58,155.57,155.55,155.5,155.44,155.36,155.37,155.38,155.38,155.3,155.08,155.02,154.91,154.88,154.83,154.83,154.82,154.8,154.72,154.63,154.56,154.16,153.79,152.27,152.05,151.83,151.78,151.72,151.69,151.55,151.47,151.4,151.37,151.34,151.31,151.26,151.21,151.12,151.07,151.02,150.99,150.96,150.93,150.84,150.8,150.75,150.72,149.82,149.79,149.76,149.68,149.63,149.59,149.56,149.52,149.47,149.46,149.43,149.49,149.41,149.37,148.88,148.55,148.19,147.88,147.56,147.24,147.03,146.82,146.35,146.27,146.19,146.11,146.01,145.91,145.88,145.86,145.83,145.74,145.65,145.56,145.5,145.44,144.84,144.52,144.19,144.04,143.69,143.31,142.91,142.69,142.63,142.58,142.56,142.54,142.51,142.5,142.5,142.46,142.36,142.21,142.26,142.32,142.38,142.41,142.47,142.51,142.56,142.68,142.74,142.8,142.85,142.88,142.93,143.0,143.06,143.19,143.26,143.33,143.38,143.41,143.47,143.54,143.66,143.83,143.85,143.9,143.94,144.01,144.09,144.19,144.34,144.38,144.47,144.51,144.56,144.71,144.78,144.86,144.9,144.94,145.0,145.07,145.13,145.24,145.27,145.3,145.33,145.37,145.41,145.22,145.56,145.88,145.87,145.84,145.82,146.07,146.32,147.12,147.25,147.38,147.51,147.63,147.76,148.13,148.27,148.4,148.34,148.28,148.21,148.1,147.97,147.68,147.65,147.62,147.59,147.62,147.65,147.69,147.69,147.68,147.5,147.38,147.28,147.29,147.3,147.31,147.32,147.55,147.65,147.75,147.63,147.53,147.41,147.5,147.57,147.63,147.83,148.01,148.19,148.53,148.86,151.09,151.87,152.63,152.61,152.57,152.54,153.41,154.04,154.66,154.65,154.63,154.22,153.82,153.46,153.4,153.33,153.16,153.0,152.83,151.69,150.51,149.93,149.31,148.79,148.62,148.44,148.44,148.44,148.44,148.37,148.37,148.61,148.84,149.07,149.33,149.79,150.19,150.27,150.36,150.43,150.55,150.84,151.19,151.56,151.81,152.06,152.28,152.37,152.44,152.47,152.28,152.12,152.06,151.85,151.63,151.41,151.21,150.99,150.77,150.36,149.74,149.13,148.71,148.44,147.97,147.15,146.31,145.49,145.03,144.91,144.94,144.97,145.33,145.9,146.22,146.54,146.66,146.62,146.81,147.16,147.53,147.74,147.83,147.83,147.82,147.82,147.9,147.99,148.13,148.37,148.53,148.56,148.55,148.55,148.52,148.41,148.13,147.74,147.34,146.86,146.22,145.53,144.88,144.44,144.4,144.54,144.66,144.68,144.65,144.63,144.66,144.71,144.76,144.88,144.97,145.03,144.93,144.69,144.53,144.44,144.35,144.16,144.03,143.66,143.0,142.91,142.91,143.09,143.24,143.46,143.65,143.77,143.72,143.57,143.43,143.36,143.37,143.38,143.41,143.81,144.49,144.94,145.08,145.38,145.9,146.43,146.84,147.16,147.35,147.58,147.72,147.85,148.07,148.41,148.69,148.8,148.9,149.21,149.59,149.86,149.91,149.96,150.08,150.15,150.19,150.26,150.34,150.63,150.99,150.74,150.46,151.28,152.47,152.72,152.93,152.99,152.94,152.77,152.57,152.47,152.49,152.37,151.91,151.52,151.51,151.3,151.11,150.9,150.63,150.37,150.54,150.66,150.31,150.16,149.77,149.51,149.65,149.79,149.87,149.93,150.0,150.07,150.15,150.07,150.0,149.94,150.08,150.13,150.26,150.11,149.71,149.3,149.06,148.83,148.74,148.61,148.43,148.26,148.13,148.18,148.19,147.91,147.79,147.69,147.84,148.11,148.88,149.8,149.85,150.09,150.38,150.6,150.71,150.8,150.86,150.9,151.12,151.32,151.38,151.38,151.36,151.25,151.07,150.88,150.68,150.36,150.02,149.81,149.69,149.56,149.27,148.96,148.6,148.29,148.07,147.77,147.05,145.93,145.13,144.94,144.91,144.93,144.69,144.18,143.76,143.4,143.33,142.87,142.57,142.05,141.56,141.36,141.19,141.13,140.97,140.71,140.35,139.91,139.74,139.5,139.08,138.75,138.51,138.57,139.01,139.08,138.83,138.69,138.52,138.3,138.09,137.97,137.94,137.94,137.94,138.19,138.76,139.22,139.81,140.16,140.41,140.68,140.83,141.13,141.53,141.83,141.96,142.19,142.29,142.04,141.71,141.24,140.58,139.79,139.0,138.22,137.44,136.82,136.57,136.63,136.76,136.71,136.51,136.51,136.8,137.08,137.3,137.47,137.66,137.76,137.9,138.06,138.5,139.38,139.96,139.97,140.18,140.35,140.51,140.54,140.51,140.3,139.86,139.86,140.12,140.55,140.84,141.63,141.76,141.83,141.81,142.08,142.21,142.47,142.78,143.13,143.34,143.84,144.53,144.77,145.05,144.97,144.88,144.41,143.24,142.88,142.37,142.25,142.31,142.46,142.69,142.84,143.02,143.33,143.83,144.43,144.22,143.13,142.66,142.05,141.43,141.82,141.88,142.04,142.18,142.16,142.05,141.97,142.16,142.56,142.83,143.03,143.06,142.56,142.24,141.77,141.72,141.66,141.41,141.18,140.97,140.0,139.24,138.41,137.72,137.25,136.75,136.18,135.94,135.96,136.15,136.41,136.8,137.16,137.22,137.11,136.97,136.69,136.43,136.26,136.01,135.63,135.35,135.19,135.02,134.81,134.34,133.4,131.97,130.59,129.38,128.38,127.99,127.36,126.95,126.35,125.89,125.34,124.77,124.27,123.81,123.39,123.07,122.77,122.44,122.13,122.01,121.95,121.81,121.51,121.33,121.05,120.49,119.85,119.05,118.37,117.94,117.73,117.18,115.93,114.43,113.96,114.74,115.71,116.43,116.27,116.51,116.75,116.99,117.43,119.25,122.17,124.87,126.78,127.23,128.22,128.6,128.82,129.33,129.69,129.62,129.63,130.57,132.69,135.29,137.88,139.16,140.72,141.25,141.11,140.19,139.69,140.31,141.69,143.38,144.28,145.51,146.27,147.57,150.43,152.06,153.44,153.83,154.19,154.86,155.8,155.97,155.9,154.94,153.72,153.21,152.76,152.03,151.79,151.79,151.87,151.79,151.46,151.29,151.1,150.91,150.57,149.72,148.38,147.56,146.94,146.27,145.97,146.28,146.53,146.46,147.16,147.12,146.27,145.82,145.84,146.06,146.44,147.0,147.51,148.63,149.85,150.11,150.15,151.76,153.34,154.79,155.72,158.36,158.24,157.81,157.72,157.6,157.52,157.31,156.97,156.86,157.03,157.26,157.43,157.61,157.32,156.46,155.4,156.54,158.8,160.84,161.59,161.16,160.01,158.5,157.35,152.77,149.97,148.09,146.88,146.31,145.71,144.75,143.24,142.32,139.1,137.35,136.11,134.72,133.61,129.94,125.85,123.76,116.96,111.81,109.49,105.21,101.41,95.74,94.17,93.54,91.06,86.19,83.11,88.61,88.67,88.75,87.22,84.66,83.46,81.3,81.11,83.44,85.82,90.17,96.09,99.51,104.61,102.94,101.64,100.84,97.34,91.46,88.88,84.51,84.56,84.75,85.52,87.49,89.83,92.63,97.79,106.87,115.91,124.49,123.13,113.75,112.14,109.32,104.8,94.81,80.03,78.09,76.73,79.2,88.1,96.78,115.6,139.87,160.93,153.36,154.88,153.28,155.76,170.93,230.16,329.78,16.01,16.05,11.74,19.11,25.44,22.33,12.48,9.94,7.68,8.17,10.63,12.5,15.17,17.01,19.55,22.62,25.2,26.75,24.3,18.32,12.5,9.11,0.83,357.73,354.82,355.2,353.36,352.78,352.23,352.49,353.5,352.79,351.74,349.29,348.05,347.35,347.75,348.45,349.84,351.16,352.42,354.42,355.67,357.85,358.97,359.71,359.83,0.21,0.18,359.59,358.5,357.3,356.09,354.65,352.64,350.72,348.98,349.14,348.3,347.79,347.6,347.25,347.25,346.48,345.62,344.08,342.61,341.2,339.83,338.53,337.27,336.05,334.32,332.45,330.52,328.54,326.44,324.2,321.85,319.35,317.67,317.29,316.92,316.56,316.45,316.52,317.35,318.2,318.83,319.14,318.08,316.7,315.49,315.01,314.55,315.47,316.64,318.18,319.43,320.11,320.76,321.39,321.68,321.81,322.01,322.45,323.2,323.97,324.69,325.37,326.44,328.41,329.32,330.09,330.72,330.98,330.6,330.07,329.56,329.07,328.6,328.09,327.52,326.45,327.25,328.3,328.34,327.75,327.14,326.55,325.94,325.39,325.56,325.38,325.76,325.95,326.39,326.75,326.87,326.61,326.32,326.18,326.14,325.97,325.24,324.68,324.11,322.39,321.02,316.45,313.2,311.37,310.58,307.91,306.37,303.05,301.69,301.27,300.64,300.05,299.94,299.88,299.86,299.05,298.11,298.14,298.12,298.16,298.2,298.58,298.7,298.75,298.56,298.32,298.14,299.33,301.82,305.35,306.02,306.11,306.2,306.29,306.48,306.69,307.16,307.87,309.45,310.76,311.64,312.25,312.63,312.95,312.95,312.77,312.26,313.81,314.77,314.25,314.18,314.04,313.86,314.07,314.01,313.64,313.26,312.82,311.14,311.11,311.13,311.73,312.44,313.12,314.07,314.2,314.7,314.77,314.86,315.3,315.27,315.36,315.64,315.97,316.0,316.23,316.64,317.41,318.49,319.63,320.75,321.63,322.42,322.79,322.73,323.07,323.41,323.58,323.64,323.81,324.04,324.13,324.07,324.05,324.18,324.42,324.67,325.04,325.25,325.36,325.64,326.08,326.64,327.19,327.44,327.58,327.79,328.01</t>
+          <t>182.8,183.6,183.7,183.7,184.5,184.2,184.1,183.3,183.5,183.5,181.2,181.3,181.6,181.7,182.0,181.8,183.1,183.1,181.5,181.9,182.3,182.7,183.8,185.2,185.6,185.0,182.1,181.9,182.0,182.5,181.8,182.6,183.3,183.5,183.4,184.0,184.5,185.2,186.0,186.8,186.3,186.6,187.0,187.5,187.6,188.4,189.3,189.2,190.0,191.0,191.5,191.3,192.8,193.3,193.8,194.6,194.6,195.5,195.7,195.9,196.0,195.8,196.1,195.8,196.8,198.0,197.9,198.8,199.5,199.6,199.1,198.4,198.7,199.0,189.0,200.3,202.0,201.8,201.4,201.1,200.8,199.6,199.6,200.0,199.5,199.5,199.0,201.8,204.8,207.7,208.3,206.7,206.8,206.8,206.9,206.0,206.4,207.9,207.5,208.5,209.5,208.0,208.2,207.9,208.0,208.1,208.9,209.8,210.1,210.0,211.2,211.3,211.0,210.0,209.4,208.8,207.4,205.9,205.2,204.1,203.0,202.6,202.0,199.3,196.7,198.8,203.6,208.4,212.3,211.5,213.6,215.3,217.0,218.7,220.4,222.2,222.7,223.9,224.0,226.3,233.1,244.1,253.0,256.39,257.7,255.0,255.8,243.8,244.7,249.1,249.1,253.8,258.6,263.3,268.0,272.8,279.3,279.3,285.8,289.0,292.2,296.1,300.1,304.0,305.39,306.8,303.8,298.3,295.3,299.39,303.5,307.6,311.8,313.7,324.6,306.7,305.3,303.7,302.3,300.3,299.5,297.8,296.2,294.6,293.1,231.6,291.6,290.1,288.6,287.0,285.5,284.0,284.0,282.7,281.39,280.1,278.7,277.39,277.6,289.0,297.8,299.0,302.2,306.5,310.8,314.1,312.0,272.8,272.8,283.0,285.6,278.1,278.5,279.1,279.39,282.7,281.89,283.3,282.89,283.89,285.39,286.8,287.6,287.3,289.8,292.1,295.2,294.39,293.2,294.5,293.5,292.6,292.1,291.6,291.1,290.6,291.2,291.5,293.89,294.2,295.1,296.89,297.0,297.3,298.0,299.1,298.89,298.6,300.5,300.5,302.2,305.0,305.39,306.0,303.8,301.7,300.0,302.39,302.39,301.89,301.8,304.7,305.89,305.8,302.7,299.6,300.2,300.7,300.5,302.0,302.39,303.39,304.3,304.7,309.0,315.3,312.1,316.5,318.5,320.6,320.6,321.5,326.6,324.5,326.39,326.1,326.0,326.7,327.1,328.3,329.4,330.6,331.7,332.0,333.0,332.7,332.8,332.6,332.7,332.4,332.5,338.4,332.3,332.6,332.1,331.7,331.2,330.2,331.1,331.3,331.5,331.6,331.8,330.3,331.0,331.3,330.8,330.7,330.2,329.7,329.9,329.5,330.1,329.7,329.3,328.8,328.4,328.2,328.0,328.7,328.6,327.7,327.6,325.5,325.3,325.2,325.1,325.1,325.5,325.5,325.39,325.39,325.3,324.3,325.0,325.0,323.8,325.3,323.3,323.2,323.6,323.1,323.39,324.0,324.89,324.8,325.2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>75.2,75.2,75.3,75.31,75.36,75.41,76.02,76.09,76.16,76.23,76.25,76.28,76.27,76.29,76.31,76.33,76.34,76.37,76.37,76.37,76.37,76.37,76.38,76.39,76.44,76.48,76.5,76.51,76.52,76.54,76.55,76.56,76.58,76.56,76.56,76.56,76.61,76.64,76.87,76.9,76.94,76.94,76.95,76.95,76.97,76.98,76.98,77.0,77.0,77.0,77.01,77.01,77.02,77.03,77.03,77.04,77.04,77.04,77.05,77.05,77.06,77.06,77.15,77.15,77.16,77.16,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.23,77.31,77.4,77.43,77.45,77.47,77.48,77.48,77.52,77.53,77.55,77.56,77.59,77.61,77.63,77.65,77.67,77.69,77.7,77.72,77.75,77.78,77.81,77.81,77.83,77.84,77.84,77.84,77.87,77.94,78.03,78.09,78.15,78.2,78.26,78.33,78.4,78.44,78.45,78.47,78.47,78.45,78.44,78.43,78.43,78.42,78.42,78.4,78.4,78.39,78.38,78.38,78.37,78.37,78.36,78.34,78.33,78.31,78.31,78.31,78.31,78.3,78.29,78.28,78.27,78.27,78.26,78.25,78.23,78.23,78.2,78.2,78.19,78.18,78.18,78.16,78.14,78.13,78.13,78.12,78.11,78.09,78.09,78.06,78.05,78.04,78.03,78.01,78.0,77.98,78.11,78.23,78.28,78.33,78.37,78.43,78.5,78.66,78.69,78.73,78.76,78.76,78.76,78.69,78.65,78.59,78.59,78.58,78.58,78.62,78.66,78.76,78.76,78.77,78.77,78.73,78.72,78.68,78.67,78.66,78.59,78.58,78.56,78.56,78.58,78.58,78.58,78.44,78.33,78.2,78.23,78.28,78.31,78.34,78.31,78.27,78.26,78.25,78.23,78.2,78.17,77.94,77.79,77.65,77.63,77.61,77.59,77.42,77.3,77.18,77.18,77.19,77.29,77.39,77.48,77.48,77.51,77.55,77.59,77.63,77.76,77.9,77.98,78.06,78.13,78.14,78.15,78.09,78.02,77.95,77.91,77.88,77.86,77.84,77.81,77.8,77.78,77.77,77.79,77.81,77.83,77.84,77.88,77.9,77.92,77.97,78.02,78.11,78.17,78.23,78.31,78.38,78.4,78.38,78.41,78.45,78.48,78.51,78.54,78.56,78.59,78.59,78.61,78.58,78.62,78.68,78.75,78.81,78.86,78.88,78.9,78.89,78.88,78.87,78.84,78.81,78.81,78.83,78.84,78.87,78.93,79.0,79.06,79.12,79.17,79.22,79.28,79.3,79.31,79.31,79.37,79.41,79.44,79.44,79.47,79.5,79.54,79.58,79.62,79.64,79.61,79.58,79.59,79.62,79.62,79.61,79.59,79.59,79.61,79.62,79.63,79.64,79.66,79.67,79.7,79.79,79.92,80.03,80.09,80.18,80.25,80.26,80.26,80.28,80.31,80.33,80.34,80.36,80.38,80.39,80.41,80.45,80.5,80.54,80.55,80.56,80.61,80.66,80.67,80.69,80.8,80.95,81.04,81.05,81.06,81.12,80.98,80.95,80.93,80.92,80.91,80.9,80.88,80.84,80.81,80.76,80.73,80.72,80.7,80.67,80.61,80.58,80.56,80.53,80.48,80.42,80.33,80.28,80.29,80.31,80.34,80.34,80.34,80.36,80.36,80.38,80.41,80.44,80.45,80.45,80.43,80.43,80.44,80.45,80.48,80.45,80.44,80.45,80.48,80.5,80.59,80.7,80.79,80.87,80.95,81.05,81.12,81.15,81.18,81.18,81.2,81.18,81.19,81.2,81.2,81.23,81.25,81.25,81.23,81.25,81.27,81.33,81.39,81.43,81.47,81.48,81.5,81.52,81.51,81.51,81.53,81.55,81.54,81.51,81.48,81.45,81.41,81.38,81.4,81.39,81.36,81.34,81.36,81.37,81.41,81.47,81.51,81.48,81.48,81.52,81.56,81.59,81.64,81.67,81.7,81.7,81.7,81.72,81.73,81.76,81.83,81.89,81.94,81.98,82.04,82.1,82.17,82.25,82.26,82.24,82.18,82.16,82.19,82.26,82.31,82.31,82.33,82.34,82.38,82.39,82.41,82.43,82.59,82.67,82.75,82.84,82.91,82.97,83.01,83.02,83.04,83.05,83.05,83.04,83.03,83.04,83.1,83.16,83.2,83.24,83.28,83.34,83.4,83.45,83.49,83.53,83.55,83.55,83.56,83.6,83.6,83.57,83.56,83.57,83.62,83.66,83.69,83.69,83.7,83.73,83.74,83.74,83.78,83.8,83.78,83.76,83.74,83.72,83.68,83.65,83.63,83.6,83.55,83.5,83.45,83.41,83.36,83.3,83.23,83.2,83.18,83.17,83.16,83.17,83.17,83.13,83.1,83.03,83.04,83.06,83.07,83.08,83.11,83.14,83.12,83.11,83.11,83.11,83.11,83.11,83.12,83.15,83.19,83.21,83.24,83.26,83.21,83.21,83.22,83.2,83.19,83.2,83.28,83.36,83.45,83.56,83.56,83.56,83.55,83.56,83.56,83.58,83.65,83.77,83.9,84.1,84.23,84.36,84.47,84.51,84.56,84.55,84.54,84.53,84.5,84.45,84.42,84.43,84.46,84.5,84.55,84.59,84.64,84.66,84.72,84.74,84.78,84.79,84.81,84.92,85.01,85.05,85.15,85.21,85.24,85.25,85.23,85.22,85.21,85.19,85.2,85.22,85.25,85.28,85.3,85.34,85.39,85.5,85.58,85.68,85.8,85.9,85.98,86.05,86.12,86.18,86.24,86.29,86.34,86.39,86.45,86.51,86.52,86.52,86.51,86.5,86.52,86.55,86.48,86.52,86.66,86.7,86.74,86.76,86.77,86.79,86.8,86.81,86.83,86.86,86.89,86.92,86.96,86.99,87.01,87.02,87.02,87.0,87.01,87.07,87.15,87.17,87.19,87.2,87.19,87.16,87.17,87.16,87.15,87.14,87.12,87.09,87.06,87.04,87.02,87.03,87.06,87.11,87.16,87.21,87.26,87.29,87.29,87.29,87.29,87.29,87.29,87.28,87.28,87.28,87.28,87.28,87.29,87.33,87.37,87.39,87.44,87.55,87.67,87.73,87.75,87.82,87.86,87.84,87.88,87.92,87.97,87.99,88.02,88.06,88.09,88.15,88.19,88.2,88.2,88.21,88.22,88.24,88.26,88.27,88.27,88.26,88.27,88.31,88.35,88.37,88.39,88.4,88.4,88.42,88.44,88.44,88.47,88.5,88.53,88.52,88.49,88.47,88.43,88.39,88.35,88.35,88.31,88.28,88.28,88.26,88.25,88.27,88.32,88.45,88.49,88.5,88.5,88.51,88.52,88.53,88.56,88.63,88.64,88.67,88.67,88.66,88.66,88.66,88.66,88.7,88.75,88.74,88.72,88.71,88.72,88.74,88.75,88.79,88.81,88.85,88.9,88.92,88.94,88.97,89.0,89.01,89.06,89.1,89.14,89.19,89.26,89.3,89.34,89.35,89.41,89.44,89.45,89.46,89.46,89.46,89.44,89.43,89.41,89.4,89.4,89.4,89.4,89.42,89.42,89.4,89.38,89.36,89.33,89.34,89.35,89.38,89.43,89.45,89.44,89.43,89.4,89.41,89.44,89.46,89.46,89.44,89.5,89.58,89.64,89.67,89.7,89.73,89.74,89.75,89.74,89.73,89.65,89.61,89.6,89.61,89.71,89.79,89.81,89.79,89.78,89.79,89.83,89.85,89.86,89.85,89.82,89.77,89.71,89.72,89.8,89.89,89.95,89.98,89.95,89.93,89.86,89.8,89.76,89.72,89.67,89.64,89.59,89.53,89.46,89.43,89.38,89.38,89.41,89.41,89.39,89.36,89.33,89.3,89.26,89.23,89.13,89.1,89.07,89.04,89.03,89.03,89.0,88.97,88.93,88.9,88.88,88.77,88.69,88.63,88.6,88.56,88.53,88.49,88.45,88.41,88.41,88.45,88.47,88.46,88.43,88.4,88.38,88.38,88.41,88.41,88.42,88.42,88.38,88.34,88.29,88.25,88.23,88.2,88.17,88.14,88.15,88.17,88.19,88.15,88.12,88.08,88.04,88.0,87.96,87.92,88.0,88.08,88.15,88.2,88.25,88.3,88.35,88.4,88.41,88.39,88.37,88.35,88.32,88.3,88.27,88.24,88.21,88.18,88.17,88.16,88.13,88.08,88.03,87.99,87.94,87.87,87.81,87.79,87.78,87.77,87.75,87.75,87.75,87.72,87.64,87.57,87.49,87.41,87.32,87.13,87.06,87.07,87.07,87.06,87.05,87.03,87.02,87.05,87.09,87.11,87.13,87.22,87.24,87.17,87.12,87.13,87.14,87.15,87.17,87.19,87.17,87.15,87.15,87.14,87.15,87.16,87.16,87.16,87.15,87.15,87.15,87.14,87.16,87.18,87.2,87.19,87.21,87.25,87.26,87.24,87.22,87.2,87.19,87.21,87.25,87.26,87.2,87.14,87.12,87.1,87.1,87.11,87.11,87.11,87.11,87.11,87.11,87.11,87.11,87.09,87.04,86.97,86.91,86.85,86.81,86.76,86.76,86.75,86.75,86.74,86.67,86.52,86.36,86.22,86.06,85.99,85.95,85.93,85.92,85.92,85.91,85.91,85.85,85.8,85.74,85.69,85.65,85.62,85.64,85.63,85.63,85.6,85.57,85.53,85.6,85.66,85.6,85.52,85.58,85.56,85.55,85.55,85.56,85.56,85.53,85.5,85.5,85.5,85.5,85.47,85.47,85.46,85.44,85.4,85.32,85.25,85.24,85.25,85.25,85.22,85.2,85.08,84.98,84.95,84.95,84.92,84.91,84.89,84.89,84.9,84.89,84.89,84.87,84.86,84.85,84.84,84.83,84.78,84.72,84.65,84.62,84.62,84.62,84.61</t>
+          <t>86.6,86.7,86.7,86.8,86.8,87.0,87.0,87.1,87.1,87.2,87.2,87.2,87.2,87.2,87.2,87.2,87.2,87.1,87.1,87.1,87.1,87.1,87.0,87.1,87.0,87.1,87.1,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.1,87.0,87.1,87.1,87.1,87.1,87.1,87.1,87.1,87.0,87.1,87.1,87.1,87.0,87.0,87.1,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.1,87.1,87.1,87.1,87.2,87.2,87.2,87.3,87.4,87.5,87.5,87.5,87.5,87.6,87.6,87.6,87.8,87.9,87.8,87.8,87.7,87.7,87.8,87.7,87.8,87.9,87.9,88.0,88.0,88.0,88.1,88.1,88.1,88.1,88.1,88.2,88.2,88.2,88.3,88.3,88.4,88.5,88.5,88.5,88.5,88.6,88.6,88.7,88.7,88.7,88.8,88.9,89.0,89.0,88.9,88.8,89.0,89.0,89.0,89.1,89.1,89.1,89.1,89.1,89.1,89.2,89.2,89.2,89.2,89.2,89.4,89.5,89.5,89.5,89.5,89.5,89.5,89.6,89.5,89.5,89.4,89.5,89.5,89.5,89.4,89.4,89.4,89.5,89.4,89.5,89.5,89.5,89.5,89.5,89.6,89.6,89.6,89.6,89.6,89.6,89.5,89.5,89.4,89.3,89.3,89.3,89.3,89.4,89.4,89.4,89.5,89.5,89.5,89.1,89.1,89.0,89.0,89.0,89.0,89.0,89.0,88.9,88.9,88.8,88.8,88.8,88.8,88.8,88.7,88.7,89.6,89.0,89.6,89.5,89.4,89.4,89.3,89.4,88.8,88.2,88.7,88.7,88.7,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.5,88.5,88.5,88.5,88.4,88.4,88.3,88.3,88.3,88.2,88.2,88.2,88.2,88.2,88.3,88.3,88.2,88.2,88.2,88.2,88.2,88.3,88.3,88.3,88.3,88.2,88.2,88.3,88.3,88.3,88.3,88.4,88.4,88.4,88.3,88.3,88.3,88.3,88.3,88.3,88.2,88.2,88.1,88.1,88.0,88.0,88.0,88.0,88.0,88.0,88.0,88.0,88.0,88.0,87.9,87.9,87.8,87.8,87.8,87.7,87.7,87.6,87.4,87.4,87.3,87.3,87.2,87.0,86.9,86.8,86.8,86.7,86.7,86.6,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.4,86.4,86.4,86.4,86.5,86.5,86.5,86.4,86.4,86.4,86.4,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.2,86.2,86.1,86.09,86.09,86.1,86.1,86.0,86.0,86.0,86.0,86.4,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1970-01-01</t>
+          <t>1954-04-20</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1973-03-16</t>
+          <t>1955-04-14</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>np_03sound.dat_converted.csv</t>
+          <t>np_19sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-20999-0-np03sound</t>
+          <t>0-20999-0-np19sound</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>np03sound</t>
+          <t>np19sound</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>182.8,183.6,183.7,183.7,184.5,184.2,184.1,183.3,183.5,183.5,181.2,181.3,181.6,181.7,182.0,181.8,183.1,183.1,181.5,181.9,182.3,182.7,183.8,185.2,185.6,185.0,182.1,181.9,182.0,182.5,181.8,182.6,183.3,183.5,183.4,184.0,184.5,185.2,186.0,186.8,186.3,186.6,187.0,187.5,187.6,188.4,189.3,189.2,190.0,191.0,191.5,191.3,192.8,193.3,193.8,194.6,194.6,195.5,195.7,195.9,196.0,195.8,196.1,195.8,196.8,198.0,197.9,198.8,199.5,199.6,199.1,198.4,198.7,199.0,189.0,200.3,202.0,201.8,201.4,201.1,200.8,199.6,199.6,200.0,199.5,199.5,199.0,201.8,204.8,207.7,208.3,206.7,206.8,206.8,206.9,206.0,206.4,207.9,207.5,208.5,209.5,208.0,208.2,207.9,208.0,208.1,208.9,209.8,210.1,210.0,211.2,211.3,211.0,210.0,209.4,208.8,207.4,205.9,205.2,204.1,203.0,202.6,202.0,199.3,196.7,198.8,203.6,208.4,212.3,211.5,213.6,215.3,217.0,218.7,220.4,222.2,222.7,223.9,224.0,226.3,233.1,244.1,253.0,256.39,257.7,255.0,255.8,243.8,244.7,249.1,249.1,253.8,258.6,263.3,268.0,272.8,279.3,279.3,285.8,289.0,292.2,296.1,300.1,304.0,305.39,306.8,303.8,298.3,295.3,299.39,303.5,307.6,311.8,313.7,324.6,306.7,305.3,303.7,302.3,300.3,299.5,297.8,296.2,294.6,293.1,231.6,291.6,290.1,288.6,287.0,285.5,284.0,284.0,282.7,281.39,280.1,278.7,277.39,277.6,289.0,297.8,299.0,302.2,306.5,310.8,314.1,312.0,272.8,272.8,283.0,285.6,278.1,278.5,279.1,279.39,282.7,281.89,283.3,282.89,283.89,285.39,286.8,287.6,287.3,289.8,292.1,295.2,294.39,293.2,294.5,293.5,292.6,292.1,291.6,291.1,290.6,291.2,291.5,293.89,294.2,295.1,296.89,297.0,297.3,298.0,299.1,298.89,298.6,300.5,300.5,302.2,305.0,305.39,306.0,303.8,301.7,300.0,302.39,302.39,301.89,301.8,304.7,305.89,305.8,302.7,299.6,300.2,300.7,300.5,302.0,302.39,303.39,304.3,304.7,309.0,315.3,312.1,316.5,318.5,320.6,320.6,321.5,326.6,324.5,326.39,326.1,326.0,326.7,327.1,328.3,329.4,330.6,331.7,332.0,333.0,332.7,332.8,332.6,332.7,332.4,332.5,338.4,332.3,332.6,332.1,331.7,331.2,330.2,331.1,331.3,331.5,331.6,331.8,330.3,331.0,331.3,330.8,330.7,330.2,329.7,329.9,329.5,330.1,329.7,329.3,328.8,328.4,328.2,328.0,328.7,328.6,327.7,327.6,325.5,325.3,325.2,325.1,325.1,325.5,325.5,325.39,325.39,325.3,324.3,325.0,325.0,323.8,325.3,323.3,323.2,323.6,323.1,323.39,324.0,324.89,324.8,325.2</t>
+          <t>158.69,158.8,158.9,158.94,158.86,158.79,155.91,155.69,155.44,155.21,155.28,155.34,155.55,155.57,155.6,155.58,155.57,155.55,155.5,155.44,155.36,155.37,155.38,155.38,155.3,155.08,155.02,154.91,154.88,154.83,154.83,154.82,154.8,154.72,154.63,154.56,154.16,153.79,152.27,152.05,151.83,151.78,151.72,151.69,151.55,151.47,151.4,151.37,151.34,151.31,151.26,151.21,151.12,151.07,151.02,150.99,150.96,150.93,150.84,150.8,150.75,150.72,149.82,149.79,149.76,149.68,149.63,149.59,149.56,149.52,149.47,149.46,149.43,149.49,149.41,149.37,148.88,148.55,148.19,147.88,147.56,147.24,147.03,146.82,146.35,146.27,146.19,146.11,146.01,145.91,145.88,145.86,145.83,145.74,145.65,145.56,145.5,145.44,144.84,144.52,144.19,144.04,143.69,143.31,142.91,142.69,142.63,142.58,142.56,142.54,142.51,142.5,142.5,142.46,142.36,142.21,142.26,142.32,142.38,142.41,142.47,142.51,142.56,142.68,142.74,142.8,142.85,142.88,142.93,143.0,143.06,143.19,143.26,143.33,143.38,143.41,143.47,143.54,143.66,143.83,143.85,143.9,143.94,144.01,144.09,144.19,144.34,144.38,144.47,144.51,144.56,144.71,144.78,144.86,144.9,144.94,145.0,145.07,145.13,145.24,145.27,145.3,145.33,145.37,145.41,145.22,145.56,145.88,145.87,145.84,145.82,146.07,146.32,147.12,147.25,147.38,147.51,147.63,147.76,148.13,148.27,148.4,148.34,148.28,148.21,148.1,147.97,147.68,147.65,147.62,147.59,147.62,147.65,147.69,147.69,147.68,147.5,147.38,147.28,147.29,147.3,147.31,147.32,147.55,147.65,147.75,147.63,147.53,147.41,147.5,147.57,147.63,147.83,148.01,148.19,148.53,148.86,151.09,151.87,152.63,152.61,152.57,152.54,153.41,154.04,154.66,154.65,154.63,154.22,153.82,153.46,153.4,153.33,153.16,153.0,152.83,151.69,150.51,149.93,149.31,148.79,148.62,148.44,148.44,148.44,148.44,148.37,148.37,148.61,148.84,149.07,149.33,149.79,150.19,150.27,150.36,150.43,150.55,150.84,151.19,151.56,151.81,152.06,152.28,152.37,152.44,152.47,152.28,152.12,152.06,151.85,151.63,151.41,151.21,150.99,150.77,150.36,149.74,149.13,148.71,148.44,147.97,147.15,146.31,145.49,145.03,144.91,144.94,144.97,145.33,145.9,146.22,146.54,146.66,146.62,146.81,147.16,147.53,147.74,147.83,147.83,147.82,147.82,147.9,147.99,148.13,148.37,148.53,148.56,148.55,148.55,148.52,148.41,148.13,147.74,147.34,146.86,146.22,145.53,144.88,144.44,144.4,144.54,144.66,144.68,144.65,144.63,144.66,144.71,144.76,144.88,144.97,145.03,144.93,144.69,144.53,144.44,144.35,144.16,144.03,143.66,143.0,142.91,142.91,143.09,143.24,143.46,143.65,143.77,143.72,143.57,143.43,143.36,143.37,143.38,143.41,143.81,144.49,144.94,145.08,145.38,145.9,146.43,146.84,147.16,147.35,147.58,147.72,147.85,148.07,148.41,148.69,148.8,148.9,149.21,149.59,149.86,149.91,149.96,150.08,150.15,150.19,150.26,150.34,150.63,150.99,150.74,150.46,151.28,152.47,152.72,152.93,152.99,152.94,152.77,152.57,152.47,152.49,152.37,151.91,151.52,151.51,151.3,151.11,150.9,150.63,150.37,150.54,150.66,150.31,150.16,149.77,149.51,149.65,149.79,149.87,149.93,150.0,150.07,150.15,150.07,150.0,149.94,150.08,150.13,150.26,150.11,149.71,149.3,149.06,148.83,148.74,148.61,148.43,148.26,148.13,148.18,148.19,147.91,147.79,147.69,147.84,148.11,148.88,149.8,149.85,150.09,150.38,150.6,150.71,150.8,150.86,150.9,151.12,151.32,151.38,151.38,151.36,151.25,151.07,150.88,150.68,150.36,150.02,149.81,149.69,149.56,149.27,148.96,148.6,148.29,148.07,147.77,147.05,145.93,145.13,144.94,144.91,144.93,144.69,144.18,143.76,143.4,143.33,142.87,142.57,142.05,141.56,141.36,141.19,141.13,140.97,140.71,140.35,139.91,139.74,139.5,139.08,138.75,138.51,138.57,139.01,139.08,138.83,138.69,138.52,138.3,138.09,137.97,137.94,137.94,137.94,138.19,138.76,139.22,139.81,140.16,140.41,140.68,140.83,141.13,141.53,141.83,141.96,142.19,142.29,142.04,141.71,141.24,140.58,139.79,139.0,138.22,137.44,136.82,136.57,136.63,136.76,136.71,136.51,136.51,136.8,137.08,137.3,137.47,137.66,137.76,137.9,138.06,138.5,139.38,139.96,139.97,140.18,140.35,140.51,140.54,140.51,140.3,139.86,139.86,140.12,140.55,140.84,141.63,141.76,141.83,141.81,142.08,142.21,142.47,142.78,143.13,143.34,143.84,144.53,144.77,145.05,144.97,144.88,144.41,143.24,142.88,142.37,142.25,142.31,142.46,142.69,142.84,143.02,143.33,143.83,144.43,144.22,143.13,142.66,142.05,141.43,141.82,141.88,142.04,142.18,142.16,142.05,141.97,142.16,142.56,142.83,143.03,143.06,142.56,142.24,141.77,141.72,141.66,141.41,141.18,140.97,140.0,139.24,138.41,137.72,137.25,136.75,136.18,135.94,135.96,136.15,136.41,136.8,137.16,137.22,137.11,136.97,136.69,136.43,136.26,136.01,135.63,135.35,135.19,135.02,134.81,134.34,133.4,131.97,130.59,129.38,128.38,127.99,127.36,126.95,126.35,125.89,125.34,124.77,124.27,123.81,123.39,123.07,122.77,122.44,122.13,122.01,121.95,121.81,121.51,121.33,121.05,120.49,119.85,119.05,118.37,117.94,117.73,117.18,115.93,114.43,113.96,114.74,115.71,116.43,116.27,116.51,116.75,116.99,117.43,119.25,122.17,124.87,126.78,127.23,128.22,128.6,128.82,129.33,129.69,129.62,129.63,130.57,132.69,135.29,137.88,139.16,140.72,141.25,141.11,140.19,139.69,140.31,141.69,143.38,144.28,145.51,146.27,147.57,150.43,152.06,153.44,153.83,154.19,154.86,155.8,155.97,155.9,154.94,153.72,153.21,152.76,152.03,151.79,151.79,151.87,151.79,151.46,151.29,151.1,150.91,150.57,149.72,148.38,147.56,146.94,146.27,145.97,146.28,146.53,146.46,147.16,147.12,146.27,145.82,145.84,146.06,146.44,147.0,147.51,148.63,149.85,150.11,150.15,151.76,153.34,154.79,155.72,158.36,158.24,157.81,157.72,157.6,157.52,157.31,156.97,156.86,157.03,157.26,157.43,157.61,157.32,156.46,155.4,156.54,158.8,160.84,161.59,161.16,160.01,158.5,157.35,152.77,149.97,148.09,146.88,146.31,145.71,144.75,143.24,142.32,139.1,137.35,136.11,134.72,133.61,129.94,125.85,123.76,116.96,111.81,109.49,105.21,101.41,95.74,94.17,93.54,91.06,86.19,83.11,88.61,88.67,88.75,87.22,84.66,83.46,81.3,81.11,83.44,85.82,90.17,96.09,99.51,104.61,102.94,101.64,100.84,97.34,91.46,88.88,84.51,84.56,84.75,85.52,87.49,89.83,92.63,97.79,106.87,115.91,124.49,123.13,113.75,112.14,109.32,104.8,94.81,80.03,78.09,76.73,79.2,88.1,96.78,115.6,139.87,160.93,153.36,154.88,153.28,155.76,170.93,230.16,329.78,16.01,16.05,11.74,19.11,25.44,22.33,12.48,9.94,7.68,8.17,10.63,12.5,15.17,17.01,19.55,22.62,25.2,26.75,24.3,18.32,12.5,9.11,0.83,357.73,354.82,355.2,353.36,352.78,352.23,352.49,353.5,352.79,351.74,349.29,348.05,347.35,347.75,348.45,349.84,351.16,352.42,354.42,355.67,357.85,358.97,359.71,359.83,0.21,0.18,359.59,358.5,357.3,356.09,354.65,352.64,350.72,348.98,349.14,348.3,347.79,347.6,347.25,347.25,346.48,345.62,344.08,342.61,341.2,339.83,338.53,337.27,336.05,334.32,332.45,330.52,328.54,326.44,324.2,321.85,319.35,317.67,317.29,316.92,316.56,316.45,316.52,317.35,318.2,318.83,319.14,318.08,316.7,315.49,315.01,314.55,315.47,316.64,318.18,319.43,320.11,320.76,321.39,321.68,321.81,322.01,322.45,323.2,323.97,324.69,325.37,326.44,328.41,329.32,330.09,330.72,330.98,330.6,330.07,329.56,329.07,328.6,328.09,327.52,326.45,327.25,328.3,328.34,327.75,327.14,326.55,325.94,325.39,325.56,325.38,325.76,325.95,326.39,326.75,326.87,326.61,326.32,326.18,326.14,325.97,325.24,324.68,324.11,322.39,321.02,316.45,313.2,311.37,310.58,307.91,306.37,303.05,301.69,301.27,300.64,300.05,299.94,299.88,299.86,299.05,298.11,298.14,298.12,298.16,298.2,298.58,298.7,298.75,298.56,298.32,298.14,299.33,301.82,305.35,306.02,306.11,306.2,306.29,306.48,306.69,307.16,307.87,309.45,310.76,311.64,312.25,312.63,312.95,312.95,312.77,312.26,313.81,314.77,314.25,314.18,314.04,313.86,314.07,314.01,313.64,313.26,312.82,311.14,311.11,311.13,311.73,312.44,313.12,314.07,314.2,314.7,314.77,314.86,315.3,315.27,315.36,315.64,315.97,316.0,316.23,316.64,317.41,318.49,319.63,320.75,321.63,322.42,322.79,322.73,323.07,323.41,323.58,323.64,323.81,324.04,324.13,324.07,324.05,324.18,324.42,324.67,325.04,325.25,325.36,325.64,326.08,326.64,327.19,327.44,327.58,327.79,328.01</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>86.6,86.7,86.7,86.8,86.8,87.0,87.0,87.1,87.1,87.2,87.2,87.2,87.2,87.2,87.2,87.2,87.2,87.1,87.1,87.1,87.1,87.1,87.0,87.1,87.0,87.1,87.1,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.1,87.0,87.1,87.1,87.1,87.1,87.1,87.1,87.1,87.0,87.1,87.1,87.1,87.0,87.0,87.1,87.0,87.0,87.0,87.0,87.0,87.0,87.0,87.1,87.1,87.1,87.1,87.2,87.2,87.2,87.3,87.4,87.5,87.5,87.5,87.5,87.6,87.6,87.6,87.8,87.9,87.8,87.8,87.7,87.7,87.8,87.7,87.8,87.9,87.9,88.0,88.0,88.0,88.1,88.1,88.1,88.1,88.1,88.2,88.2,88.2,88.3,88.3,88.4,88.5,88.5,88.5,88.5,88.6,88.6,88.7,88.7,88.7,88.8,88.9,89.0,89.0,88.9,88.8,89.0,89.0,89.0,89.1,89.1,89.1,89.1,89.1,89.1,89.2,89.2,89.2,89.2,89.2,89.4,89.5,89.5,89.5,89.5,89.5,89.5,89.6,89.5,89.5,89.4,89.5,89.5,89.5,89.4,89.4,89.4,89.5,89.4,89.5,89.5,89.5,89.5,89.5,89.6,89.6,89.6,89.6,89.6,89.6,89.5,89.5,89.4,89.3,89.3,89.3,89.3,89.4,89.4,89.4,89.5,89.5,89.5,89.1,89.1,89.0,89.0,89.0,89.0,89.0,89.0,88.9,88.9,88.8,88.8,88.8,88.8,88.8,88.7,88.7,89.6,89.0,89.6,89.5,89.4,89.4,89.3,89.4,88.8,88.2,88.7,88.7,88.7,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.6,88.5,88.5,88.5,88.5,88.4,88.4,88.3,88.3,88.3,88.2,88.2,88.2,88.2,88.2,88.3,88.3,88.2,88.2,88.2,88.2,88.2,88.3,88.3,88.3,88.3,88.2,88.2,88.3,88.3,88.3,88.3,88.4,88.4,88.4,88.3,88.3,88.3,88.3,88.3,88.3,88.2,88.2,88.1,88.1,88.0,88.0,88.0,88.0,88.0,88.0,88.0,88.0,88.0,88.0,87.9,87.9,87.8,87.8,87.8,87.7,87.7,87.6,87.4,87.4,87.3,87.3,87.2,87.0,86.9,86.8,86.8,86.7,86.7,86.6,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.5,86.4,86.4,86.4,86.4,86.5,86.5,86.5,86.4,86.4,86.4,86.4,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.3,86.2,86.2,86.1,86.09,86.09,86.1,86.1,86.0,86.0,86.0,86.0,86.4,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1,86.1</t>
+          <t>75.2,75.2,75.3,75.31,75.36,75.41,76.02,76.09,76.16,76.23,76.25,76.28,76.27,76.29,76.31,76.33,76.34,76.37,76.37,76.37,76.37,76.37,76.38,76.39,76.44,76.48,76.5,76.51,76.52,76.54,76.55,76.56,76.58,76.56,76.56,76.56,76.61,76.64,76.87,76.9,76.94,76.94,76.95,76.95,76.97,76.98,76.98,77.0,77.0,77.0,77.01,77.01,77.02,77.03,77.03,77.04,77.04,77.04,77.05,77.05,77.06,77.06,77.15,77.15,77.16,77.16,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.17,77.23,77.31,77.4,77.43,77.45,77.47,77.48,77.48,77.52,77.53,77.55,77.56,77.59,77.61,77.63,77.65,77.67,77.69,77.7,77.72,77.75,77.78,77.81,77.81,77.83,77.84,77.84,77.84,77.87,77.94,78.03,78.09,78.15,78.2,78.26,78.33,78.4,78.44,78.45,78.47,78.47,78.45,78.44,78.43,78.43,78.42,78.42,78.4,78.4,78.39,78.38,78.38,78.37,78.37,78.36,78.34,78.33,78.31,78.31,78.31,78.31,78.3,78.29,78.28,78.27,78.27,78.26,78.25,78.23,78.23,78.2,78.2,78.19,78.18,78.18,78.16,78.14,78.13,78.13,78.12,78.11,78.09,78.09,78.06,78.05,78.04,78.03,78.01,78.0,77.98,78.11,78.23,78.28,78.33,78.37,78.43,78.5,78.66,78.69,78.73,78.76,78.76,78.76,78.69,78.65,78.59,78.59,78.58,78.58,78.62,78.66,78.76,78.76,78.77,78.77,78.73,78.72,78.68,78.67,78.66,78.59,78.58,78.56,78.56,78.58,78.58,78.58,78.44,78.33,78.2,78.23,78.28,78.31,78.34,78.31,78.27,78.26,78.25,78.23,78.2,78.17,77.94,77.79,77.65,77.63,77.61,77.59,77.42,77.3,77.18,77.18,77.19,77.29,77.39,77.48,77.48,77.51,77.55,77.59,77.63,77.76,77.9,77.98,78.06,78.13,78.14,78.15,78.09,78.02,77.95,77.91,77.88,77.86,77.84,77.81,77.8,77.78,77.77,77.79,77.81,77.83,77.84,77.88,77.9,77.92,77.97,78.02,78.11,78.17,78.23,78.31,78.38,78.4,78.38,78.41,78.45,78.48,78.51,78.54,78.56,78.59,78.59,78.61,78.58,78.62,78.68,78.75,78.81,78.86,78.88,78.9,78.89,78.88,78.87,78.84,78.81,78.81,78.83,78.84,78.87,78.93,79.0,79.06,79.12,79.17,79.22,79.28,79.3,79.31,79.31,79.37,79.41,79.44,79.44,79.47,79.5,79.54,79.58,79.62,79.64,79.61,79.58,79.59,79.62,79.62,79.61,79.59,79.59,79.61,79.62,79.63,79.64,79.66,79.67,79.7,79.79,79.92,80.03,80.09,80.18,80.25,80.26,80.26,80.28,80.31,80.33,80.34,80.36,80.38,80.39,80.41,80.45,80.5,80.54,80.55,80.56,80.61,80.66,80.67,80.69,80.8,80.95,81.04,81.05,81.06,81.12,80.98,80.95,80.93,80.92,80.91,80.9,80.88,80.84,80.81,80.76,80.73,80.72,80.7,80.67,80.61,80.58,80.56,80.53,80.48,80.42,80.33,80.28,80.29,80.31,80.34,80.34,80.34,80.36,80.36,80.38,80.41,80.44,80.45,80.45,80.43,80.43,80.44,80.45,80.48,80.45,80.44,80.45,80.48,80.5,80.59,80.7,80.79,80.87,80.95,81.05,81.12,81.15,81.18,81.18,81.2,81.18,81.19,81.2,81.2,81.23,81.25,81.25,81.23,81.25,81.27,81.33,81.39,81.43,81.47,81.48,81.5,81.52,81.51,81.51,81.53,81.55,81.54,81.51,81.48,81.45,81.41,81.38,81.4,81.39,81.36,81.34,81.36,81.37,81.41,81.47,81.51,81.48,81.48,81.52,81.56,81.59,81.64,81.67,81.7,81.7,81.7,81.72,81.73,81.76,81.83,81.89,81.94,81.98,82.04,82.1,82.17,82.25,82.26,82.24,82.18,82.16,82.19,82.26,82.31,82.31,82.33,82.34,82.38,82.39,82.41,82.43,82.59,82.67,82.75,82.84,82.91,82.97,83.01,83.02,83.04,83.05,83.05,83.04,83.03,83.04,83.1,83.16,83.2,83.24,83.28,83.34,83.4,83.45,83.49,83.53,83.55,83.55,83.56,83.6,83.6,83.57,83.56,83.57,83.62,83.66,83.69,83.69,83.7,83.73,83.74,83.74,83.78,83.8,83.78,83.76,83.74,83.72,83.68,83.65,83.63,83.6,83.55,83.5,83.45,83.41,83.36,83.3,83.23,83.2,83.18,83.17,83.16,83.17,83.17,83.13,83.1,83.03,83.04,83.06,83.07,83.08,83.11,83.14,83.12,83.11,83.11,83.11,83.11,83.11,83.12,83.15,83.19,83.21,83.24,83.26,83.21,83.21,83.22,83.2,83.19,83.2,83.28,83.36,83.45,83.56,83.56,83.56,83.55,83.56,83.56,83.58,83.65,83.77,83.9,84.1,84.23,84.36,84.47,84.51,84.56,84.55,84.54,84.53,84.5,84.45,84.42,84.43,84.46,84.5,84.55,84.59,84.64,84.66,84.72,84.74,84.78,84.79,84.81,84.92,85.01,85.05,85.15,85.21,85.24,85.25,85.23,85.22,85.21,85.19,85.2,85.22,85.25,85.28,85.3,85.34,85.39,85.5,85.58,85.68,85.8,85.9,85.98,86.05,86.12,86.18,86.24,86.29,86.34,86.39,86.45,86.51,86.52,86.52,86.51,86.5,86.52,86.55,86.48,86.52,86.66,86.7,86.74,86.76,86.77,86.79,86.8,86.81,86.83,86.86,86.89,86.92,86.96,86.99,87.01,87.02,87.02,87.0,87.01,87.07,87.15,87.17,87.19,87.2,87.19,87.16,87.17,87.16,87.15,87.14,87.12,87.09,87.06,87.04,87.02,87.03,87.06,87.11,87.16,87.21,87.26,87.29,87.29,87.29,87.29,87.29,87.29,87.28,87.28,87.28,87.28,87.28,87.29,87.33,87.37,87.39,87.44,87.55,87.67,87.73,87.75,87.82,87.86,87.84,87.88,87.92,87.97,87.99,88.02,88.06,88.09,88.15,88.19,88.2,88.2,88.21,88.22,88.24,88.26,88.27,88.27,88.26,88.27,88.31,88.35,88.37,88.39,88.4,88.4,88.42,88.44,88.44,88.47,88.5,88.53,88.52,88.49,88.47,88.43,88.39,88.35,88.35,88.31,88.28,88.28,88.26,88.25,88.27,88.32,88.45,88.49,88.5,88.5,88.51,88.52,88.53,88.56,88.63,88.64,88.67,88.67,88.66,88.66,88.66,88.66,88.7,88.75,88.74,88.72,88.71,88.72,88.74,88.75,88.79,88.81,88.85,88.9,88.92,88.94,88.97,89.0,89.01,89.06,89.1,89.14,89.19,89.26,89.3,89.34,89.35,89.41,89.44,89.45,89.46,89.46,89.46,89.44,89.43,89.41,89.4,89.4,89.4,89.4,89.42,89.42,89.4,89.38,89.36,89.33,89.34,89.35,89.38,89.43,89.45,89.44,89.43,89.4,89.41,89.44,89.46,89.46,89.44,89.5,89.58,89.64,89.67,89.7,89.73,89.74,89.75,89.74,89.73,89.65,89.61,89.6,89.61,89.71,89.79,89.81,89.79,89.78,89.79,89.83,89.85,89.86,89.85,89.82,89.77,89.71,89.72,89.8,89.89,89.95,89.98,89.95,89.93,89.86,89.8,89.76,89.72,89.67,89.64,89.59,89.53,89.46,89.43,89.38,89.38,89.41,89.41,89.39,89.36,89.33,89.3,89.26,89.23,89.13,89.1,89.07,89.04,89.03,89.03,89.0,88.97,88.93,88.9,88.88,88.77,88.69,88.63,88.6,88.56,88.53,88.49,88.45,88.41,88.41,88.45,88.47,88.46,88.43,88.4,88.38,88.38,88.41,88.41,88.42,88.42,88.38,88.34,88.29,88.25,88.23,88.2,88.17,88.14,88.15,88.17,88.19,88.15,88.12,88.08,88.04,88.0,87.96,87.92,88.0,88.08,88.15,88.2,88.25,88.3,88.35,88.4,88.41,88.39,88.37,88.35,88.32,88.3,88.27,88.24,88.21,88.18,88.17,88.16,88.13,88.08,88.03,87.99,87.94,87.87,87.81,87.79,87.78,87.77,87.75,87.75,87.75,87.72,87.64,87.57,87.49,87.41,87.32,87.13,87.06,87.07,87.07,87.06,87.05,87.03,87.02,87.05,87.09,87.11,87.13,87.22,87.24,87.17,87.12,87.13,87.14,87.15,87.17,87.19,87.17,87.15,87.15,87.14,87.15,87.16,87.16,87.16,87.15,87.15,87.15,87.14,87.16,87.18,87.2,87.19,87.21,87.25,87.26,87.24,87.22,87.2,87.19,87.21,87.25,87.26,87.2,87.14,87.12,87.1,87.1,87.11,87.11,87.11,87.11,87.11,87.11,87.11,87.11,87.09,87.04,86.97,86.91,86.85,86.81,86.76,86.76,86.75,86.75,86.74,86.67,86.52,86.36,86.22,86.06,85.99,85.95,85.93,85.92,85.92,85.91,85.91,85.85,85.8,85.74,85.69,85.65,85.62,85.64,85.63,85.63,85.6,85.57,85.53,85.6,85.66,85.6,85.52,85.58,85.56,85.55,85.55,85.56,85.56,85.53,85.5,85.5,85.5,85.5,85.47,85.47,85.46,85.44,85.4,85.32,85.25,85.24,85.25,85.25,85.22,85.2,85.08,84.98,84.95,84.95,84.92,84.91,84.89,84.89,84.9,84.89,84.89,84.87,84.86,84.85,84.84,84.83,84.78,84.72,84.65,84.62,84.62,84.62,84.61</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1954-04-20</t>
+          <t>1970-01-01</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1955-04-14</t>
+          <t>1973-03-16</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>np_28sound.dat_converted.csv</t>
+          <t>np_07sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-20999-0-np28sound</t>
+          <t>0-20999-0-np07sound</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>np28sound</t>
+          <t>np07sound</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>167.05,166.94,166.99,167.04,167.46,167.66,168.09,168.31,168.51,168.71,169.01,169.31,169.49,169.66,169.72,169.79,169.89,169.98,169.79,169.59,169.32,169.05,169.01,168.97,169.04,169.1,169.09,169.09,169.03,168.97,168.84,168.7,168.5,168.29,168.08,167.86,167.66,167.45,167.25,167.05,166.9,166.75,166.64,166.54,166.45,166.36,166.26,166.17,166.08,165.98,166.05,166.11,166.38,166.65,166.69,166.72,166.65,166.59,166.64,166.69,166.57,166.45,166.22,165.99,166.05,165.86,165.68,165.47,165.27,165.43,165.6,165.91,166.22,166.59,166.64,166.68,166.7,166.73,166.46,166.27,166.09,165.93,165.78,165.69,165.64,165.67,165.5,165.32,164.75,164.18,163.69,163.03,162.83,162.63,162.44,162.37,162.28,162.32,162.35,162.5,162.66,162.87,163.19,163.32,163.38,163.44,163.49,163.53,163.52,163.51,163.41,163.31,163.15,163.0,162.86,162.72,162.54,162.37,162.22,162.09,162.04,161.88,161.74,161.6,161.5,161.57,161.65,161.65,161.65,161.44,161.25,160.87,160.49,160.38,160.27,160.44,160.63,160.74,160.85,160.97,161.09,161.29,161.49,161.59,161.69,161.69,161.71,161.72,161.78,161.83,161.9,161.97,161.96,161.85,161.83,161.87,161.91,161.88,161.87,161.81,161.75,161.75,161.75,161.8,161.84,161.88,161.94,162.13,162.33,162.72,164.25,165.55,165.76,166.19,166.5,166.82,167.07,167.33,167.58,167.84,168.05,168.25,168.38,168.52,168.54,168.5,168.24,167.85,167.86,167.86,167.86,167.82,167.78,167.77,167.7,167.63,167.42,167.38,167.34,167.37,167.55,167.66,167.7,167.72,167.74,167.76,167.79,167.91,168.04,168.18,168.32,168.4,168.47,168.52,168.57,168.55,168.2,167.87,167.38,167.26,167.01,167.28,167.55,167.54,167.52,167.49,167.46,167.31,167.15,166.99,166.83,166.83,166.83,167.03,167.35,166.87,166.71,166.56,166.41,166.33,166.26,166.36,166.47,166.7,166.93,167.11,167.3,167.38,167.47,167.5,167.67,167.86,167.81,167.76,167.78,167.8,167.94,168.08,168.17,168.27,168.28,168.3,168.31,168.32,168.32,168.25,168.02,167.95,167.82,167.72,167.63,167.56,167.5,167.35,167.2,167.02,166.84,166.8,166.73,166.7,166.59,166.04,166.06,166.13,166.17,166.22,166.27,166.32,166.33,166.33,166.28,166.24,166.29,166.35,166.77,167.02,167.55,167.78,168.01,168.29,168.57,168.84,169.09,169.07,168.97,168.87,168.89,168.91,168.98,169.05,169.14,169.48,169.74,170.05,170.11,170.22,170.22,170.23,170.24,170.26,170.28,170.3,170.28,170.27,170.34,170.42,170.38,170.34,170.26,170.18,169.97,169.88,169.98,170.09,170.13,170.18,170.06,169.94,169.77,169.6,169.47,169.34,169.36,169.37,169.44,169.56,169.15,168.93,168.61,168.28,168.07,167.79,167.85,167.91,167.99,168.07,168.07,168.06,168.01,168.11,168.3,168.27,168.25,168.2,168.18,168.15,168.13,168.11,168.12,168.14,168.15,168.16,168.21,168.26,168.48,169.06,169.04,169.0,169.01,169.02,169.12,169.21,169.35,169.48,169.54,169.6,169.57,169.53,169.47,169.41,169.34,168.45,168.27,168.09,167.92,167.71,167.5,167.4,167.31,167.3,167.29,167.28,167.26,167.55,167.55,167.54,167.52,167.5,167.46,167.42,167.32,167.38,167.44,167.75,168.07,168.26,168.45,168.47,168.38,168.88,169.1,169.15,169.21,169.22,169.24,169.26,169.28,169.29,169.3,169.3,169.31,169.32,169.33,169.34,169.3,169.11,168.98,168.73,168.47,168.31,168.15,168.08,168.01,167.97,167.92,167.91,167.9,167.88,167.87,167.85,167.82,167.78,167.7,167.69,167.67,167.72,167.8,167.87,167.97,168.08,168.18,168.29,168.36,168.44,168.5,168.56,168.6,168.86,169.18,169.22,169.3,169.34,169.37,169.26,169.16,169.01,168.87,168.74,168.61,168.43,168.25,168.04,167.82,167.71,167.6,167.8,167.89,168.06,168.24,168.46,168.67,168.89,169.1,169.09,168.87,168.65,168.52,168.38,168.37,168.41,168.43,168.46,168.51,168.47,168.43,168.32,168.21,168.08,167.95,167.76,167.58,167.33,167.09,166.85,166.62,166.45,166.12,166.01,165.99,166.06,166.14,166.24,166.34,166.68,167.03,167.28,167.54,167.58,167.62,167.6,167.58,167.54,167.56,167.74,167.78,167.77,167.76,167.69,167.62,167.44,167.27,167.02,166.77,166.52,166.27,166.08,165.89,165.8,165.47,161.59,161.41,161.36,161.27,161.24,161.22,161.29,161.37,161.57,161.77,161.97,162.16,162.22,162.27,161.83,161.38,160.71,159.66,159.29,159.35,159.43,159.63,159.84,160.21,160.59,160.85,161.12,161.28,161.44,161.72,162.0,162.28,162.56,162.62,162.57,162.81,162.97,163.1,163.21,163.27,163.34,163.38,163.44,164.32,164.76,165.1,165.43,165.62,166.3,166.88,167.14,167.11,167.06,167.03,166.99,167.03,167.07,166.99,166.92,166.7,166.48,166.17,165.87,165.51,165.16,164.71,163.69,164.02,164.28,164.52,164.76,164.86,164.96,164.94,164.93,164.89,164.85,164.84,164.82,164.74,164.67,164.45,163.22,161.63,161.27,161.26,161.24,161.18,161.12,160.58,160.03,159.55,159.07,159.01,158.96,158.97,158.97,158.78,158.06,157.91,158.16,158.09,157.94,157.6,157.28,157.13,156.97,156.79,156.61,156.25,155.9,155.52,155.15,154.66,154.18,153.61,152.74,152.66,152.58,152.35,152.13,151.88,151.65,151.44,151.25,151.02,150.79,150.47,150.13,149.75,149.35,149.15,149.22,149.57,149.62,149.85,150.08,150.55,151.03,151.19,151.37,151.28,151.19,151.52,151.85,152.11,152.38,152.72,154.38,156.19,156.47,157.02,157.22,157.41,157.36,157.31,157.59,157.87,158.77,159.69,160.3,160.93,161.25,161.57,162.06,163.53,164.5,164.76,164.84,164.93,164.83,164.74,164.51,164.29,164.45,164.6,165.23,165.87,166.22,166.58,166.62,166.54,165.87,165.66,165.61,165.56,165.48,165.4,165.14,164.87,164.55,164.22,164.14,164.05,163.97,163.9,163.63,162.94,162.84,162.69,162.66,162.6,162.69,162.8,162.72,162.65,162.5,162.36,162.31,162.27,162.32,162.38,162.57,162.75,163.07,164.15,164.57,165.52,166.04,166.45,166.87,167.13,167.39,167.53,167.67,167.76,167.84,168.05,168.25,168.8,169.36,169.87,170.72,171.43,171.66,171.6,171.53,171.34,171.15,171.03,171.08,171.12,171.14,171.16,171.01,170.78,170.23,170.05,169.7,169.19,168.68,168.0,167.32,166.74,166.15,165.91,165.66,165.59,165.52,165.6,165.68,165.79,166.0,166.22,166.34,166.54,166.74,167.06,167.38,167.83,168.73,169.18,169.55,169.93,170.3,170.66,170.99,171.92,172.62,172.73,172.83,172.93,173.07,173.2,173.18,173.15,173.02,172.88,172.64,172.4,172.24,172.08,172.16,172.53,173.1,173.94,174.05,174.28,174.05,173.82,173.74,173.66,173.73,173.8,173.83,173.85,173.67,173.49,173.62,173.75,174.13,174.49,175.06,175.4,175.66,175.93,175.8,175.67,175.6,175.53,175.85,176.16,176.64,177.12,177.51,177.9,178.04,178.18,178.17,179.05,179.65,179.82,180.0,180.0,179.99,180.15,180.31,180.27,180.23,180.09,179.95,179.87,179.79,179.71,179.5,179.38,179.27,179.3,179.35,179.38,179.42,179.83,180.25,180.81,181.37,181.74,182.11,182.21,182.31,182.39,182.46,182.75,183.89,184.1,184.02,183.69,183.58,183.73,183.88,184.64,185.39,186.22,187.03,187.35,187.67,187.53,186.54,185.43,185.81,186.53,187.29,187.39,187.5,187.26,187.02,186.36,185.8,185.23,184.48,183.39,183.16,182.71,182.75,182.8,183.4,184.02,184.5,185.0,184.67,184.32,183.86,183.39,183.23,183.07,182.98,182.13,179.69,179.42,179.79,181.21,184.27,186.23,187.28,188.32,188.56,188.8,188.83,188.87,188.86,188.74,187.12,186.05,184.4,182.67,181.46,180.23,180.13,180.03,180.38,180.73,180.86,180.98,180.97,180.97,181.09,181.34,181.17,180.99,180.88,180.8,180.72,180.64,180.55,180.46,180.36,180.26,180.16,180.05,179.94,180.11,180.29,180.44,179.44,177.66,177.0,176.96,176.91,176.3,175.62,174.54,173.38,173.12,172.85,173.43,174.04,175.43,176.83,178.76,183.07,184.03,187.45,189.98,192.29,194.53,196.81,199.07,202.25,205.39,209.9,214.05,220.79,223.95,230.83,234.7,235.9,238.14,238.7,239.21,237.92,235.94,235.21,234.4,233.66,233.43,233.23,233.46,233.67,235.91,237.21,238.13,239.03,239.62,240.18,241.0,241.81,242.15,242.49,242.45,242.4,242.01,241.34,240.96,242.45,243.19,243.92,244.63,245.53,246.43,247.56,248.69,249.34,249.99,250.11,250.22,250.48,250.73,251.07,251.48,251.3,251.2,251.21,251.23,251.42,251.6,251.65,251.71,251.34,250.95,250.28,250.0,250.53,251.05,252.08,252.94,250.55,249.9,249.46,249.03,248.8,248.57,248.61,248.64,248.68,248.72,248.78,248.84,249.02,249.21,249.29,249.22,249.12,249.19,249.36,249.53,249.92,250.31,251.37,252.45,253.99,255.57,257.33,259.14,260.62,262.12,263.11,266.12,267.92,268.14,268.58,268.69,268.79,268.83,268.87,269.7,270.54,271.47,272.42,272.81,273.2,274.12,275.08,277.66,278.19,279.14,279.58,279.91,280.25,280.81,281.39,282.23,283.08,284.3,285.54,286.54,287.55,287.81,288.06,287.73,286.12,284.69,284.45,284.51,284.56,284.72,284.87,285.05,285.23,284.68,284.13,283.8,283.47,283.41,283.35,283.29,283.12,282.69,281.2,280.95,280.44,280.33,280.24,280.14,280.04,280.57,281.11,281.88,282.64,283.3,283.95,284.7,285.45,285.7,286.62,288.83,289.63,290.32,291.02,291.85,292.7,293.47,294.23,294.45,294.67,295.3,295.93,296.82,297.74,298.29,296.6,295.92,295.82,295.72,296.13,296.52,297.11,297.14,297.19,296.81,296.41,295.8,295.18,295.05,297.74,300.05,301.39,301.74,302.38,303.02,304.33,305.64,306.73,307.81,308.7,309.6,310.48,311.37,312.42,313.45,314.93,320.07,324.7,325.72,326.56,327.37,328.51,329.63,330.74,331.83,333.01,334.18,335.03,335.88,336.17,336.46,336.39,336.47,338.17,338.87,339.65,340.41,341.24,342.05,342.88,343.7,344.54,345.36,346.34,347.3,348.3,349.29,349.92,351.65,353.14,353.5,354.22,354.99,355.75,356.41,357.06,357.61,358.16,358.34,358.52,358.42,358.32,357.71,357.11,356.02,352.93,352.77,352.87,352.92,353.06,353.19,353.15,353.1,352.95,352.8,352.68,352.57,352.62,352.91,353.43,354.02,354.38,354.59,354.78,354.7,354.62,354.62,354.62,354.9,355.17,355.5,355.82,355.94,356.07,356.22,357.2,357.37,357.33,357.36,357.41,357.45,357.49,357.46,357.43,357.29,357.15,356.83,356.52,356.13,355.74,355.34,354.94,354.51,353.48,353.36,353.41,353.44,353.48,353.43,353.37,353.2,353.03,352.8,352.58,352.44,352.3,352.29,352.28,352.25,352.06,352.1,352.19,352.41,352.63,352.68,352.67,352.63,352.66,352.7,352.69,352.68,352.5,352.31,352.09,351.3,350.4,350.31,350.13,350.24,350.35,350.46,350.58,350.61,350.64,350.63,350.62,350.43,350.24,350.45,351.13,353.2,354.65,355.01,355.22,355.43,355.74,356.05,356.46,356.86,357.18,357.49,357.66,357.83,357.99,358.14,358.35,358.91,359.47,359.67,359.52,359.36,359.59,359.81,0.12,0.43,0.5,0.56,0.56,0.56,0.61,0.64,0.7,0.9</t>
+          <t>196.28,196.29,196.15,195.94,195.85,195.76,195.73,195.78,195.9,196.08,196.34,196.58,196.7,196.81,196.93,197.07,197.21,197.35,197.5,197.63,197.75,198.01,198.03,198.05,198.07,198.09,198.13,198.16,198.19,198.23,198.28,198.33,198.39,198.44,198.31,198.17,198.04,197.9,197.66,197.42,197.18,196.69,196.45,196.2,195.95,195.8,195.65,195.49,195.34,195.33,195.32,195.31,195.38,195.45,195.52,195.59,195.65,195.72,195.78,195.85,195.59,195.34,195.09,194.83,194.54,194.25,193.96,193.66,193.36,193.05,192.78,192.5,192.3,192.11,191.91,191.71,191.51,191.3,191.1,190.89,190.68,190.47,190.3,190.12,189.92,189.71,189.5,189.28,189.06,188.84,188.62,188.39,188.16,187.93,187.69,187.45,187.23,187.0,186.72,186.44,186.42,186.41,186.12,185.81,184.89,183.95,182.99,182.03,182.33,182.65,183.59,184.57,185.18,185.81,185.52,185.22,184.31,183.37,182.68,181.98,181.02,180.04,178.38,177.54,175.05,173.38,172.75,172.13,171.6,171.08,170.35,169.62,169.59,169.57,169.93,170.32,170.34,170.35,169.82,169.28,168.58,167.86,167.32,166.76,166.3,165.82,165.54,165.25,165.36,165.47,165.22,164.98,164.66,164.35,163.75,163.15,162.61,162.07,161.91,161.75,161.78,161.82,162.65,163.46,164.74,165.95,166.29,166.63,166.2,165.77,165.54,165.32,165.39,165.47,165.96,166.44,166.95,167.44,167.89,168.35,168.73,169.12,169.83,170.57,171.52,172.49,173.35,174.2,174.93,175.63,175.65,175.68,175.59,175.5,175.57,175.64,176.23,176.82,177.48,178.13,178.81,179.48,180.14,181.35,181.92,182.38,182.86,183.22,183.58,184.29,184.98,185.48,185.96,186.11,186.26,186.26,186.27,186.43,186.59,187.05,187.51,187.91,188.31,189.03,189.76,189.87,189.98,189.59,189.11,189.02,188.89,188.76,189.22,189.66,190.77,191.85,192.53,193.21,193.38,193.55,193.62,193.68,193.68,193.69,193.66,193.64,193.61,193.58,193.35,193.12,193.13,193.14,193.76,194.04,194.33,194.61,195.18,195.75,197.01,197.2,197.38,197.56,197.87,198.63,199.39,202.08,202.08,202.22,202.37,201.77,201.68,201.59,201.51,201.5,201.83,202.15,202.47,203.96,204.37,204.79,204.5,204.2,203.89,202.99,203.09,203.18,203.28,204.11,204.33,204.56,204.79,205.27,205.45,205.63,205.68,205.73,205.79,205.81,205.77,205.76,205.78,205.8,205.81,205.88,205.95,205.88,205.85,205.82,205.78,205.84,205.99,206.14,206.29,207.0,207.14,207.28,207.27,207.27,207.27,207.13,207.37,207.61,207.85,208.51,208.58,208.66,208.74,208.86,209.16,209.46,209.58,209.7,209.81,209.91,209.94,209.96,209.99,210.0,210.03,210.06,210.09,210.11,210.14,210.04,210.05,210.06,210.07,210.25,210.28,210.31,210.34,210.23,210.18,210.26,210.34,210.97,211.12,211.28,211.45,211.14,210.92,210.69,210.47,210.11,209.75,209.78,209.8,209.82,209.84,209.86,209.88,209.9,209.92,209.94,209.96,209.67,209.38,209.44,209.5,209.56,209.62,209.67,209.73,209.93,210.13,210.31,210.48,210.65,210.82,210.99,211.16,211.54,211.91,211.94,211.96,211.98,212.0,212.14,212.28,212.35,212.42,212.56,212.63,212.7,212.84,213.44,214.05,214.11,214.18,214.24,214.31,214.37,214.44,214.47,214.51,214.6,214.69,214.78,214.87,214.96,215.05,215.07,215.09,215.11,215.13,215.08,215.03,215.04,215.06,215.07,215.09,215.1,215.12,215.27,215.42,215.64,215.87,216.11,216.34,216.58,216.83,217.67,218.53,218.93,219.32,219.52,219.72,220.12,220.34,220.56,220.79,221.02,221.25,221.48,222.35,222.4,222.42,222.44,222.46,222.48,222.52,222.54,222.56,222.61,222.78,222.97,223.34,223.47,223.6,223.86,223.99,224.12,224.38,224.51,224.65,224.91,224.96,225.02,225.12,225.1,225.08,225.04,225.02,225.0,224.96,224.96,224.96,224.96,224.99,225.02,225.08,225.13,225.18,225.23,225.29,225.34,225.83,226.32,226.49,226.65,226.81,226.98,227.14,227.3,227.61,227.91,228.2,228.49,229.24,229.96,230.37,230.79,231.2,231.61,232.02,232.44,233.01,233.58,233.64,233.71,233.77,233.84,233.9,233.97,233.75,233.53,233.52,233.51,233.5,233.49,233.48,233.47,233.68,233.9,234.11,234.33,235.01,235.72,235.9,236.08,236.25,236.43,236.61,236.8,237.09,237.39,237.57,237.75,237.84,237.93,238.12,238.3,238.49,239.59,240.73,241.37,242.0,242.64,243.29,243.3,243.31,243.32,243.34,243.35,243.36,243.22,243.07,243.51,243.94,244.36,244.79,245.21,245.62,247.08,248.5,248.73,248.96,249.19,249.42,249.64,249.86,250.16,250.47,251.08,251.31,251.55,251.67,251.78,252.02,252.09,252.16,252.29,252.43,252.56,252.7,252.83,253.68,254.53,254.94,255.35,255.75,256.14,256.55,256.95,256.95,256.97,256.02,255.07,254.11,253.16,252.2,251.25,250.98,250.72,250.45,250.19,250.15,250.12,250.15,250.18,250.21,250.23,250.26,250.29,250.02,249.74,251.73,253.77,255.84,257.95,260.11,262.29,268.7,275.14,275.5,275.86,276.58,277.32,278.05,278.8,279.55,280.33,281.12,281.89,282.69,283.45,284.2,284.44,284.68,284.79,284.91,285.14,285.26,285.37,285.61,285.29,284.97,284.36,284.36,284.45,284.55,284.74,284.87,285.0,285.25,285.38,285.5,285.75,285.85,285.95,286.14,286.35,286.54,286.74,286.93,287.04,287.14,286.95,286.77,286.6,286.42,286.25,286.07,285.36,284.66,284.73,284.8,284.86,284.93,285.0,285.07,285.48,285.91,286.33,286.76,286.99,287.23,287.27,287.32,287.36,287.41,287.45,287.49,288.52,289.55,289.67,289.79,290.02,290.14,290.27,290.51,290.64,290.76,291.0,291.16,291.32,291.64,291.49,291.41,291.33,291.26,291.18,291.24,291.3,291.35,291.41,292.41,293.41,293.63,293.86,294.08,294.31,294.54,294.77,296.27,297.77,298.36,298.93,299.51,300.08,300.64,301.22,301.36,301.5,301.26,301.01,300.77,300.54,300.52,300.51,300.49,300.47,300.45,300.44,300.89,301.33,301.35,301.36,301.37,301.37,301.39,301.41,301.22,301.02,300.82,300.62,300.42,300.2,300.01,299.81,299.22,298.62,297.45,297.23,297.01,296.57,296.14,295.74,295.87,295.99,296.11,296.23,296.33,296.45,297.0,297.52,297.5,297.48,297.48,297.47,297.45,297.43,297.42,297.33,297.23,297.13,297.02,296.93,296.83,296.72,296.6,296.48,296.36,296.49,296.37,296.39,296.42,296.45,296.47,296.5,296.52,297.52,297.45,297.39,297.33,297.26,297.2,297.13,297.12,297.1,297.08,297.08,297.11,297.13,297.19,297.13,297.07,296.95,296.89,296.83,296.73,296.67,296.62,296.5,296.48,296.45,296.41,296.42,296.44,296.45,296.47,296.48,296.49,296.5,296.38,296.33,296.27,296.17,296.12,296.06,295.95,295.94,295.93,295.92,295.89,295.88,295.89,295.89,295.92,295.93,295.95,295.98,296.0,296.0,296.0,296.01,296.02,296.05,296.07,296.08,296.1,296.33,296.58,296.73,296.88,296.95,297.02,297.18,297.17,297.16,297.14,297.13,297.11,297.07,297.02,296.98,296.94,296.95,297.0,297.02,297.08,297.14,297.22,297.29,297.32,297.33,297.37,297.39,297.45,297.48,297.5,297.58,297.67,297.76,297.83,297.85,297.86,297.87,297.88,297.81,297.79,297.82,297.89,297.91,297.92,297.8,297.67,297.58,297.5,297.42,297.41,297.39,297.38,297.37,297.38,297.39,297.42,297.44,297.45,297.48,297.5,297.49,297.47,297.41,297.63,297.85,298.07,298.29,298.91,299.52,300.14,300.75,302.23,302.95,303.67,304.2,304.74,305.27,305.8,305.95,306.12,306.27,306.43,306.48,306.52,306.56,306.61,306.64,306.7,306.74,306.79,307.23,307.66,308.08,308.52,309.41,310.29,311.16,312.02,312.75,313.48,314.2,314.95,315.01,315.07,315.13,315.2,314.97,314.76,314.54,314.32,314.27,314.2,314.16,314.1,314.08,314.05,314.02,314.01,314.3,314.45,314.6,315.18,315.75,316.31,316.87,317.58,318.3,319.0,319.7,320.23,320.74,321.26,321.77,322.27,322.77,323.27,323.76,324.17,324.58,324.98,325.8,325.7,325.89</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>81.7,81.69,81.69,81.69,81.73,81.75,81.78,81.79,81.79,81.78,81.77,81.76,81.75,81.73,81.7,81.67,81.66,81.65,81.66,81.67,81.66,81.66,81.67,81.67,81.7,81.73,81.73,81.76,81.76,81.76,81.77,81.79,81.81,81.84,81.89,81.93,81.95,81.97,81.99,82.01,82.04,82.06,82.07,82.09,82.08,82.07,82.06,82.04,82.02,82.01,82.0,81.99,81.96,81.93,81.9,81.88,81.84,81.83,81.79,81.76,81.73,81.7,81.65,81.61,81.56,81.55,81.54,81.54,81.54,81.55,81.56,81.56,81.58,81.56,81.56,81.58,81.58,81.58,81.55,81.54,81.53,81.52,81.52,81.53,81.55,81.56,81.56,81.56,81.59,81.63,81.63,81.61,81.59,81.55,81.5,81.47,81.44,81.43,81.42,81.42,81.41,81.4,81.38,81.37,81.34,81.33,81.31,81.3,81.29,81.29,81.28,81.28,81.26,81.23,81.22,81.19,81.17,81.15,81.14,81.13,81.13,81.13,81.13,81.13,81.09,81.09,81.06,81.05,81.04,81.02,81.0,80.95,80.92,80.89,80.86,80.87,80.88,80.93,80.98,81.01,81.04,81.05,81.06,81.06,81.08,81.06,81.06,81.06,81.06,81.06,81.06,81.08,81.09,81.11,81.08,81.06,81.06,81.05,81.04,81.02,81.01,80.98,80.95,80.93,80.91,80.93,80.94,81.02,81.09,81.15,81.28,81.3,81.3,81.29,81.29,81.29,81.28,81.26,81.23,81.19,81.16,81.12,81.09,81.06,81.06,81.05,81.0,80.9,80.86,80.84,80.81,80.81,80.8,80.8,80.83,80.86,80.89,80.88,80.88,80.88,80.86,80.86,80.86,80.88,80.89,80.91,80.93,80.93,80.94,80.95,80.95,80.95,80.97,80.97,80.98,80.98,81.06,81.12,81.06,81.05,81.0,81.04,81.08,81.12,81.16,81.22,81.28,81.31,81.37,81.43,81.5,81.56,81.64,81.67,81.73,81.81,81.84,81.86,81.87,81.88,81.88,81.89,81.9,81.91,81.91,81.91,81.92,81.92,81.93,81.93,81.95,81.97,81.96,81.94,81.93,81.92,81.92,81.92,81.94,81.96,81.98,82.01,82.03,82.05,82.07,82.12,82.18,82.2,82.25,82.3,82.35,82.39,82.43,82.46,82.48,82.5,82.51,82.51,82.52,82.52,82.53,82.52,82.37,82.3,82.24,82.18,82.12,82.05,81.99,81.94,81.89,81.84,81.81,81.79,81.76,81.75,81.75,81.75,81.76,81.75,81.73,81.67,81.53,81.45,81.42,81.38,81.38,81.37,81.37,81.37,81.38,81.34,81.31,81.27,81.26,81.23,81.19,81.16,81.12,81.08,81.05,81.02,81.01,81.01,80.98,80.97,80.94,80.92,80.91,80.91,80.93,80.93,80.92,80.91,80.91,80.92,80.92,80.92,80.9,80.89,80.87,80.84,80.84,80.81,80.87,80.88,80.87,80.89,80.89,80.89,80.86,80.8,80.79,80.79,80.8,80.81,80.84,80.86,80.88,80.88,80.87,80.87,80.87,80.88,80.87,80.86,80.86,80.86,80.86,80.87,80.87,80.87,80.87,80.87,80.87,80.88,80.87,80.87,80.84,80.84,80.84,80.83,80.83,80.83,80.83,80.83,80.84,80.86,80.88,80.9,80.92,81.06,81.09,81.11,81.12,81.13,81.13,81.13,81.13,81.12,81.12,81.12,81.12,81.2,81.23,81.27,81.31,81.34,81.36,81.37,81.38,81.37,81.36,81.38,81.39,81.43,81.47,81.51,81.61,81.64,81.64,81.65,81.66,81.67,81.67,81.68,81.68,81.69,81.7,81.72,81.73,81.75,81.77,81.78,81.84,81.84,81.84,81.84,81.84,81.87,81.89,81.91,81.93,81.95,81.96,81.99,82.02,82.05,82.08,82.12,82.21,82.43,82.66,82.68,82.72,82.61,82.5,82.39,82.33,82.27,82.31,82.35,82.44,82.52,82.6,82.68,82.73,82.9,82.92,82.9,82.88,82.74,82.61,82.45,82.29,82.2,82.12,82.07,82.03,81.99,81.95,81.93,81.9,81.9,81.91,81.93,81.93,81.93,81.92,81.89,81.86,81.84,81.81,81.81,81.81,81.81,81.81,81.81,81.81,81.84,81.87,81.88,81.92,81.94,81.97,82.01,82.05,82.1,82.14,82.18,82.22,82.23,82.24,82.24,82.23,82.22,82.21,82.21,82.22,82.23,82.24,82.26,82.28,82.29,82.3,82.3,82.31,82.3,82.3,82.29,82.28,82.27,82.27,82.29,82.3,82.31,82.33,82.33,82.34,82.35,82.37,82.39,82.41,82.43,82.46,82.49,82.52,82.56,82.69,84.04,84.07,84.08,84.09,84.11,84.13,84.16,84.19,84.22,84.26,84.28,84.31,84.33,84.36,84.37,84.37,84.36,84.33,84.32,84.34,84.37,84.4,84.44,84.47,84.5,84.51,84.51,84.54,84.57,84.59,84.6,84.61,84.62,84.66,84.72,84.72,84.74,84.77,84.81,84.82,84.83,84.81,84.79,84.81,84.83,84.84,84.85,84.86,84.9,84.93,84.94,84.94,84.93,84.92,84.91,84.89,84.86,84.83,84.8,84.79,84.78,84.8,84.81,84.84,84.86,84.87,84.85,84.81,84.82,84.86,84.9,84.95,85.0,85.04,85.08,85.11,85.15,85.17,85.19,85.2,85.22,85.24,85.33,85.37,85.37,85.37,85.37,85.4,85.43,85.45,85.48,85.46,85.44,85.42,85.39,85.42,85.44,85.44,85.33,85.26,85.17,85.15,85.1,85.05,85.01,84.96,84.91,84.87,84.84,84.8,84.76,84.72,84.67,84.62,84.56,84.49,84.31,84.26,84.26,84.23,84.21,84.18,84.14,84.12,84.1,84.09,84.07,84.06,84.04,84.02,84.0,83.98,83.97,83.99,83.98,84.0,84.01,84.04,84.06,84.06,84.06,84.04,84.03,84.04,84.06,84.06,84.06,84.09,84.22,84.32,84.33,84.35,84.38,84.41,84.43,84.44,84.45,84.45,84.5,84.55,84.62,84.7,84.75,84.8,84.85,84.99,85.04,85.04,85.05,85.06,85.08,85.09,85.1,85.1,85.12,85.14,85.18,85.22,85.27,85.32,85.37,85.5,85.55,85.56,85.56,85.57,85.59,85.61,85.64,85.68,85.7,85.72,85.73,85.75,85.77,85.79,85.82,85.89,85.91,85.93,85.93,85.93,85.94,85.94,85.95,85.96,85.98,86.01,86.03,86.06,86.07,86.09,86.1,86.11,86.11,86.11,86.09,86.06,86.04,86.03,86.02,86.02,86.02,86.02,86.03,86.03,86.04,86.04,86.05,86.05,86.05,86.05,86.06,86.17,86.22,86.26,86.3,86.31,86.31,86.3,86.29,86.28,86.28,86.27,86.29,86.32,86.34,86.34,86.33,86.32,86.32,86.33,86.34,86.39,86.45,86.51,86.58,86.61,86.64,86.64,86.65,86.65,86.64,86.63,86.63,86.63,86.63,86.64,86.64,86.66,86.69,86.7,86.71,86.71,86.71,86.71,86.7,86.7,86.7,86.7,86.69,86.68,86.64,86.61,86.58,86.55,86.53,86.5,86.47,86.44,86.43,86.42,86.41,86.4,86.4,86.47,86.49,86.52,86.54,86.56,86.58,86.59,86.61,86.63,86.64,86.66,86.69,86.73,86.77,86.8,86.82,86.91,86.99,87.01,87.02,87.04,87.05,87.07,87.07,87.08,87.09,87.09,87.11,87.13,87.15,87.17,87.19,87.22,87.24,87.3,87.33,87.34,87.35,87.34,87.32,87.31,87.29,87.32,87.35,87.38,87.4,87.42,87.44,87.47,87.56,87.59,87.64,87.65,87.68,87.7,87.72,87.74,87.75,87.77,87.78,87.79,87.8,87.8,87.8,87.79,87.79,87.78,87.74,87.75,87.76,87.76,87.76,87.75,87.74,87.71,87.68,87.65,87.63,87.61,87.58,87.57,87.53,87.57,87.59,87.63,87.68,87.73,87.78,87.8,87.83,87.89,87.91,87.93,87.96,87.97,87.97,87.97,87.97,87.97,87.99,88.0,88.03,88.06,88.09,88.13,88.15,88.17,88.18,88.19,88.19,88.2,88.21,88.2,88.21,88.25,88.28,88.27,88.26,88.25,88.25,88.24,88.25,88.25,88.25,88.25,88.35,88.4,88.44,88.47,88.49,88.5,88.51,88.51,88.51,88.52,88.53,88.55,88.56,88.58,88.59,88.63,88.68,88.73,88.76,88.79,88.81,88.83,88.85,88.88,88.9,88.92,88.94,88.97,88.99,89.0,89.02,89.03,89.08,89.1,89.11,89.15,89.2,89.24,89.28,89.3,89.33,89.34,89.36,89.37,89.38,89.38,89.38,89.39,89.49,89.67,89.72,89.72,89.72,89.72,89.72,89.71,89.71,89.71,89.7,89.69,89.65,89.63,89.56,89.5,89.48,89.46,89.43,89.39,89.36,89.28,89.24,89.2,89.17,89.12,89.08,89.03,88.98,88.78,88.77,88.75,88.74,88.72,88.7,88.69,88.68,88.68,88.68,88.68,88.67,88.67,88.65,88.61,88.51,88.48,88.46,88.44,88.43,88.42,88.42,88.42,88.43,88.43,88.43,88.43,88.42,88.4,88.39,88.33,88.31,88.27,88.26,88.23,88.2,88.17,88.15,88.14,88.13,88.13,88.11,88.09,88.08,88.07,88.09,88.13,88.08,88.05,88.02,87.99,87.97,87.95,87.93,87.9,87.89,87.88,87.88,87.88,87.89,87.9,87.91,87.93,87.93,87.93,87.92,87.91,87.9,87.9,87.92,87.95,87.98,88.01,88.03,88.05,88.06,88.07,88.06,88.03,88.0,88.0,88.01,88.0,88.0,87.98,87.97,87.98,87.99,88.01,88.03,88.04,88.05,88.02,88.02,88.01,88.0,87.99,88.0,88.0,88.01,88.02,88.04,88.07,88.09,88.12,88.14,88.15,88.16,88.16,88.17,88.18,88.19,88.16,88.16,88.15,88.14,88.13,88.13,88.12,88.11,88.09,88.07,88.06,88.05,88.05,88.05,88.05,88.05,88.07,88.09,88.09,88.09,88.1,88.1,88.09,88.08,88.07,88.07,88.07,88.08,88.08,88.09,88.1,88.1,88.11,88.09,88.06,88.05,88.06,88.07,88.09,88.12,88.13,88.15,88.15,88.16,88.17,88.18,88.2,88.22,88.24,88.24,88.23,88.23,88.22,88.22,88.21,88.18,88.2,88.22,88.24,88.27,88.29,88.31,88.31,88.28,88.27,88.27,88.26,88.26,88.26,88.26,88.25,88.24,88.23,88.23,88.22,88.21,88.21,88.2,88.18,88.16,88.08,87.96,87.92,87.89,87.87,87.85,87.83,87.81,87.78,87.77,87.76,87.76,87.76,87.76,87.76,87.73,87.61,87.56,87.55,87.53,87.51,87.49,87.46,87.44,87.41,87.4,87.38,87.35,87.33,87.31,87.29,87.27,87.22,87.17,87.15,87.12,87.1,87.08,87.06,87.05,87.02,87.0,86.98,86.96,86.94,86.91,86.86,86.82,86.84,86.88,86.81,86.73,86.69,86.68,86.67,86.69,86.71,86.71,86.72,86.72,86.71,86.69,86.64,86.57,86.53,86.51,86.48,86.45,86.44,86.42,86.4,86.39,86.36,86.33,86.3,86.28,86.25,86.23,86.21,86.12,86.06,86.02,86.02,86.01,86.0,85.99,85.99,85.99,86.0,86.01,86.0,85.99,85.98,85.96,85.95,85.95,85.94,85.91,85.89,85.88,85.85,85.82,85.78,85.75,85.71,85.68,85.63,85.59,85.54,85.49,85.44,85.39,85.37,85.35,85.33,85.32,85.26,85.2,85.14,85.03,84.98,84.94,84.91,84.9,84.89,84.91,84.92,84.93,84.97,84.95,84.93,84.87,84.83,84.79,84.77,84.75,84.75,84.74,84.74,84.73,84.67,84.61,84.33,84.17,83.81,83.6,83.55,83.5,83.46,83.42,83.37,83.29,83.21,83.13,83.05,83.02,82.98,82.93,82.89,82.82,82.64,82.47,82.4,82.34,82.27,82.24,82.2,82.17,82.14,82.12,82.1,82.08,82.07,82.05,82.04,82.02,81.99</t>
+          <t>82.48,82.48,82.49,82.54,82.56,82.61,82.65,82.67,82.69,82.71,82.75,82.82,82.86,82.91,82.95,82.98,83.0,83.03,83.06,83.06,83.07,83.08,83.06,83.04,83.03,83.01,83.01,83.02,83.02,83.03,83.06,83.1,83.13,83.17,83.19,83.21,83.24,83.26,83.27,83.27,83.28,83.3,83.3,83.31,83.32,83.34,83.35,83.37,83.38,83.38,83.38,83.38,83.39,83.4,83.4,83.41,83.43,83.45,83.46,83.48,83.49,83.5,83.51,83.52,83.55,83.57,83.6,83.63,83.68,83.73,83.78,83.83,83.88,83.93,83.98,84.03,84.07,84.12,84.17,84.22,84.27,84.31,84.36,84.41,84.46,84.5,84.55,84.59,84.64,84.68,84.72,84.77,84.81,84.85,84.9,84.94,84.99,85.03,85.06,85.1,85.19,85.28,85.43,85.59,85.66,85.73,85.76,85.78,85.82,85.86,85.94,86.03,86.08,86.14,86.17,86.2,86.26,86.33,86.36,86.38,86.41,86.43,86.47,86.48,86.53,86.56,86.54,86.51,86.5,86.49,86.51,86.53,86.6,86.67,86.8,86.93,87.03,87.13,87.17,87.21,87.24,87.27,87.31,87.35,87.37,87.39,87.39,87.4,87.37,87.34,87.31,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.28,87.24,87.2,87.11,87.03,86.97,86.91,86.87,86.84,86.79,86.74,86.68,86.62,86.55,86.49,86.42,86.36,86.37,86.39,86.47,86.54,86.62,86.69,86.73,86.77,86.75,86.72,86.65,86.59,86.53,86.47,86.43,86.39,86.39,86.39,86.37,86.34,86.31,86.28,86.23,86.18,86.15,86.14,86.17,86.23,86.28,86.3,86.32,86.22,86.13,86.04,85.94,85.87,85.8,85.75,85.7,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.7,85.73,85.8,85.83,85.86,85.89,85.85,85.82,85.75,85.69,85.65,85.62,85.64,85.66,85.69,85.72,85.75,85.79,85.79,85.79,85.79,85.79,85.77,85.75,85.76,85.77,85.82,85.84,85.87,85.89,85.88,85.88,85.75,85.69,85.63,85.57,85.44,85.46,85.49,85.71,85.72,85.7,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.68,85.71,85.74,85.77,85.81,85.85,85.9,85.99,85.99,85.99,85.99,85.99,86.0,86.01,86.03,86.0,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,86.0,85.97,85.95,85.81,85.82,85.83,85.84,85.9,85.94,85.98,86.03,86.14,86.17,86.19,86.17,86.16,86.14,86.03,86.02,86.01,86.0,86.15,86.19,86.23,86.28,86.26,86.27,86.28,86.28,86.28,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.31,86.33,86.35,86.38,86.39,86.39,86.39,86.39,86.39,86.38,86.41,86.44,86.51,86.53,86.55,86.58,86.59,86.58,86.56,86.54,86.48,86.42,86.39,86.36,86.33,86.3,86.31,86.31,86.31,86.32,86.32,86.33,86.31,86.3,86.3,86.3,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.3,86.31,86.32,86.34,86.36,86.38,86.38,86.38,86.37,86.37,86.37,86.37,86.37,86.37,86.36,86.35,86.37,86.38,86.4,86.41,86.43,86.44,86.45,86.45,86.45,86.46,86.47,86.47,86.48,86.48,86.48,86.48,86.47,86.47,86.44,86.4,86.4,86.4,86.39,86.39,86.39,86.39,86.39,86.4,86.42,86.44,86.47,86.49,86.51,86.53,86.56,86.58,86.59,86.59,86.6,86.6,86.6,86.62,86.64,86.67,86.69,86.71,86.73,86.84,86.85,86.86,86.86,86.87,86.87,86.88,86.89,86.9,86.91,86.92,86.94,86.98,86.98,86.98,86.99,86.99,86.99,87.0,87.0,87.0,87.01,87.02,87.04,87.08,87.07,87.07,87.06,87.06,87.06,87.05,87.06,87.07,87.08,87.08,87.09,87.1,87.11,87.12,87.13,87.14,87.15,87.17,87.19,87.18,87.18,87.17,87.16,87.15,87.14,87.11,87.09,87.06,87.04,86.99,86.93,86.93,86.94,86.94,86.94,86.94,86.95,86.97,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.98,86.98,86.98,87.0,87.02,87.04,87.06,87.13,87.2,87.21,87.22,87.23,87.24,87.25,87.26,87.26,87.26,87.26,87.27,87.28,87.28,87.29,87.3,87.31,87.34,87.38,87.38,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.38,87.37,87.36,87.35,87.34,87.33,87.32,87.31,87.27,87.22,87.2,87.18,87.16,87.14,87.12,87.1,87.11,87.12,87.15,87.16,87.17,87.17,87.18,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.18,87.17,87.16,87.15,87.15,87.14,87.13,87.12,87.15,87.18,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.18,87.18,87.2,87.22,87.25,87.27,87.29,87.32,87.4,87.48,87.51,87.54,87.56,87.58,87.6,87.61,87.63,87.61,87.62,87.62,87.64,87.65,87.66,87.67,87.68,87.68,87.69,87.69,87.69,87.69,87.7,87.69,87.69,87.69,87.69,87.68,87.68,87.68,87.68,87.66,87.64,87.6,87.59,87.59,87.59,87.6,87.59,87.59,87.58,87.58,87.58,87.57,87.57,87.56,87.55,87.54,87.53,87.52,87.5,87.5,87.5,87.49,87.48,87.47,87.46,87.45,87.44,87.41,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.4,87.42,87.43,87.45,87.47,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.5,87.5,87.5,87.5,87.5,87.51,87.53,87.54,87.58,87.58,87.59,87.59,87.59,87.6,87.59,87.58,87.58,87.57,87.57,87.56,87.56,87.57,87.57,87.58,87.58,87.59,87.59,87.6,87.59,87.59,87.59,87.58,87.58,87.57,87.54,87.51,87.49,87.47,87.46,87.44,87.42,87.4,87.39,87.37,87.35,87.34,87.32,87.3,87.29,87.29,87.29,87.28,87.28,87.27,87.24,87.2,87.2,87.2,87.2,87.2,87.2,87.19,87.19,87.19,87.18,87.16,87.15,87.11,87.07,87.04,87.01,86.97,86.94,86.9,86.87,86.84,86.74,86.65,86.64,86.63,86.62,86.62,86.61,86.6,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.58,86.58,86.57,86.56,86.55,86.54,86.52,86.51,86.49,86.47,86.46,86.44,86.41,86.4,86.4,86.39,86.39,86.39,86.38,86.38,86.38,86.37,86.35,86.34,86.3,86.3,86.3,86.29,86.29,86.29,86.29,86.29,86.31,86.31,86.32,86.34,86.35,86.36,86.38,86.38,86.38,86.38,86.39,86.39,86.38,86.37,86.36,86.35,86.34,86.33,86.32,86.35,86.38,86.38,86.38,86.38,86.38,86.39,86.39,86.39,86.39,86.39,86.38,86.38,86.38,86.37,86.36,86.35,86.34,86.32,86.3,86.3,86.3,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.28,86.26,86.25,86.23,86.22,86.21,86.2,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.18,86.18,86.17,86.15,86.13,86.12,86.08,86.05,86.03,86.02,86.01,86.0,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.98,85.98,85.97,85.95,85.92,85.9,85.87,85.85,85.83,85.81,85.78,85.79,85.79,85.79,85.79,85.79,85.78,85.78,85.77,85.75,85.74,85.72,85.7,85.7,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.68,85.68,85.68,85.64,85.61,85.58,85.55,85.53,85.51,85.49,85.47,85.46,85.44,85.42,85.4,85.4,85.39,85.38,85.37,85.35,85.34,85.32,85.3,85.3,85.3</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1986-07-01</t>
+          <t>1957-05-20</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1988-12-31</t>
+          <t>1959-03-31</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>np_07sound.dat_converted.csv</t>
+          <t>np_28sound.dat_converted.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-20999-0-np07sound</t>
+          <t>0-20999-0-np28sound</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>np07sound</t>
+          <t>np28sound</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>196.28,196.29,196.15,195.94,195.85,195.76,195.73,195.78,195.9,196.08,196.34,196.58,196.7,196.81,196.93,197.07,197.21,197.35,197.5,197.63,197.75,198.01,198.03,198.05,198.07,198.09,198.13,198.16,198.19,198.23,198.28,198.33,198.39,198.44,198.31,198.17,198.04,197.9,197.66,197.42,197.18,196.69,196.45,196.2,195.95,195.8,195.65,195.49,195.34,195.33,195.32,195.31,195.38,195.45,195.52,195.59,195.65,195.72,195.78,195.85,195.59,195.34,195.09,194.83,194.54,194.25,193.96,193.66,193.36,193.05,192.78,192.5,192.3,192.11,191.91,191.71,191.51,191.3,191.1,190.89,190.68,190.47,190.3,190.12,189.92,189.71,189.5,189.28,189.06,188.84,188.62,188.39,188.16,187.93,187.69,187.45,187.23,187.0,186.72,186.44,186.42,186.41,186.12,185.81,184.89,183.95,182.99,182.03,182.33,182.65,183.59,184.57,185.18,185.81,185.52,185.22,184.31,183.37,182.68,181.98,181.02,180.04,178.38,177.54,175.05,173.38,172.75,172.13,171.6,171.08,170.35,169.62,169.59,169.57,169.93,170.32,170.34,170.35,169.82,169.28,168.58,167.86,167.32,166.76,166.3,165.82,165.54,165.25,165.36,165.47,165.22,164.98,164.66,164.35,163.75,163.15,162.61,162.07,161.91,161.75,161.78,161.82,162.65,163.46,164.74,165.95,166.29,166.63,166.2,165.77,165.54,165.32,165.39,165.47,165.96,166.44,166.95,167.44,167.89,168.35,168.73,169.12,169.83,170.57,171.52,172.49,173.35,174.2,174.93,175.63,175.65,175.68,175.59,175.5,175.57,175.64,176.23,176.82,177.48,178.13,178.81,179.48,180.14,181.35,181.92,182.38,182.86,183.22,183.58,184.29,184.98,185.48,185.96,186.11,186.26,186.26,186.27,186.43,186.59,187.05,187.51,187.91,188.31,189.03,189.76,189.87,189.98,189.59,189.11,189.02,188.89,188.76,189.22,189.66,190.77,191.85,192.53,193.21,193.38,193.55,193.62,193.68,193.68,193.69,193.66,193.64,193.61,193.58,193.35,193.12,193.13,193.14,193.76,194.04,194.33,194.61,195.18,195.75,197.01,197.2,197.38,197.56,197.87,198.63,199.39,202.08,202.08,202.22,202.37,201.77,201.68,201.59,201.51,201.5,201.83,202.15,202.47,203.96,204.37,204.79,204.5,204.2,203.89,202.99,203.09,203.18,203.28,204.11,204.33,204.56,204.79,205.27,205.45,205.63,205.68,205.73,205.79,205.81,205.77,205.76,205.78,205.8,205.81,205.88,205.95,205.88,205.85,205.82,205.78,205.84,205.99,206.14,206.29,207.0,207.14,207.28,207.27,207.27,207.27,207.13,207.37,207.61,207.85,208.51,208.58,208.66,208.74,208.86,209.16,209.46,209.58,209.7,209.81,209.91,209.94,209.96,209.99,210.0,210.03,210.06,210.09,210.11,210.14,210.04,210.05,210.06,210.07,210.25,210.28,210.31,210.34,210.23,210.18,210.26,210.34,210.97,211.12,211.28,211.45,211.14,210.92,210.69,210.47,210.11,209.75,209.78,209.8,209.82,209.84,209.86,209.88,209.9,209.92,209.94,209.96,209.67,209.38,209.44,209.5,209.56,209.62,209.67,209.73,209.93,210.13,210.31,210.48,210.65,210.82,210.99,211.16,211.54,211.91,211.94,211.96,211.98,212.0,212.14,212.28,212.35,212.42,212.56,212.63,212.7,212.84,213.44,214.05,214.11,214.18,214.24,214.31,214.37,214.44,214.47,214.51,214.6,214.69,214.78,214.87,214.96,215.05,215.07,215.09,215.11,215.13,215.08,215.03,215.04,215.06,215.07,215.09,215.1,215.12,215.27,215.42,215.64,215.87,216.11,216.34,216.58,216.83,217.67,218.53,218.93,219.32,219.52,219.72,220.12,220.34,220.56,220.79,221.02,221.25,221.48,222.35,222.4,222.42,222.44,222.46,222.48,222.52,222.54,222.56,222.61,222.78,222.97,223.34,223.47,223.6,223.86,223.99,224.12,224.38,224.51,224.65,224.91,224.96,225.02,225.12,225.1,225.08,225.04,225.02,225.0,224.96,224.96,224.96,224.96,224.99,225.02,225.08,225.13,225.18,225.23,225.29,225.34,225.83,226.32,226.49,226.65,226.81,226.98,227.14,227.3,227.61,227.91,228.2,228.49,229.24,229.96,230.37,230.79,231.2,231.61,232.02,232.44,233.01,233.58,233.64,233.71,233.77,233.84,233.9,233.97,233.75,233.53,233.52,233.51,233.5,233.49,233.48,233.47,233.68,233.9,234.11,234.33,235.01,235.72,235.9,236.08,236.25,236.43,236.61,236.8,237.09,237.39,237.57,237.75,237.84,237.93,238.12,238.3,238.49,239.59,240.73,241.37,242.0,242.64,243.29,243.3,243.31,243.32,243.34,243.35,243.36,243.22,243.07,243.51,243.94,244.36,244.79,245.21,245.62,247.08,248.5,248.73,248.96,249.19,249.42,249.64,249.86,250.16,250.47,251.08,251.31,251.55,251.67,251.78,252.02,252.09,252.16,252.29,252.43,252.56,252.7,252.83,253.68,254.53,254.94,255.35,255.75,256.14,256.55,256.95,256.95,256.97,256.02,255.07,254.11,253.16,252.2,251.25,250.98,250.72,250.45,250.19,250.15,250.12,250.15,250.18,250.21,250.23,250.26,250.29,250.02,249.74,251.73,253.77,255.84,257.95,260.11,262.29,268.7,275.14,275.5,275.86,276.58,277.32,278.05,278.8,279.55,280.33,281.12,281.89,282.69,283.45,284.2,284.44,284.68,284.79,284.91,285.14,285.26,285.37,285.61,285.29,284.97,284.36,284.36,284.45,284.55,284.74,284.87,285.0,285.25,285.38,285.5,285.75,285.85,285.95,286.14,286.35,286.54,286.74,286.93,287.04,287.14,286.95,286.77,286.6,286.42,286.25,286.07,285.36,284.66,284.73,284.8,284.86,284.93,285.0,285.07,285.48,285.91,286.33,286.76,286.99,287.23,287.27,287.32,287.36,287.41,287.45,287.49,288.52,289.55,289.67,289.79,290.02,290.14,290.27,290.51,290.64,290.76,291.0,291.16,291.32,291.64,291.49,291.41,291.33,291.26,291.18,291.24,291.3,291.35,291.41,292.41,293.41,293.63,293.86,294.08,294.31,294.54,294.77,296.27,297.77,298.36,298.93,299.51,300.08,300.64,301.22,301.36,301.5,301.26,301.01,300.77,300.54,300.52,300.51,300.49,300.47,300.45,300.44,300.89,301.33,301.35,301.36,301.37,301.37,301.39,301.41,301.22,301.02,300.82,300.62,300.42,300.2,300.01,299.81,299.22,298.62,297.45,297.23,297.01,296.57,296.14,295.74,295.87,295.99,296.11,296.23,296.33,296.45,297.0,297.52,297.5,297.48,297.48,297.47,297.45,297.43,297.42,297.33,297.23,297.13,297.02,296.93,296.83,296.72,296.6,296.48,296.36,296.49,296.37,296.39,296.42,296.45,296.47,296.5,296.52,297.52,297.45,297.39,297.33,297.26,297.2,297.13,297.12,297.1,297.08,297.08,297.11,297.13,297.19,297.13,297.07,296.95,296.89,296.83,296.73,296.67,296.62,296.5,296.48,296.45,296.41,296.42,296.44,296.45,296.47,296.48,296.49,296.5,296.38,296.33,296.27,296.17,296.12,296.06,295.95,295.94,295.93,295.92,295.89,295.88,295.89,295.89,295.92,295.93,295.95,295.98,296.0,296.0,296.0,296.01,296.02,296.05,296.07,296.08,296.1,296.33,296.58,296.73,296.88,296.95,297.02,297.18,297.17,297.16,297.14,297.13,297.11,297.07,297.02,296.98,296.94,296.95,297.0,297.02,297.08,297.14,297.22,297.29,297.32,297.33,297.37,297.39,297.45,297.48,297.5,297.58,297.67,297.76,297.83,297.85,297.86,297.87,297.88,297.81,297.79,297.82,297.89,297.91,297.92,297.8,297.67,297.58,297.5,297.42,297.41,297.39,297.38,297.37,297.38,297.39,297.42,297.44,297.45,297.48,297.5,297.49,297.47,297.41,297.63,297.85,298.07,298.29,298.91,299.52,300.14,300.75,302.23,302.95,303.67,304.2,304.74,305.27,305.8,305.95,306.12,306.27,306.43,306.48,306.52,306.56,306.61,306.64,306.7,306.74,306.79,307.23,307.66,308.08,308.52,309.41,310.29,311.16,312.02,312.75,313.48,314.2,314.95,315.01,315.07,315.13,315.2,314.97,314.76,314.54,314.32,314.27,314.2,314.16,314.1,314.08,314.05,314.02,314.01,314.3,314.45,314.6,315.18,315.75,316.31,316.87,317.58,318.3,319.0,319.7,320.23,320.74,321.26,321.77,322.27,322.77,323.27,323.76,324.17,324.58,324.98,325.8,325.7,325.89</t>
+          <t>167.05,166.94,166.99,167.04,167.46,167.66,168.09,168.31,168.51,168.71,169.01,169.31,169.49,169.66,169.72,169.79,169.89,169.98,169.79,169.59,169.32,169.05,169.01,168.97,169.04,169.1,169.09,169.09,169.03,168.97,168.84,168.7,168.5,168.29,168.08,167.86,167.66,167.45,167.25,167.05,166.9,166.75,166.64,166.54,166.45,166.36,166.26,166.17,166.08,165.98,166.05,166.11,166.38,166.65,166.69,166.72,166.65,166.59,166.64,166.69,166.57,166.45,166.22,165.99,166.05,165.86,165.68,165.47,165.27,165.43,165.6,165.91,166.22,166.59,166.64,166.68,166.7,166.73,166.46,166.27,166.09,165.93,165.78,165.69,165.64,165.67,165.5,165.32,164.75,164.18,163.69,163.03,162.83,162.63,162.44,162.37,162.28,162.32,162.35,162.5,162.66,162.87,163.19,163.32,163.38,163.44,163.49,163.53,163.52,163.51,163.41,163.31,163.15,163.0,162.86,162.72,162.54,162.37,162.22,162.09,162.04,161.88,161.74,161.6,161.5,161.57,161.65,161.65,161.65,161.44,161.25,160.87,160.49,160.38,160.27,160.44,160.63,160.74,160.85,160.97,161.09,161.29,161.49,161.59,161.69,161.69,161.71,161.72,161.78,161.83,161.9,161.97,161.96,161.85,161.83,161.87,161.91,161.88,161.87,161.81,161.75,161.75,161.75,161.8,161.84,161.88,161.94,162.13,162.33,162.72,164.25,165.55,165.76,166.19,166.5,166.82,167.07,167.33,167.58,167.84,168.05,168.25,168.38,168.52,168.54,168.5,168.24,167.85,167.86,167.86,167.86,167.82,167.78,167.77,167.7,167.63,167.42,167.38,167.34,167.37,167.55,167.66,167.7,167.72,167.74,167.76,167.79,167.91,168.04,168.18,168.32,168.4,168.47,168.52,168.57,168.55,168.2,167.87,167.38,167.26,167.01,167.28,167.55,167.54,167.52,167.49,167.46,167.31,167.15,166.99,166.83,166.83,166.83,167.03,167.35,166.87,166.71,166.56,166.41,166.33,166.26,166.36,166.47,166.7,166.93,167.11,167.3,167.38,167.47,167.5,167.67,167.86,167.81,167.76,167.78,167.8,167.94,168.08,168.17,168.27,168.28,168.3,168.31,168.32,168.32,168.25,168.02,167.95,167.82,167.72,167.63,167.56,167.5,167.35,167.2,167.02,166.84,166.8,166.73,166.7,166.59,166.04,166.06,166.13,166.17,166.22,166.27,166.32,166.33,166.33,166.28,166.24,166.29,166.35,166.77,167.02,167.55,167.78,168.01,168.29,168.57,168.84,169.09,169.07,168.97,168.87,168.89,168.91,168.98,169.05,169.14,169.48,169.74,170.05,170.11,170.22,170.22,170.23,170.24,170.26,170.28,170.3,170.28,170.27,170.34,170.42,170.38,170.34,170.26,170.18,169.97,169.88,169.98,170.09,170.13,170.18,170.06,169.94,169.77,169.6,169.47,169.34,169.36,169.37,169.44,169.56,169.15,168.93,168.61,168.28,168.07,167.79,167.85,167.91,167.99,168.07,168.07,168.06,168.01,168.11,168.3,168.27,168.25,168.2,168.18,168.15,168.13,168.11,168.12,168.14,168.15,168.16,168.21,168.26,168.48,169.06,169.04,169.0,169.01,169.02,169.12,169.21,169.35,169.48,169.54,169.6,169.57,169.53,169.47,169.41,169.34,168.45,168.27,168.09,167.92,167.71,167.5,167.4,167.31,167.3,167.29,167.28,167.26,167.55,167.55,167.54,167.52,167.5,167.46,167.42,167.32,167.38,167.44,167.75,168.07,168.26,168.45,168.47,168.38,168.88,169.1,169.15,169.21,169.22,169.24,169.26,169.28,169.29,169.3,169.3,169.31,169.32,169.33,169.34,169.3,169.11,168.98,168.73,168.47,168.31,168.15,168.08,168.01,167.97,167.92,167.91,167.9,167.88,167.87,167.85,167.82,167.78,167.7,167.69,167.67,167.72,167.8,167.87,167.97,168.08,168.18,168.29,168.36,168.44,168.5,168.56,168.6,168.86,169.18,169.22,169.3,169.34,169.37,169.26,169.16,169.01,168.87,168.74,168.61,168.43,168.25,168.04,167.82,167.71,167.6,167.8,167.89,168.06,168.24,168.46,168.67,168.89,169.1,169.09,168.87,168.65,168.52,168.38,168.37,168.41,168.43,168.46,168.51,168.47,168.43,168.32,168.21,168.08,167.95,167.76,167.58,167.33,167.09,166.85,166.62,166.45,166.12,166.01,165.99,166.06,166.14,166.24,166.34,166.68,167.03,167.28,167.54,167.58,167.62,167.6,167.58,167.54,167.56,167.74,167.78,167.77,167.76,167.69,167.62,167.44,167.27,167.02,166.77,166.52,166.27,166.08,165.89,165.8,165.47,161.59,161.41,161.36,161.27,161.24,161.22,161.29,161.37,161.57,161.77,161.97,162.16,162.22,162.27,161.83,161.38,160.71,159.66,159.29,159.35,159.43,159.63,159.84,160.21,160.59,160.85,161.12,161.28,161.44,161.72,162.0,162.28,162.56,162.62,162.57,162.81,162.97,163.1,163.21,163.27,163.34,163.38,163.44,164.32,164.76,165.1,165.43,165.62,166.3,166.88,167.14,167.11,167.06,167.03,166.99,167.03,167.07,166.99,166.92,166.7,166.48,166.17,165.87,165.51,165.16,164.71,163.69,164.02,164.28,164.52,164.76,164.86,164.96,164.94,164.93,164.89,164.85,164.84,164.82,164.74,164.67,164.45,163.22,161.63,161.27,161.26,161.24,161.18,161.12,160.58,160.03,159.55,159.07,159.01,158.96,158.97,158.97,158.78,158.06,157.91,158.16,158.09,157.94,157.6,157.28,157.13,156.97,156.79,156.61,156.25,155.9,155.52,155.15,154.66,154.18,153.61,152.74,152.66,152.58,152.35,152.13,151.88,151.65,151.44,151.25,151.02,150.79,150.47,150.13,149.75,149.35,149.15,149.22,149.57,149.62,149.85,150.08,150.55,151.03,151.19,151.37,151.28,151.19,151.52,151.85,152.11,152.38,152.72,154.38,156.19,156.47,157.02,157.22,157.41,157.36,157.31,157.59,157.87,158.77,159.69,160.3,160.93,161.25,161.57,162.06,163.53,164.5,164.76,164.84,164.93,164.83,164.74,164.51,164.29,164.45,164.6,165.23,165.87,166.22,166.58,166.62,166.54,165.87,165.66,165.61,165.56,165.48,165.4,165.14,164.87,164.55,164.22,164.14,164.05,163.97,163.9,163.63,162.94,162.84,162.69,162.66,162.6,162.69,162.8,162.72,162.65,162.5,162.36,162.31,162.27,162.32,162.38,162.57,162.75,163.07,164.15,164.57,165.52,166.04,166.45,166.87,167.13,167.39,167.53,167.67,167.76,167.84,168.05,168.25,168.8,169.36,169.87,170.72,171.43,171.66,171.6,171.53,171.34,171.15,171.03,171.08,171.12,171.14,171.16,171.01,170.78,170.23,170.05,169.7,169.19,168.68,168.0,167.32,166.74,166.15,165.91,165.66,165.59,165.52,165.6,165.68,165.79,166.0,166.22,166.34,166.54,166.74,167.06,167.38,167.83,168.73,169.18,169.55,169.93,170.3,170.66,170.99,171.92,172.62,172.73,172.83,172.93,173.07,173.2,173.18,173.15,173.02,172.88,172.64,172.4,172.24,172.08,172.16,172.53,173.1,173.94,174.05,174.28,174.05,173.82,173.74,173.66,173.73,173.8,173.83,173.85,173.67,173.49,173.62,173.75,174.13,174.49,175.06,175.4,175.66,175.93,175.8,175.67,175.6,175.53,175.85,176.16,176.64,177.12,177.51,177.9,178.04,178.18,178.17,179.05,179.65,179.82,180.0,180.0,179.99,180.15,180.31,180.27,180.23,180.09,179.95,179.87,179.79,179.71,179.5,179.38,179.27,179.3,179.35,179.38,179.42,179.83,180.25,180.81,181.37,181.74,182.11,182.21,182.31,182.39,182.46,182.75,183.89,184.1,184.02,183.69,183.58,183.73,183.88,184.64,185.39,186.22,187.03,187.35,187.67,187.53,186.54,185.43,185.81,186.53,187.29,187.39,187.5,187.26,187.02,186.36,185.8,185.23,184.48,183.39,183.16,182.71,182.75,182.8,183.4,184.02,184.5,185.0,184.67,184.32,183.86,183.39,183.23,183.07,182.98,182.13,179.69,179.42,179.79,181.21,184.27,186.23,187.28,188.32,188.56,188.8,188.83,188.87,188.86,188.74,187.12,186.05,184.4,182.67,181.46,180.23,180.13,180.03,180.38,180.73,180.86,180.98,180.97,180.97,181.09,181.34,181.17,180.99,180.88,180.8,180.72,180.64,180.55,180.46,180.36,180.26,180.16,180.05,179.94,180.11,180.29,180.44,179.44,177.66,177.0,176.96,176.91,176.3,175.62,174.54,173.38,173.12,172.85,173.43,174.04,175.43,176.83,178.76,183.07,184.03,187.45,189.98,192.29,194.53,196.81,199.07,202.25,205.39,209.9,214.05,220.79,223.95,230.83,234.7,235.9,238.14,238.7,239.21,237.92,235.94,235.21,234.4,233.66,233.43,233.23,233.46,233.67,235.91,237.21,238.13,239.03,239.62,240.18,241.0,241.81,242.15,242.49,242.45,242.4,242.01,241.34,240.96,242.45,243.19,243.92,244.63,245.53,246.43,247.56,248.69,249.34,249.99,250.11,250.22,250.48,250.73,251.07,251.48,251.3,251.2,251.21,251.23,251.42,251.6,251.65,251.71,251.34,250.95,250.28,250.0,250.53,251.05,252.08,252.94,250.55,249.9,249.46,249.03,248.8,248.57,248.61,248.64,248.68,248.72,248.78,248.84,249.02,249.21,249.29,249.22,249.12,249.19,249.36,249.53,249.92,250.31,251.37,252.45,253.99,255.57,257.33,259.14,260.62,262.12,263.11,266.12,267.92,268.14,268.58,268.69,268.79,268.83,268.87,269.7,270.54,271.47,272.42,272.81,273.2,274.12,275.08,277.66,278.19,279.14,279.58,279.91,280.25,280.81,281.39,282.23,283.08,284.3,285.54,286.54,287.55,287.81,288.06,287.73,286.12,284.69,284.45,284.51,284.56,284.72,284.87,285.05,285.23,284.68,284.13,283.8,283.47,283.41,283.35,283.29,283.12,282.69,281.2,280.95,280.44,280.33,280.24,280.14,280.04,280.57,281.11,281.88,282.64,283.3,283.95,284.7,285.45,285.7,286.62,288.83,289.63,290.32,291.02,291.85,292.7,293.47,294.23,294.45,294.67,295.3,295.93,296.82,297.74,298.29,296.6,295.92,295.82,295.72,296.13,296.52,297.11,297.14,297.19,296.81,296.41,295.8,295.18,295.05,297.74,300.05,301.39,301.74,302.38,303.02,304.33,305.64,306.73,307.81,308.7,309.6,310.48,311.37,312.42,313.45,314.93,320.07,324.7,325.72,326.56,327.37,328.51,329.63,330.74,331.83,333.01,334.18,335.03,335.88,336.17,336.46,336.39,336.47,338.17,338.87,339.65,340.41,341.24,342.05,342.88,343.7,344.54,345.36,346.34,347.3,348.3,349.29,349.92,351.65,353.14,353.5,354.22,354.99,355.75,356.41,357.06,357.61,358.16,358.34,358.52,358.42,358.32,357.71,357.11,356.02,352.93,352.77,352.87,352.92,353.06,353.19,353.15,353.1,352.95,352.8,352.68,352.57,352.62,352.91,353.43,354.02,354.38,354.59,354.78,354.7,354.62,354.62,354.62,354.9,355.17,355.5,355.82,355.94,356.07,356.22,357.2,357.37,357.33,357.36,357.41,357.45,357.49,357.46,357.43,357.29,357.15,356.83,356.52,356.13,355.74,355.34,354.94,354.51,353.48,353.36,353.41,353.44,353.48,353.43,353.37,353.2,353.03,352.8,352.58,352.44,352.3,352.29,352.28,352.25,352.06,352.1,352.19,352.41,352.63,352.68,352.67,352.63,352.66,352.7,352.69,352.68,352.5,352.31,352.09,351.3,350.4,350.31,350.13,350.24,350.35,350.46,350.58,350.61,350.64,350.63,350.62,350.43,350.24,350.45,351.13,353.2,354.65,355.01,355.22,355.43,355.74,356.05,356.46,356.86,357.18,357.49,357.66,357.83,357.99,358.14,358.35,358.91,359.47,359.67,359.52,359.36,359.59,359.81,0.12,0.43,0.5,0.56,0.56,0.56,0.61,0.64,0.7,0.9</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>82.48,82.48,82.49,82.54,82.56,82.61,82.65,82.67,82.69,82.71,82.75,82.82,82.86,82.91,82.95,82.98,83.0,83.03,83.06,83.06,83.07,83.08,83.06,83.04,83.03,83.01,83.01,83.02,83.02,83.03,83.06,83.1,83.13,83.17,83.19,83.21,83.24,83.26,83.27,83.27,83.28,83.3,83.3,83.31,83.32,83.34,83.35,83.37,83.38,83.38,83.38,83.38,83.39,83.4,83.4,83.41,83.43,83.45,83.46,83.48,83.49,83.5,83.51,83.52,83.55,83.57,83.6,83.63,83.68,83.73,83.78,83.83,83.88,83.93,83.98,84.03,84.07,84.12,84.17,84.22,84.27,84.31,84.36,84.41,84.46,84.5,84.55,84.59,84.64,84.68,84.72,84.77,84.81,84.85,84.9,84.94,84.99,85.03,85.06,85.1,85.19,85.28,85.43,85.59,85.66,85.73,85.76,85.78,85.82,85.86,85.94,86.03,86.08,86.14,86.17,86.2,86.26,86.33,86.36,86.38,86.41,86.43,86.47,86.48,86.53,86.56,86.54,86.51,86.5,86.49,86.51,86.53,86.6,86.67,86.8,86.93,87.03,87.13,87.17,87.21,87.24,87.27,87.31,87.35,87.37,87.39,87.39,87.4,87.37,87.34,87.31,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.29,87.28,87.24,87.2,87.11,87.03,86.97,86.91,86.87,86.84,86.79,86.74,86.68,86.62,86.55,86.49,86.42,86.36,86.37,86.39,86.47,86.54,86.62,86.69,86.73,86.77,86.75,86.72,86.65,86.59,86.53,86.47,86.43,86.39,86.39,86.39,86.37,86.34,86.31,86.28,86.23,86.18,86.15,86.14,86.17,86.23,86.28,86.3,86.32,86.22,86.13,86.04,85.94,85.87,85.8,85.75,85.7,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.7,85.73,85.8,85.83,85.86,85.89,85.85,85.82,85.75,85.69,85.65,85.62,85.64,85.66,85.69,85.72,85.75,85.79,85.79,85.79,85.79,85.79,85.77,85.75,85.76,85.77,85.82,85.84,85.87,85.89,85.88,85.88,85.75,85.69,85.63,85.57,85.44,85.46,85.49,85.71,85.72,85.7,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.68,85.71,85.74,85.77,85.81,85.85,85.9,85.99,85.99,85.99,85.99,85.99,86.0,86.01,86.03,86.0,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,86.0,85.97,85.95,85.81,85.82,85.83,85.84,85.9,85.94,85.98,86.03,86.14,86.17,86.19,86.17,86.16,86.14,86.03,86.02,86.01,86.0,86.15,86.19,86.23,86.28,86.26,86.27,86.28,86.28,86.28,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.31,86.33,86.35,86.38,86.39,86.39,86.39,86.39,86.39,86.38,86.41,86.44,86.51,86.53,86.55,86.58,86.59,86.58,86.56,86.54,86.48,86.42,86.39,86.36,86.33,86.3,86.31,86.31,86.31,86.32,86.32,86.33,86.31,86.3,86.3,86.3,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.3,86.31,86.32,86.34,86.36,86.38,86.38,86.38,86.37,86.37,86.37,86.37,86.37,86.37,86.36,86.35,86.37,86.38,86.4,86.41,86.43,86.44,86.45,86.45,86.45,86.46,86.47,86.47,86.48,86.48,86.48,86.48,86.47,86.47,86.44,86.4,86.4,86.4,86.39,86.39,86.39,86.39,86.39,86.4,86.42,86.44,86.47,86.49,86.51,86.53,86.56,86.58,86.59,86.59,86.6,86.6,86.6,86.62,86.64,86.67,86.69,86.71,86.73,86.84,86.85,86.86,86.86,86.87,86.87,86.88,86.89,86.9,86.91,86.92,86.94,86.98,86.98,86.98,86.99,86.99,86.99,87.0,87.0,87.0,87.01,87.02,87.04,87.08,87.07,87.07,87.06,87.06,87.06,87.05,87.06,87.07,87.08,87.08,87.09,87.1,87.11,87.12,87.13,87.14,87.15,87.17,87.19,87.18,87.18,87.17,87.16,87.15,87.14,87.11,87.09,87.06,87.04,86.99,86.93,86.93,86.94,86.94,86.94,86.94,86.95,86.97,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.99,86.98,86.98,86.98,87.0,87.02,87.04,87.06,87.13,87.2,87.21,87.22,87.23,87.24,87.25,87.26,87.26,87.26,87.26,87.27,87.28,87.28,87.29,87.3,87.31,87.34,87.38,87.38,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.38,87.37,87.36,87.35,87.34,87.33,87.32,87.31,87.27,87.22,87.2,87.18,87.16,87.14,87.12,87.1,87.11,87.12,87.15,87.16,87.17,87.17,87.18,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.18,87.17,87.16,87.15,87.15,87.14,87.13,87.12,87.15,87.18,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.19,87.18,87.18,87.2,87.22,87.25,87.27,87.29,87.32,87.4,87.48,87.51,87.54,87.56,87.58,87.6,87.61,87.63,87.61,87.62,87.62,87.64,87.65,87.66,87.67,87.68,87.68,87.69,87.69,87.69,87.69,87.7,87.69,87.69,87.69,87.69,87.68,87.68,87.68,87.68,87.66,87.64,87.6,87.59,87.59,87.59,87.6,87.59,87.59,87.58,87.58,87.58,87.57,87.57,87.56,87.55,87.54,87.53,87.52,87.5,87.5,87.5,87.49,87.48,87.47,87.46,87.45,87.44,87.41,87.39,87.39,87.39,87.39,87.39,87.39,87.39,87.4,87.42,87.43,87.45,87.47,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.49,87.5,87.5,87.5,87.5,87.5,87.51,87.53,87.54,87.58,87.58,87.59,87.59,87.59,87.6,87.59,87.58,87.58,87.57,87.57,87.56,87.56,87.57,87.57,87.58,87.58,87.59,87.59,87.6,87.59,87.59,87.59,87.58,87.58,87.57,87.54,87.51,87.49,87.47,87.46,87.44,87.42,87.4,87.39,87.37,87.35,87.34,87.32,87.3,87.29,87.29,87.29,87.28,87.28,87.27,87.24,87.2,87.2,87.2,87.2,87.2,87.2,87.19,87.19,87.19,87.18,87.16,87.15,87.11,87.07,87.04,87.01,86.97,86.94,86.9,86.87,86.84,86.74,86.65,86.64,86.63,86.62,86.62,86.61,86.6,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.59,86.58,86.58,86.57,86.56,86.55,86.54,86.52,86.51,86.49,86.47,86.46,86.44,86.41,86.4,86.4,86.39,86.39,86.39,86.38,86.38,86.38,86.37,86.35,86.34,86.3,86.3,86.3,86.29,86.29,86.29,86.29,86.29,86.31,86.31,86.32,86.34,86.35,86.36,86.38,86.38,86.38,86.38,86.39,86.39,86.38,86.37,86.36,86.35,86.34,86.33,86.32,86.35,86.38,86.38,86.38,86.38,86.38,86.39,86.39,86.39,86.39,86.39,86.38,86.38,86.38,86.37,86.36,86.35,86.34,86.32,86.3,86.3,86.3,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.29,86.28,86.26,86.25,86.23,86.22,86.21,86.2,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.19,86.18,86.18,86.17,86.15,86.13,86.12,86.08,86.05,86.03,86.02,86.01,86.0,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.99,85.98,85.98,85.97,85.95,85.92,85.9,85.87,85.85,85.83,85.81,85.78,85.79,85.79,85.79,85.79,85.79,85.78,85.78,85.77,85.75,85.74,85.72,85.7,85.7,85.69,85.69,85.69,85.69,85.69,85.69,85.69,85.68,85.68,85.68,85.64,85.61,85.58,85.55,85.53,85.51,85.49,85.47,85.46,85.44,85.42,85.4,85.4,85.39,85.38,85.37,85.35,85.34,85.32,85.3,85.3,85.3</t>
+          <t>81.7,81.69,81.69,81.69,81.73,81.75,81.78,81.79,81.79,81.78,81.77,81.76,81.75,81.73,81.7,81.67,81.66,81.65,81.66,81.67,81.66,81.66,81.67,81.67,81.7,81.73,81.73,81.76,81.76,81.76,81.77,81.79,81.81,81.84,81.89,81.93,81.95,81.97,81.99,82.01,82.04,82.06,82.07,82.09,82.08,82.07,82.06,82.04,82.02,82.01,82.0,81.99,81.96,81.93,81.9,81.88,81.84,81.83,81.79,81.76,81.73,81.7,81.65,81.61,81.56,81.55,81.54,81.54,81.54,81.55,81.56,81.56,81.58,81.56,81.56,81.58,81.58,81.58,81.55,81.54,81.53,81.52,81.52,81.53,81.55,81.56,81.56,81.56,81.59,81.63,81.63,81.61,81.59,81.55,81.5,81.47,81.44,81.43,81.42,81.42,81.41,81.4,81.38,81.37,81.34,81.33,81.31,81.3,81.29,81.29,81.28,81.28,81.26,81.23,81.22,81.19,81.17,81.15,81.14,81.13,81.13,81.13,81.13,81.13,81.09,81.09,81.06,81.05,81.04,81.02,81.0,80.95,80.92,80.89,80.86,80.87,80.88,80.93,80.98,81.01,81.04,81.05,81.06,81.06,81.08,81.06,81.06,81.06,81.06,81.06,81.06,81.08,81.09,81.11,81.08,81.06,81.06,81.05,81.04,81.02,81.01,80.98,80.95,80.93,80.91,80.93,80.94,81.02,81.09,81.15,81.28,81.3,81.3,81.29,81.29,81.29,81.28,81.26,81.23,81.19,81.16,81.12,81.09,81.06,81.06,81.05,81.0,80.9,80.86,80.84,80.81,80.81,80.8,80.8,80.83,80.86,80.89,80.88,80.88,80.88,80.86,80.86,80.86,80.88,80.89,80.91,80.93,80.93,80.94,80.95,80.95,80.95,80.97,80.97,80.98,80.98,81.06,81.12,81.06,81.05,81.0,81.04,81.08,81.12,81.16,81.22,81.28,81.31,81.37,81.43,81.5,81.56,81.64,81.67,81.73,81.81,81.84,81.86,81.87,81.88,81.88,81.89,81.9,81.91,81.91,81.91,81.92,81.92,81.93,81.93,81.95,81.97,81.96,81.94,81.93,81.92,81.92,81.92,81.94,81.96,81.98,82.01,82.03,82.05,82.07,82.12,82.18,82.2,82.25,82.3,82.35,82.39,82.43,82.46,82.48,82.5,82.51,82.51,82.52,82.52,82.53,82.52,82.37,82.3,82.24,82.18,82.12,82.05,81.99,81.94,81.89,81.84,81.81,81.79,81.76,81.75,81.75,81.75,81.76,81.75,81.73,81.67,81.53,81.45,81.42,81.38,81.38,81.37,81.37,81.37,81.38,81.34,81.31,81.27,81.26,81.23,81.19,81.16,81.12,81.08,81.05,81.02,81.01,81.01,80.98,80.97,80.94,80.92,80.91,80.91,80.93,80.93,80.92,80.91,80.91,80.92,80.92,80.92,80.9,80.89,80.87,80.84,80.84,80.81,80.87,80.88,80.87,80.89,80.89,80.89,80.86,80.8,80.79,80.79,80.8,80.81,80.84,80.86,80.88,80.88,80.87,80.87,80.87,80.88,80.87,80.86,80.86,80.86,80.86,80.87,80.87,80.87,80.87,80.87,80.87,80.88,80.87,80.87,80.84,80.84,80.84,80.83,80.83,80.83,80.83,80.83,80.84,80.86,80.88,80.9,80.92,81.06,81.09,81.11,81.12,81.13,81.13,81.13,81.13,81.12,81.12,81.12,81.12,81.2,81.23,81.27,81.31,81.34,81.36,81.37,81.38,81.37,81.36,81.38,81.39,81.43,81.47,81.51,81.61,81.64,81.64,81.65,81.66,81.67,81.67,81.68,81.68,81.69,81.7,81.72,81.73,81.75,81.77,81.78,81.84,81.84,81.84,81.84,81.84,81.87,81.89,81.91,81.93,81.95,81.96,81.99,82.02,82.05,82.08,82.12,82.21,82.43,82.66,82.68,82.72,82.61,82.5,82.39,82.33,82.27,82.31,82.35,82.44,82.52,82.6,82.68,82.73,82.9,82.92,82.9,82.88,82.74,82.61,82.45,82.29,82.2,82.12,82.07,82.03,81.99,81.95,81.93,81.9,81.9,81.91,81.93,81.93,81.93,81.92,81.89,81.86,81.84,81.81,81.81,81.81,81.81,81.81,81.81,81.81,81.84,81.87,81.88,81.92,81.94,81.97,82.01,82.05,82.1,82.14,82.18,82.22,82.23,82.24,82.24,82.23,82.22,82.21,82.21,82.22,82.23,82.24,82.26,82.28,82.29,82.3,82.3,82.31,82.3,82.3,82.29,82.28,82.27,82.27,82.29,82.3,82.31,82.33,82.33,82.34,82.35,82.37,82.39,82.41,82.43,82.46,82.49,82.52,82.56,82.69,84.04,84.07,84.08,84.09,84.11,84.13,84.16,84.19,84.22,84.26,84.28,84.31,84.33,84.36,84.37,84.37,84.36,84.33,84.32,84.34,84.37,84.4,84.44,84.47,84.5,84.51,84.51,84.54,84.57,84.59,84.6,84.61,84.62,84.66,84.72,84.72,84.74,84.77,84.81,84.82,84.83,84.81,84.79,84.81,84.83,84.84,84.85,84.86,84.9,84.93,84.94,84.94,84.93,84.92,84.91,84.89,84.86,84.83,84.8,84.79,84.78,84.8,84.81,84.84,84.86,84.87,84.85,84.81,84.82,84.86,84.9,84.95,85.0,85.04,85.08,85.11,85.15,85.17,85.19,85.2,85.22,85.24,85.33,85.37,85.37,85.37,85.37,85.4,85.43,85.45,85.48,85.46,85.44,85.42,85.39,85.42,85.44,85.44,85.33,85.26,85.17,85.15,85.1,85.05,85.01,84.96,84.91,84.87,84.84,84.8,84.76,84.72,84.67,84.62,84.56,84.49,84.31,84.26,84.26,84.23,84.21,84.18,84.14,84.12,84.1,84.09,84.07,84.06,84.04,84.02,84.0,83.98,83.97,83.99,83.98,84.0,84.01,84.04,84.06,84.06,84.06,84.04,84.03,84.04,84.06,84.06,84.06,84.09,84.22,84.32,84.33,84.35,84.38,84.41,84.43,84.44,84.45,84.45,84.5,84.55,84.62,84.7,84.75,84.8,84.85,84.99,85.04,85.04,85.05,85.06,85.08,85.09,85.1,85.1,85.12,85.14,85.18,85.22,85.27,85.32,85.37,85.5,85.55,85.56,85.56,85.57,85.59,85.61,85.64,85.68,85.7,85.72,85.73,85.75,85.77,85.79,85.82,85.89,85.91,85.93,85.93,85.93,85.94,85.94,85.95,85.96,85.98,86.01,86.03,86.06,86.07,86.09,86.1,86.11,86.11,86.11,86.09,86.06,86.04,86.03,86.02,86.02,86.02,86.02,86.03,86.03,86.04,86.04,86.05,86.05,86.05,86.05,86.06,86.17,86.22,86.26,86.3,86.31,86.31,86.3,86.29,86.28,86.28,86.27,86.29,86.32,86.34,86.34,86.33,86.32,86.32,86.33,86.34,86.39,86.45,86.51,86.58,86.61,86.64,86.64,86.65,86.65,86.64,86.63,86.63,86.63,86.63,86.64,86.64,86.66,86.69,86.7,86.71,86.71,86.71,86.71,86.7,86.7,86.7,86.7,86.69,86.68,86.64,86.61,86.58,86.55,86.53,86.5,86.47,86.44,86.43,86.42,86.41,86.4,86.4,86.47,86.49,86.52,86.54,86.56,86.58,86.59,86.61,86.63,86.64,86.66,86.69,86.73,86.77,86.8,86.82,86.91,86.99,87.01,87.02,87.04,87.05,87.07,87.07,87.08,87.09,87.09,87.11,87.13,87.15,87.17,87.19,87.22,87.24,87.3,87.33,87.34,87.35,87.34,87.32,87.31,87.29,87.32,87.35,87.38,87.4,87.42,87.44,87.47,87.56,87.59,87.64,87.65,87.68,87.7,87.72,87.74,87.75,87.77,87.78,87.79,87.8,87.8,87.8,87.79,87.79,87.78,87.74,87.75,87.76,87.76,87.76,87.75,87.74,87.71,87.68,87.65,87.63,87.61,87.58,87.57,87.53,87.57,87.59,87.63,87.68,87.73,87.78,87.8,87.83,87.89,87.91,87.93,87.96,87.97,87.97,87.97,87.97,87.97,87.99,88.0,88.03,88.06,88.09,88.13,88.15,88.17,88.18,88.19,88.19,88.2,88.21,88.2,88.21,88.25,88.28,88.27,88.26,88.25,88.25,88.24,88.25,88.25,88.25,88.25,88.35,88.4,88.44,88.47,88.49,88.5,88.51,88.51,88.51,88.52,88.53,88.55,88.56,88.58,88.59,88.63,88.68,88.73,88.76,88.79,88.81,88.83,88.85,88.88,88.9,88.92,88.94,88.97,88.99,89.0,89.02,89.03,89.08,89.1,89.11,89.15,89.2,89.24,89.28,89.3,89.33,89.34,89.36,89.37,89.38,89.38,89.38,89.39,89.49,89.67,89.72,89.72,89.72,89.72,89.72,89.71,89.71,89.71,89.7,89.69,89.65,89.63,89.56,89.5,89.48,89.46,89.43,89.39,89.36,89.28,89.24,89.2,89.17,89.12,89.08,89.03,88.98,88.78,88.77,88.75,88.74,88.72,88.7,88.69,88.68,88.68,88.68,88.68,88.67,88.67,88.65,88.61,88.51,88.48,88.46,88.44,88.43,88.42,88.42,88.42,88.43,88.43,88.43,88.43,88.42,88.4,88.39,88.33,88.31,88.27,88.26,88.23,88.2,88.17,88.15,88.14,88.13,88.13,88.11,88.09,88.08,88.07,88.09,88.13,88.08,88.05,88.02,87.99,87.97,87.95,87.93,87.9,87.89,87.88,87.88,87.88,87.89,87.9,87.91,87.93,87.93,87.93,87.92,87.91,87.9,87.9,87.92,87.95,87.98,88.01,88.03,88.05,88.06,88.07,88.06,88.03,88.0,88.0,88.01,88.0,88.0,87.98,87.97,87.98,87.99,88.01,88.03,88.04,88.05,88.02,88.02,88.01,88.0,87.99,88.0,88.0,88.01,88.02,88.04,88.07,88.09,88.12,88.14,88.15,88.16,88.16,88.17,88.18,88.19,88.16,88.16,88.15,88.14,88.13,88.13,88.12,88.11,88.09,88.07,88.06,88.05,88.05,88.05,88.05,88.05,88.07,88.09,88.09,88.09,88.1,88.1,88.09,88.08,88.07,88.07,88.07,88.08,88.08,88.09,88.1,88.1,88.11,88.09,88.06,88.05,88.06,88.07,88.09,88.12,88.13,88.15,88.15,88.16,88.17,88.18,88.2,88.22,88.24,88.24,88.23,88.23,88.22,88.22,88.21,88.18,88.2,88.22,88.24,88.27,88.29,88.31,88.31,88.28,88.27,88.27,88.26,88.26,88.26,88.26,88.25,88.24,88.23,88.23,88.22,88.21,88.21,88.2,88.18,88.16,88.08,87.96,87.92,87.89,87.87,87.85,87.83,87.81,87.78,87.77,87.76,87.76,87.76,87.76,87.76,87.73,87.61,87.56,87.55,87.53,87.51,87.49,87.46,87.44,87.41,87.4,87.38,87.35,87.33,87.31,87.29,87.27,87.22,87.17,87.15,87.12,87.1,87.08,87.06,87.05,87.02,87.0,86.98,86.96,86.94,86.91,86.86,86.82,86.84,86.88,86.81,86.73,86.69,86.68,86.67,86.69,86.71,86.71,86.72,86.72,86.71,86.69,86.64,86.57,86.53,86.51,86.48,86.45,86.44,86.42,86.4,86.39,86.36,86.33,86.3,86.28,86.25,86.23,86.21,86.12,86.06,86.02,86.02,86.01,86.0,85.99,85.99,85.99,86.0,86.01,86.0,85.99,85.98,85.96,85.95,85.95,85.94,85.91,85.89,85.88,85.85,85.82,85.78,85.75,85.71,85.68,85.63,85.59,85.54,85.49,85.44,85.39,85.37,85.35,85.33,85.32,85.26,85.2,85.14,85.03,84.98,84.94,84.91,84.9,84.89,84.91,84.92,84.93,84.97,84.95,84.93,84.87,84.83,84.79,84.77,84.75,84.75,84.74,84.74,84.73,84.67,84.61,84.33,84.17,83.81,83.6,83.55,83.5,83.46,83.42,83.37,83.29,83.21,83.13,83.05,83.02,82.98,82.93,82.89,82.82,82.64,82.47,82.4,82.34,82.27,82.24,82.2,82.17,82.14,82.12,82.1,82.08,82.07,82.05,82.04,82.02,81.99</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1957-05-20</t>
+          <t>1986-07-01</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1959-03-31</t>
+          <t>1988-12-31</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
